--- a/data/btc_data.xlsx
+++ b/data/btc_data.xlsx
@@ -471,4002 +471,4002 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45793.375</v>
+        <v>45795.375</v>
       </c>
       <c r="B2" t="n">
-        <v>146030000</v>
+        <v>146580000</v>
       </c>
       <c r="C2" t="n">
-        <v>147117000</v>
+        <v>150600000</v>
       </c>
       <c r="D2" t="n">
-        <v>145570000</v>
+        <v>146555000</v>
       </c>
       <c r="E2" t="n">
-        <v>146465000</v>
+        <v>150458000</v>
       </c>
       <c r="F2" t="n">
-        <v>1276.22182233</v>
+        <v>1866.44894706</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45794.375</v>
+        <v>45796.375</v>
       </c>
       <c r="B3" t="n">
-        <v>146465000</v>
+        <v>150296000</v>
       </c>
       <c r="C3" t="n">
-        <v>146828000</v>
+        <v>151199000</v>
       </c>
       <c r="D3" t="n">
-        <v>145770000</v>
+        <v>145500000</v>
       </c>
       <c r="E3" t="n">
-        <v>146555000</v>
+        <v>148699000</v>
       </c>
       <c r="F3" t="n">
-        <v>861.6473399499999</v>
+        <v>2401.08645573</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45795.375</v>
+        <v>45797.375</v>
       </c>
       <c r="B4" t="n">
-        <v>146580000</v>
+        <v>148700000</v>
       </c>
       <c r="C4" t="n">
-        <v>150600000</v>
+        <v>150990000</v>
       </c>
       <c r="D4" t="n">
-        <v>146555000</v>
+        <v>147743000</v>
       </c>
       <c r="E4" t="n">
-        <v>150458000</v>
+        <v>150424000</v>
       </c>
       <c r="F4" t="n">
-        <v>1866.44894706</v>
+        <v>1919.88762969</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45796.375</v>
+        <v>45798.375</v>
       </c>
       <c r="B5" t="n">
-        <v>150296000</v>
+        <v>150424000</v>
       </c>
       <c r="C5" t="n">
-        <v>151199000</v>
+        <v>153301000</v>
       </c>
       <c r="D5" t="n">
-        <v>145500000</v>
+        <v>148810000</v>
       </c>
       <c r="E5" t="n">
-        <v>148699000</v>
+        <v>152356000</v>
       </c>
       <c r="F5" t="n">
-        <v>2401.08645573</v>
+        <v>3078.69314991</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45797.375</v>
+        <v>45799.375</v>
       </c>
       <c r="B6" t="n">
-        <v>148700000</v>
+        <v>152356000</v>
       </c>
       <c r="C6" t="n">
-        <v>150990000</v>
+        <v>155323000</v>
       </c>
       <c r="D6" t="n">
-        <v>147743000</v>
+        <v>152070000</v>
       </c>
       <c r="E6" t="n">
-        <v>150424000</v>
+        <v>154861000</v>
       </c>
       <c r="F6" t="n">
-        <v>1919.88762969</v>
+        <v>2781.67594178</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45798.375</v>
+        <v>45800.375</v>
       </c>
       <c r="B7" t="n">
-        <v>150424000</v>
+        <v>154861000</v>
       </c>
       <c r="C7" t="n">
-        <v>153301000</v>
+        <v>155169000</v>
       </c>
       <c r="D7" t="n">
-        <v>148810000</v>
+        <v>149258000</v>
       </c>
       <c r="E7" t="n">
-        <v>152356000</v>
+        <v>149878000</v>
       </c>
       <c r="F7" t="n">
-        <v>3078.69314991</v>
+        <v>3245.40940679</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45799.375</v>
+        <v>45801.375</v>
       </c>
       <c r="B8" t="n">
-        <v>152356000</v>
+        <v>149962000</v>
       </c>
       <c r="C8" t="n">
-        <v>155323000</v>
+        <v>152700000</v>
       </c>
       <c r="D8" t="n">
-        <v>152070000</v>
+        <v>149422000</v>
       </c>
       <c r="E8" t="n">
-        <v>154861000</v>
+        <v>150660000</v>
       </c>
       <c r="F8" t="n">
-        <v>2781.67594178</v>
+        <v>1063.00688169</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45800.375</v>
+        <v>45802.375</v>
       </c>
       <c r="B9" t="n">
-        <v>154861000</v>
+        <v>150680000</v>
       </c>
       <c r="C9" t="n">
-        <v>155169000</v>
+        <v>152946000</v>
       </c>
       <c r="D9" t="n">
-        <v>149258000</v>
+        <v>149916000</v>
       </c>
       <c r="E9" t="n">
-        <v>149878000</v>
+        <v>152133000</v>
       </c>
       <c r="F9" t="n">
-        <v>3245.40940679</v>
+        <v>975.54766995</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45801.375</v>
+        <v>45803.375</v>
       </c>
       <c r="B10" t="n">
-        <v>149962000</v>
+        <v>152133000</v>
       </c>
       <c r="C10" t="n">
-        <v>152700000</v>
+        <v>153000000</v>
       </c>
       <c r="D10" t="n">
-        <v>149422000</v>
+        <v>151509000</v>
       </c>
       <c r="E10" t="n">
-        <v>150660000</v>
+        <v>152195000</v>
       </c>
       <c r="F10" t="n">
-        <v>1063.00688169</v>
+        <v>987.97582253</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45802.375</v>
+        <v>45804.375</v>
       </c>
       <c r="B11" t="n">
-        <v>150680000</v>
+        <v>152197000</v>
       </c>
       <c r="C11" t="n">
-        <v>152946000</v>
+        <v>153218000</v>
       </c>
       <c r="D11" t="n">
-        <v>149916000</v>
+        <v>150001000</v>
       </c>
       <c r="E11" t="n">
-        <v>152133000</v>
+        <v>151323000</v>
       </c>
       <c r="F11" t="n">
-        <v>975.54766995</v>
+        <v>1629.83186829</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45803.375</v>
+        <v>45805.375</v>
       </c>
       <c r="B12" t="n">
-        <v>152133000</v>
+        <v>151323000</v>
       </c>
       <c r="C12" t="n">
-        <v>153000000</v>
+        <v>151608000</v>
       </c>
       <c r="D12" t="n">
-        <v>151509000</v>
+        <v>149520000</v>
       </c>
       <c r="E12" t="n">
-        <v>152195000</v>
+        <v>150280000</v>
       </c>
       <c r="F12" t="n">
-        <v>987.97582253</v>
+        <v>1140.46411905</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45804.375</v>
+        <v>45806.375</v>
       </c>
       <c r="B13" t="n">
-        <v>152197000</v>
+        <v>150280000</v>
       </c>
       <c r="C13" t="n">
-        <v>153218000</v>
+        <v>151291000</v>
       </c>
       <c r="D13" t="n">
-        <v>150001000</v>
+        <v>147160000</v>
       </c>
       <c r="E13" t="n">
-        <v>151323000</v>
+        <v>147370000</v>
       </c>
       <c r="F13" t="n">
-        <v>1629.83186829</v>
+        <v>1717.72520344</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45805.375</v>
+        <v>45807.375</v>
       </c>
       <c r="B14" t="n">
-        <v>151323000</v>
+        <v>147370000</v>
       </c>
       <c r="C14" t="n">
-        <v>151608000</v>
+        <v>149000000</v>
       </c>
       <c r="D14" t="n">
-        <v>149520000</v>
+        <v>146300000</v>
       </c>
       <c r="E14" t="n">
-        <v>150280000</v>
+        <v>147044000</v>
       </c>
       <c r="F14" t="n">
-        <v>1140.46411905</v>
+        <v>2171.38535825</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45806.375</v>
+        <v>45808.375</v>
       </c>
       <c r="B15" t="n">
-        <v>150280000</v>
+        <v>147044000</v>
       </c>
       <c r="C15" t="n">
-        <v>151291000</v>
+        <v>148700000</v>
       </c>
       <c r="D15" t="n">
-        <v>147160000</v>
+        <v>146042000</v>
       </c>
       <c r="E15" t="n">
-        <v>147370000</v>
+        <v>147932000</v>
       </c>
       <c r="F15" t="n">
-        <v>1717.72520344</v>
+        <v>1097.54923406</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45807.375</v>
+        <v>45809.375</v>
       </c>
       <c r="B16" t="n">
-        <v>147370000</v>
+        <v>147932000</v>
       </c>
       <c r="C16" t="n">
-        <v>149000000</v>
+        <v>149502000</v>
       </c>
       <c r="D16" t="n">
-        <v>146300000</v>
+        <v>147000000</v>
       </c>
       <c r="E16" t="n">
-        <v>147044000</v>
+        <v>149100000</v>
       </c>
       <c r="F16" t="n">
-        <v>2171.38535825</v>
+        <v>759.69668968</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45808.375</v>
+        <v>45810.375</v>
       </c>
       <c r="B17" t="n">
-        <v>147044000</v>
+        <v>149102000</v>
       </c>
       <c r="C17" t="n">
-        <v>148700000</v>
+        <v>149166000</v>
       </c>
       <c r="D17" t="n">
-        <v>146042000</v>
+        <v>146209000</v>
       </c>
       <c r="E17" t="n">
-        <v>147932000</v>
+        <v>148074000</v>
       </c>
       <c r="F17" t="n">
-        <v>1097.54923406</v>
+        <v>1198.05720248</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45809.375</v>
+        <v>45811.375</v>
       </c>
       <c r="B18" t="n">
-        <v>147932000</v>
+        <v>148070000</v>
       </c>
       <c r="C18" t="n">
-        <v>149502000</v>
+        <v>148900000</v>
       </c>
       <c r="D18" t="n">
-        <v>147000000</v>
+        <v>147022000</v>
       </c>
       <c r="E18" t="n">
-        <v>149100000</v>
+        <v>147322000</v>
       </c>
       <c r="F18" t="n">
-        <v>759.69668968</v>
+        <v>979.14377348</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45810.375</v>
+        <v>45812.375</v>
       </c>
       <c r="B19" t="n">
-        <v>149102000</v>
+        <v>147378000</v>
       </c>
       <c r="C19" t="n">
-        <v>149166000</v>
+        <v>147601000</v>
       </c>
       <c r="D19" t="n">
-        <v>146209000</v>
+        <v>145200000</v>
       </c>
       <c r="E19" t="n">
-        <v>148074000</v>
+        <v>145210000</v>
       </c>
       <c r="F19" t="n">
-        <v>1198.05720248</v>
+        <v>1104.00724819</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45811.375</v>
+        <v>45813.375</v>
       </c>
       <c r="B20" t="n">
-        <v>148070000</v>
+        <v>145218000</v>
       </c>
       <c r="C20" t="n">
-        <v>148900000</v>
+        <v>146487000</v>
       </c>
       <c r="D20" t="n">
-        <v>147022000</v>
+        <v>140399000</v>
       </c>
       <c r="E20" t="n">
-        <v>147322000</v>
+        <v>141588000</v>
       </c>
       <c r="F20" t="n">
-        <v>979.14377348</v>
+        <v>2536.94255293</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45812.375</v>
+        <v>45814.375</v>
       </c>
       <c r="B21" t="n">
-        <v>147378000</v>
+        <v>141588000</v>
       </c>
       <c r="C21" t="n">
-        <v>147601000</v>
+        <v>146120000</v>
       </c>
       <c r="D21" t="n">
-        <v>145200000</v>
+        <v>140862000</v>
       </c>
       <c r="E21" t="n">
-        <v>145210000</v>
+        <v>145196000</v>
       </c>
       <c r="F21" t="n">
-        <v>1104.00724819</v>
+        <v>1279.12726613</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45813.375</v>
+        <v>45815.375</v>
       </c>
       <c r="B22" t="n">
-        <v>145218000</v>
+        <v>145196000</v>
       </c>
       <c r="C22" t="n">
-        <v>146487000</v>
+        <v>146895000</v>
       </c>
       <c r="D22" t="n">
-        <v>140399000</v>
+        <v>144601000</v>
       </c>
       <c r="E22" t="n">
-        <v>141588000</v>
+        <v>146514000</v>
       </c>
       <c r="F22" t="n">
-        <v>2536.94255293</v>
+        <v>603.1996993</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45814.375</v>
+        <v>45816.375</v>
       </c>
       <c r="B23" t="n">
-        <v>141588000</v>
+        <v>146540000</v>
       </c>
       <c r="C23" t="n">
-        <v>146120000</v>
+        <v>146796000</v>
       </c>
       <c r="D23" t="n">
-        <v>140862000</v>
+        <v>145196000</v>
       </c>
       <c r="E23" t="n">
-        <v>145196000</v>
+        <v>145799000</v>
       </c>
       <c r="F23" t="n">
-        <v>1279.12726613</v>
+        <v>553.07283989</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45815.375</v>
+        <v>45817.375</v>
       </c>
       <c r="B24" t="n">
-        <v>145196000</v>
+        <v>145801000</v>
       </c>
       <c r="C24" t="n">
-        <v>146895000</v>
+        <v>150600000</v>
       </c>
       <c r="D24" t="n">
-        <v>144601000</v>
+        <v>144900000</v>
       </c>
       <c r="E24" t="n">
-        <v>146514000</v>
+        <v>150330000</v>
       </c>
       <c r="F24" t="n">
-        <v>603.1996993</v>
+        <v>1605.82129866</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45816.375</v>
+        <v>45818.375</v>
       </c>
       <c r="B25" t="n">
-        <v>146540000</v>
+        <v>150330000</v>
       </c>
       <c r="C25" t="n">
-        <v>146796000</v>
+        <v>150992000</v>
       </c>
       <c r="D25" t="n">
-        <v>145196000</v>
+        <v>149060000</v>
       </c>
       <c r="E25" t="n">
-        <v>145799000</v>
+        <v>150604000</v>
       </c>
       <c r="F25" t="n">
-        <v>553.07283989</v>
+        <v>1359.55145588</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45817.375</v>
+        <v>45819.375</v>
       </c>
       <c r="B26" t="n">
-        <v>145801000</v>
+        <v>150628000</v>
       </c>
       <c r="C26" t="n">
-        <v>150600000</v>
+        <v>151400000</v>
       </c>
       <c r="D26" t="n">
-        <v>144900000</v>
+        <v>148999000</v>
       </c>
       <c r="E26" t="n">
-        <v>150330000</v>
+        <v>149702000</v>
       </c>
       <c r="F26" t="n">
-        <v>1605.82129866</v>
+        <v>1080.08422097</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45818.375</v>
+        <v>45820.375</v>
       </c>
       <c r="B27" t="n">
-        <v>150330000</v>
+        <v>149710000</v>
       </c>
       <c r="C27" t="n">
-        <v>150992000</v>
+        <v>149840000</v>
       </c>
       <c r="D27" t="n">
-        <v>149060000</v>
+        <v>145801000</v>
       </c>
       <c r="E27" t="n">
-        <v>150604000</v>
+        <v>145801000</v>
       </c>
       <c r="F27" t="n">
-        <v>1359.55145588</v>
+        <v>1570.65133602</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45819.375</v>
+        <v>45821.375</v>
       </c>
       <c r="B28" t="n">
-        <v>150628000</v>
+        <v>145811000</v>
       </c>
       <c r="C28" t="n">
-        <v>151400000</v>
+        <v>147340000</v>
       </c>
       <c r="D28" t="n">
-        <v>148999000</v>
+        <v>143000000</v>
       </c>
       <c r="E28" t="n">
-        <v>149702000</v>
+        <v>147266000</v>
       </c>
       <c r="F28" t="n">
-        <v>1080.08422097</v>
+        <v>2195.12537289</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45820.375</v>
+        <v>45822.375</v>
       </c>
       <c r="B29" t="n">
-        <v>149710000</v>
+        <v>147265000</v>
       </c>
       <c r="C29" t="n">
-        <v>149840000</v>
+        <v>147526000</v>
       </c>
       <c r="D29" t="n">
-        <v>145801000</v>
+        <v>145082000</v>
       </c>
       <c r="E29" t="n">
-        <v>145801000</v>
+        <v>146401000</v>
       </c>
       <c r="F29" t="n">
-        <v>1570.65133602</v>
+        <v>584.4001293699999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45821.375</v>
+        <v>45823.375</v>
       </c>
       <c r="B30" t="n">
-        <v>145811000</v>
+        <v>146401000</v>
       </c>
       <c r="C30" t="n">
-        <v>147340000</v>
+        <v>147100000</v>
       </c>
       <c r="D30" t="n">
-        <v>143000000</v>
+        <v>145220000</v>
       </c>
       <c r="E30" t="n">
-        <v>147266000</v>
+        <v>145997000</v>
       </c>
       <c r="F30" t="n">
-        <v>2195.12537289</v>
+        <v>576.27420172</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45822.375</v>
+        <v>45824.375</v>
       </c>
       <c r="B31" t="n">
-        <v>147265000</v>
+        <v>145998000</v>
       </c>
       <c r="C31" t="n">
-        <v>147526000</v>
+        <v>149303000</v>
       </c>
       <c r="D31" t="n">
-        <v>145082000</v>
+        <v>145250000</v>
       </c>
       <c r="E31" t="n">
-        <v>146401000</v>
+        <v>146673000</v>
       </c>
       <c r="F31" t="n">
-        <v>584.4001293699999</v>
+        <v>1408.77470368</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45823.375</v>
+        <v>45825.375</v>
       </c>
       <c r="B32" t="n">
-        <v>146401000</v>
+        <v>146661000</v>
       </c>
       <c r="C32" t="n">
-        <v>147100000</v>
+        <v>147957000</v>
       </c>
       <c r="D32" t="n">
-        <v>145220000</v>
+        <v>143900000</v>
       </c>
       <c r="E32" t="n">
-        <v>145997000</v>
+        <v>145456000</v>
       </c>
       <c r="F32" t="n">
-        <v>576.27420172</v>
+        <v>1403.18502313</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45824.375</v>
+        <v>45826.375</v>
       </c>
       <c r="B33" t="n">
-        <v>145998000</v>
+        <v>145456000</v>
       </c>
       <c r="C33" t="n">
-        <v>149303000</v>
+        <v>146128000</v>
       </c>
       <c r="D33" t="n">
-        <v>145250000</v>
+        <v>144150000</v>
       </c>
       <c r="E33" t="n">
-        <v>146673000</v>
+        <v>145380000</v>
       </c>
       <c r="F33" t="n">
-        <v>1408.77470368</v>
+        <v>870.61801942</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45825.375</v>
+        <v>45827.375</v>
       </c>
       <c r="B34" t="n">
-        <v>146661000</v>
+        <v>145381000</v>
       </c>
       <c r="C34" t="n">
-        <v>147957000</v>
+        <v>146000000</v>
       </c>
       <c r="D34" t="n">
-        <v>143900000</v>
+        <v>144500000</v>
       </c>
       <c r="E34" t="n">
-        <v>145456000</v>
+        <v>144978000</v>
       </c>
       <c r="F34" t="n">
-        <v>1403.18502313</v>
+        <v>700.77154255</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45826.375</v>
+        <v>45828.375</v>
       </c>
       <c r="B35" t="n">
-        <v>145456000</v>
+        <v>144979000</v>
       </c>
       <c r="C35" t="n">
-        <v>146128000</v>
+        <v>146930000</v>
       </c>
       <c r="D35" t="n">
-        <v>144150000</v>
+        <v>143107000</v>
       </c>
       <c r="E35" t="n">
-        <v>145380000</v>
+        <v>143956000</v>
       </c>
       <c r="F35" t="n">
-        <v>870.61801942</v>
+        <v>1315.62127829</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45827.375</v>
+        <v>45829.375</v>
       </c>
       <c r="B36" t="n">
-        <v>145381000</v>
+        <v>143956000</v>
       </c>
       <c r="C36" t="n">
-        <v>146000000</v>
+        <v>144427000</v>
       </c>
       <c r="D36" t="n">
-        <v>144500000</v>
+        <v>141151000</v>
       </c>
       <c r="E36" t="n">
-        <v>144978000</v>
+        <v>142782000</v>
       </c>
       <c r="F36" t="n">
-        <v>700.77154255</v>
+        <v>1092.57854726</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45828.375</v>
+        <v>45830.375</v>
       </c>
       <c r="B37" t="n">
-        <v>144979000</v>
+        <v>142811000</v>
       </c>
       <c r="C37" t="n">
-        <v>146930000</v>
+        <v>144900000</v>
       </c>
       <c r="D37" t="n">
-        <v>143107000</v>
+        <v>137127000</v>
       </c>
       <c r="E37" t="n">
-        <v>143956000</v>
+        <v>140908000</v>
       </c>
       <c r="F37" t="n">
-        <v>1315.62127829</v>
+        <v>3335.88004835</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45829.375</v>
+        <v>45831.375</v>
       </c>
       <c r="B38" t="n">
-        <v>143956000</v>
+        <v>140908000</v>
       </c>
       <c r="C38" t="n">
-        <v>144427000</v>
+        <v>147101000</v>
       </c>
       <c r="D38" t="n">
-        <v>141151000</v>
+        <v>139698000</v>
       </c>
       <c r="E38" t="n">
-        <v>142782000</v>
+        <v>146182000</v>
       </c>
       <c r="F38" t="n">
-        <v>1092.57854726</v>
+        <v>2422.95238077</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45830.375</v>
+        <v>45832.375</v>
       </c>
       <c r="B39" t="n">
-        <v>142811000</v>
+        <v>146180000</v>
       </c>
       <c r="C39" t="n">
-        <v>144900000</v>
+        <v>146387000</v>
       </c>
       <c r="D39" t="n">
-        <v>137127000</v>
+        <v>144222000</v>
       </c>
       <c r="E39" t="n">
-        <v>140908000</v>
+        <v>145625000</v>
       </c>
       <c r="F39" t="n">
-        <v>3335.88004835</v>
+        <v>1272.92112127</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45831.375</v>
+        <v>45833.375</v>
       </c>
       <c r="B40" t="n">
-        <v>140908000</v>
+        <v>145626000</v>
       </c>
       <c r="C40" t="n">
-        <v>147101000</v>
+        <v>148620000</v>
       </c>
       <c r="D40" t="n">
-        <v>139698000</v>
+        <v>145360000</v>
       </c>
       <c r="E40" t="n">
-        <v>146182000</v>
+        <v>147365000</v>
       </c>
       <c r="F40" t="n">
-        <v>2422.95238077</v>
+        <v>1318.58944681</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45832.375</v>
+        <v>45834.375</v>
       </c>
       <c r="B41" t="n">
-        <v>146180000</v>
+        <v>147365000</v>
       </c>
       <c r="C41" t="n">
-        <v>146387000</v>
+        <v>148205000</v>
       </c>
       <c r="D41" t="n">
-        <v>144222000</v>
+        <v>146500000</v>
       </c>
       <c r="E41" t="n">
-        <v>145625000</v>
+        <v>146852000</v>
       </c>
       <c r="F41" t="n">
-        <v>1272.92112127</v>
+        <v>950.33860524</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45833.375</v>
+        <v>45835.375</v>
       </c>
       <c r="B42" t="n">
-        <v>145626000</v>
+        <v>146868000</v>
       </c>
       <c r="C42" t="n">
-        <v>148620000</v>
+        <v>147628000</v>
       </c>
       <c r="D42" t="n">
-        <v>145360000</v>
+        <v>146000000</v>
       </c>
       <c r="E42" t="n">
-        <v>147365000</v>
+        <v>147058000</v>
       </c>
       <c r="F42" t="n">
-        <v>1318.58944681</v>
+        <v>758.4102258200001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45834.375</v>
+        <v>45836.375</v>
       </c>
       <c r="B43" t="n">
-        <v>147365000</v>
+        <v>147001000</v>
       </c>
       <c r="C43" t="n">
-        <v>148205000</v>
+        <v>147479000</v>
       </c>
       <c r="D43" t="n">
-        <v>146500000</v>
+        <v>146799000</v>
       </c>
       <c r="E43" t="n">
-        <v>146852000</v>
+        <v>147174000</v>
       </c>
       <c r="F43" t="n">
-        <v>950.33860524</v>
+        <v>291.28203061</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45835.375</v>
+        <v>45837.375</v>
       </c>
       <c r="B44" t="n">
-        <v>146868000</v>
+        <v>147174000</v>
       </c>
       <c r="C44" t="n">
-        <v>147628000</v>
+        <v>148502000</v>
       </c>
       <c r="D44" t="n">
-        <v>146000000</v>
+        <v>147091000</v>
       </c>
       <c r="E44" t="n">
-        <v>147058000</v>
+        <v>147996000</v>
       </c>
       <c r="F44" t="n">
-        <v>758.4102258200001</v>
+        <v>650.95569906</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45836.375</v>
+        <v>45838.375</v>
       </c>
       <c r="B45" t="n">
-        <v>147001000</v>
+        <v>147996000</v>
       </c>
       <c r="C45" t="n">
-        <v>147479000</v>
+        <v>148480000</v>
       </c>
       <c r="D45" t="n">
-        <v>146799000</v>
+        <v>145740000</v>
       </c>
       <c r="E45" t="n">
-        <v>147174000</v>
+        <v>145759000</v>
       </c>
       <c r="F45" t="n">
-        <v>291.28203061</v>
+        <v>944.35761221</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45837.375</v>
+        <v>45839.375</v>
       </c>
       <c r="B46" t="n">
-        <v>147174000</v>
+        <v>145759000</v>
       </c>
       <c r="C46" t="n">
-        <v>148502000</v>
+        <v>146678000</v>
       </c>
       <c r="D46" t="n">
-        <v>147091000</v>
+        <v>144710000</v>
       </c>
       <c r="E46" t="n">
-        <v>147996000</v>
+        <v>145019000</v>
       </c>
       <c r="F46" t="n">
-        <v>650.95569906</v>
+        <v>915.58085007</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45838.375</v>
+        <v>45840.375</v>
       </c>
       <c r="B47" t="n">
-        <v>147996000</v>
+        <v>145019000</v>
       </c>
       <c r="C47" t="n">
-        <v>148480000</v>
+        <v>148930000</v>
       </c>
       <c r="D47" t="n">
-        <v>145740000</v>
+        <v>144265000</v>
       </c>
       <c r="E47" t="n">
-        <v>145759000</v>
+        <v>147372000</v>
       </c>
       <c r="F47" t="n">
-        <v>944.35761221</v>
+        <v>1356.69500727</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45839.375</v>
+        <v>45841.375</v>
       </c>
       <c r="B48" t="n">
-        <v>145759000</v>
+        <v>147372000</v>
       </c>
       <c r="C48" t="n">
-        <v>146678000</v>
+        <v>149755000</v>
       </c>
       <c r="D48" t="n">
-        <v>144710000</v>
+        <v>147364000</v>
       </c>
       <c r="E48" t="n">
-        <v>145019000</v>
+        <v>148737000</v>
       </c>
       <c r="F48" t="n">
-        <v>915.58085007</v>
+        <v>1182.41237517</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45840.375</v>
+        <v>45842.375</v>
       </c>
       <c r="B49" t="n">
-        <v>145019000</v>
+        <v>148737000</v>
       </c>
       <c r="C49" t="n">
-        <v>148930000</v>
+        <v>149360000</v>
       </c>
       <c r="D49" t="n">
-        <v>144265000</v>
+        <v>146929000</v>
       </c>
       <c r="E49" t="n">
-        <v>147372000</v>
+        <v>147797000</v>
       </c>
       <c r="F49" t="n">
-        <v>1356.69500727</v>
+        <v>819.64407007</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45841.375</v>
+        <v>45843.375</v>
       </c>
       <c r="B50" t="n">
-        <v>147372000</v>
+        <v>147798000</v>
       </c>
       <c r="C50" t="n">
-        <v>149755000</v>
+        <v>148400000</v>
       </c>
       <c r="D50" t="n">
-        <v>147364000</v>
+        <v>147655000</v>
       </c>
       <c r="E50" t="n">
-        <v>148737000</v>
+        <v>148197000</v>
       </c>
       <c r="F50" t="n">
-        <v>1182.41237517</v>
+        <v>289.92019607</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45842.375</v>
+        <v>45844.375</v>
       </c>
       <c r="B51" t="n">
-        <v>148737000</v>
+        <v>148197000</v>
       </c>
       <c r="C51" t="n">
-        <v>149360000</v>
+        <v>149100000</v>
       </c>
       <c r="D51" t="n">
-        <v>146929000</v>
+        <v>147411000</v>
       </c>
       <c r="E51" t="n">
-        <v>147797000</v>
+        <v>148500000</v>
       </c>
       <c r="F51" t="n">
-        <v>819.64407007</v>
+        <v>574.6773279499999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45843.375</v>
+        <v>45845.375</v>
       </c>
       <c r="B52" t="n">
-        <v>147798000</v>
+        <v>148500000</v>
       </c>
       <c r="C52" t="n">
-        <v>148400000</v>
+        <v>149100000</v>
       </c>
       <c r="D52" t="n">
-        <v>147655000</v>
+        <v>147196000</v>
       </c>
       <c r="E52" t="n">
-        <v>148197000</v>
+        <v>148100000</v>
       </c>
       <c r="F52" t="n">
-        <v>289.92019607</v>
+        <v>832.2946169099999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45844.375</v>
+        <v>45846.375</v>
       </c>
       <c r="B53" t="n">
-        <v>148197000</v>
+        <v>148100000</v>
       </c>
       <c r="C53" t="n">
-        <v>149100000</v>
+        <v>148890000</v>
       </c>
       <c r="D53" t="n">
-        <v>147411000</v>
+        <v>147100000</v>
       </c>
       <c r="E53" t="n">
-        <v>148500000</v>
+        <v>148302000</v>
       </c>
       <c r="F53" t="n">
-        <v>574.6773279499999</v>
+        <v>670.29249832</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45845.375</v>
+        <v>45847.375</v>
       </c>
       <c r="B54" t="n">
-        <v>148500000</v>
+        <v>148302000</v>
       </c>
       <c r="C54" t="n">
-        <v>149100000</v>
+        <v>151479000</v>
       </c>
       <c r="D54" t="n">
-        <v>147196000</v>
+        <v>148000000</v>
       </c>
       <c r="E54" t="n">
-        <v>148100000</v>
+        <v>150701000</v>
       </c>
       <c r="F54" t="n">
-        <v>832.2946169099999</v>
+        <v>1496.46774735</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45846.375</v>
+        <v>45848.375</v>
       </c>
       <c r="B55" t="n">
-        <v>148100000</v>
+        <v>150750000</v>
       </c>
       <c r="C55" t="n">
-        <v>148890000</v>
+        <v>156960000</v>
       </c>
       <c r="D55" t="n">
-        <v>147100000</v>
+        <v>150200000</v>
       </c>
       <c r="E55" t="n">
-        <v>148302000</v>
+        <v>156519000</v>
       </c>
       <c r="F55" t="n">
-        <v>670.29249832</v>
+        <v>2648.04060121</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45847.375</v>
+        <v>45849.375</v>
       </c>
       <c r="B56" t="n">
-        <v>148302000</v>
+        <v>156517000</v>
       </c>
       <c r="C56" t="n">
-        <v>151479000</v>
+        <v>160744000</v>
       </c>
       <c r="D56" t="n">
-        <v>148000000</v>
+        <v>155000000</v>
       </c>
       <c r="E56" t="n">
-        <v>150701000</v>
+        <v>158187000</v>
       </c>
       <c r="F56" t="n">
-        <v>1496.46774735</v>
+        <v>3339.42695041</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45848.375</v>
+        <v>45850.375</v>
       </c>
       <c r="B57" t="n">
-        <v>150750000</v>
+        <v>158187000</v>
       </c>
       <c r="C57" t="n">
-        <v>156960000</v>
+        <v>159952000</v>
       </c>
       <c r="D57" t="n">
-        <v>150200000</v>
+        <v>157200000</v>
       </c>
       <c r="E57" t="n">
-        <v>156519000</v>
+        <v>159681000</v>
       </c>
       <c r="F57" t="n">
-        <v>2648.04060121</v>
+        <v>1039.66662029</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45849.375</v>
+        <v>45851.375</v>
       </c>
       <c r="B58" t="n">
-        <v>156517000</v>
+        <v>159683000</v>
       </c>
       <c r="C58" t="n">
-        <v>160744000</v>
+        <v>161754000</v>
       </c>
       <c r="D58" t="n">
-        <v>155000000</v>
+        <v>159450000</v>
       </c>
       <c r="E58" t="n">
-        <v>158187000</v>
+        <v>161740000</v>
       </c>
       <c r="F58" t="n">
-        <v>3339.42695041</v>
+        <v>1227.16949574</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45850.375</v>
+        <v>45852.375</v>
       </c>
       <c r="B59" t="n">
-        <v>158187000</v>
+        <v>161740000</v>
       </c>
       <c r="C59" t="n">
-        <v>159952000</v>
+        <v>166800000</v>
       </c>
       <c r="D59" t="n">
-        <v>157200000</v>
+        <v>161357000</v>
       </c>
       <c r="E59" t="n">
-        <v>159681000</v>
+        <v>163923000</v>
       </c>
       <c r="F59" t="n">
-        <v>1039.66662029</v>
+        <v>3490.7303061</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45851.375</v>
+        <v>45853.375</v>
       </c>
       <c r="B60" t="n">
-        <v>159683000</v>
+        <v>163923000</v>
       </c>
       <c r="C60" t="n">
-        <v>161754000</v>
+        <v>164010000</v>
       </c>
       <c r="D60" t="n">
-        <v>159450000</v>
+        <v>158658000</v>
       </c>
       <c r="E60" t="n">
-        <v>161740000</v>
+        <v>160811000</v>
       </c>
       <c r="F60" t="n">
-        <v>1227.16949574</v>
+        <v>3179.44960753</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45852.375</v>
+        <v>45854.375</v>
       </c>
       <c r="B61" t="n">
-        <v>161740000</v>
+        <v>160811000</v>
       </c>
       <c r="C61" t="n">
-        <v>166800000</v>
+        <v>163210000</v>
       </c>
       <c r="D61" t="n">
-        <v>161357000</v>
+        <v>160175000</v>
       </c>
       <c r="E61" t="n">
-        <v>163923000</v>
+        <v>161250000</v>
       </c>
       <c r="F61" t="n">
-        <v>3490.7303061</v>
+        <v>1841.21876947</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45853.375</v>
+        <v>45855.375</v>
       </c>
       <c r="B62" t="n">
-        <v>163923000</v>
+        <v>161246000</v>
       </c>
       <c r="C62" t="n">
-        <v>164010000</v>
+        <v>163955000</v>
       </c>
       <c r="D62" t="n">
-        <v>158658000</v>
+        <v>160002000</v>
       </c>
       <c r="E62" t="n">
-        <v>160811000</v>
+        <v>162232000</v>
       </c>
       <c r="F62" t="n">
-        <v>3179.44960753</v>
+        <v>2240.66691129</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45854.375</v>
+        <v>45856.375</v>
       </c>
       <c r="B63" t="n">
-        <v>160811000</v>
+        <v>162232000</v>
       </c>
       <c r="C63" t="n">
-        <v>163210000</v>
+        <v>164446000</v>
       </c>
       <c r="D63" t="n">
-        <v>160175000</v>
+        <v>159301000</v>
       </c>
       <c r="E63" t="n">
-        <v>161250000</v>
+        <v>161100000</v>
       </c>
       <c r="F63" t="n">
-        <v>1841.21876947</v>
+        <v>2771.33021866</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45855.375</v>
+        <v>45857.375</v>
       </c>
       <c r="B64" t="n">
-        <v>161246000</v>
+        <v>161098000</v>
       </c>
       <c r="C64" t="n">
-        <v>163955000</v>
+        <v>162470000</v>
       </c>
       <c r="D64" t="n">
-        <v>160002000</v>
+        <v>160788000</v>
       </c>
       <c r="E64" t="n">
-        <v>162232000</v>
+        <v>161428000</v>
       </c>
       <c r="F64" t="n">
-        <v>2240.66691129</v>
+        <v>842.3510109</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45856.375</v>
+        <v>45858.375</v>
       </c>
       <c r="B65" t="n">
-        <v>162232000</v>
+        <v>161428000</v>
       </c>
       <c r="C65" t="n">
-        <v>164446000</v>
+        <v>162000000</v>
       </c>
       <c r="D65" t="n">
-        <v>159301000</v>
+        <v>159726000</v>
       </c>
       <c r="E65" t="n">
-        <v>161100000</v>
+        <v>160072000</v>
       </c>
       <c r="F65" t="n">
-        <v>2771.33021866</v>
+        <v>1429.7828596</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45857.375</v>
+        <v>45859.375</v>
       </c>
       <c r="B66" t="n">
-        <v>161098000</v>
+        <v>160072000</v>
       </c>
       <c r="C66" t="n">
-        <v>162470000</v>
+        <v>162300000</v>
       </c>
       <c r="D66" t="n">
-        <v>160788000</v>
+        <v>159350000</v>
       </c>
       <c r="E66" t="n">
-        <v>161428000</v>
+        <v>160096000</v>
       </c>
       <c r="F66" t="n">
-        <v>842.3510109</v>
+        <v>1982.32577051</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45858.375</v>
+        <v>45860.375</v>
       </c>
       <c r="B67" t="n">
-        <v>161428000</v>
+        <v>160094000</v>
       </c>
       <c r="C67" t="n">
-        <v>162000000</v>
+        <v>162990000</v>
       </c>
       <c r="D67" t="n">
-        <v>159726000</v>
+        <v>158750000</v>
       </c>
       <c r="E67" t="n">
-        <v>160072000</v>
+        <v>162321000</v>
       </c>
       <c r="F67" t="n">
-        <v>1429.7828596</v>
+        <v>2730.46451082</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45859.375</v>
+        <v>45861.375</v>
       </c>
       <c r="B68" t="n">
-        <v>160072000</v>
+        <v>162321000</v>
       </c>
       <c r="C68" t="n">
-        <v>162300000</v>
+        <v>162848000</v>
       </c>
       <c r="D68" t="n">
-        <v>159350000</v>
+        <v>159192000</v>
       </c>
       <c r="E68" t="n">
-        <v>160096000</v>
+        <v>161990000</v>
       </c>
       <c r="F68" t="n">
-        <v>1982.32577051</v>
+        <v>2098.23989394</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45860.375</v>
+        <v>45862.375</v>
       </c>
       <c r="B69" t="n">
-        <v>160094000</v>
+        <v>162000000</v>
       </c>
       <c r="C69" t="n">
-        <v>162990000</v>
+        <v>162888000</v>
       </c>
       <c r="D69" t="n">
-        <v>158750000</v>
+        <v>159000000</v>
       </c>
       <c r="E69" t="n">
-        <v>162321000</v>
+        <v>160928000</v>
       </c>
       <c r="F69" t="n">
-        <v>2730.46451082</v>
+        <v>2151.53591644</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45861.375</v>
+        <v>45863.375</v>
       </c>
       <c r="B70" t="n">
-        <v>162321000</v>
+        <v>160938000</v>
       </c>
       <c r="C70" t="n">
-        <v>162848000</v>
+        <v>161239000</v>
       </c>
       <c r="D70" t="n">
-        <v>159192000</v>
+        <v>157746000</v>
       </c>
       <c r="E70" t="n">
-        <v>161990000</v>
+        <v>160217000</v>
       </c>
       <c r="F70" t="n">
-        <v>2098.23989394</v>
+        <v>2661.28602167</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45862.375</v>
+        <v>45864.375</v>
       </c>
       <c r="B71" t="n">
-        <v>162000000</v>
+        <v>160225000</v>
       </c>
       <c r="C71" t="n">
-        <v>162888000</v>
+        <v>161220000</v>
       </c>
       <c r="D71" t="n">
-        <v>159000000</v>
+        <v>159600000</v>
       </c>
       <c r="E71" t="n">
-        <v>160928000</v>
+        <v>160900000</v>
       </c>
       <c r="F71" t="n">
-        <v>2151.53591644</v>
+        <v>789.27787874</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45863.375</v>
+        <v>45865.375</v>
       </c>
       <c r="B72" t="n">
-        <v>160938000</v>
+        <v>160900000</v>
       </c>
       <c r="C72" t="n">
-        <v>161239000</v>
+        <v>162800000</v>
       </c>
       <c r="D72" t="n">
-        <v>157746000</v>
+        <v>160858000</v>
       </c>
       <c r="E72" t="n">
-        <v>160217000</v>
+        <v>162717000</v>
       </c>
       <c r="F72" t="n">
-        <v>2661.28602167</v>
+        <v>1057.82545276</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45864.375</v>
+        <v>45866.375</v>
       </c>
       <c r="B73" t="n">
-        <v>160225000</v>
+        <v>162548000</v>
       </c>
       <c r="C73" t="n">
-        <v>161220000</v>
+        <v>162985000</v>
       </c>
       <c r="D73" t="n">
-        <v>159600000</v>
+        <v>161391000</v>
       </c>
       <c r="E73" t="n">
-        <v>160900000</v>
+        <v>162483000</v>
       </c>
       <c r="F73" t="n">
-        <v>789.27787874</v>
+        <v>1461.59937798</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45865.375</v>
+        <v>45867.375</v>
       </c>
       <c r="B74" t="n">
-        <v>160900000</v>
+        <v>162483000</v>
       </c>
       <c r="C74" t="n">
-        <v>162800000</v>
+        <v>163800000</v>
       </c>
       <c r="D74" t="n">
-        <v>160858000</v>
+        <v>162034000</v>
       </c>
       <c r="E74" t="n">
-        <v>162717000</v>
+        <v>163158000</v>
       </c>
       <c r="F74" t="n">
-        <v>1057.82545276</v>
+        <v>1487.53432374</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45866.375</v>
+        <v>45868.375</v>
       </c>
       <c r="B75" t="n">
-        <v>162548000</v>
+        <v>163248000</v>
       </c>
       <c r="C75" t="n">
-        <v>162985000</v>
+        <v>163708000</v>
       </c>
       <c r="D75" t="n">
-        <v>161391000</v>
+        <v>161800000</v>
       </c>
       <c r="E75" t="n">
-        <v>162483000</v>
+        <v>163118000</v>
       </c>
       <c r="F75" t="n">
-        <v>1461.59937798</v>
+        <v>1209.08673259</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45867.375</v>
+        <v>45869.375</v>
       </c>
       <c r="B76" t="n">
-        <v>162483000</v>
+        <v>163118000</v>
       </c>
       <c r="C76" t="n">
-        <v>163800000</v>
+        <v>164300000</v>
       </c>
       <c r="D76" t="n">
-        <v>162034000</v>
+        <v>161138000</v>
       </c>
       <c r="E76" t="n">
-        <v>163158000</v>
+        <v>161398000</v>
       </c>
       <c r="F76" t="n">
-        <v>1487.53432374</v>
+        <v>1460.98746879</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45868.375</v>
+        <v>45870.375</v>
       </c>
       <c r="B77" t="n">
-        <v>163248000</v>
+        <v>161400000</v>
       </c>
       <c r="C77" t="n">
-        <v>163708000</v>
+        <v>161770000</v>
       </c>
       <c r="D77" t="n">
-        <v>161800000</v>
+        <v>158100000</v>
       </c>
       <c r="E77" t="n">
-        <v>163118000</v>
+        <v>158102000</v>
       </c>
       <c r="F77" t="n">
-        <v>1209.08673259</v>
+        <v>2864.49971781</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45869.375</v>
+        <v>45871.375</v>
       </c>
       <c r="B78" t="n">
-        <v>163118000</v>
+        <v>158101000</v>
       </c>
       <c r="C78" t="n">
-        <v>164300000</v>
+        <v>159362000</v>
       </c>
       <c r="D78" t="n">
-        <v>161138000</v>
+        <v>157115000</v>
       </c>
       <c r="E78" t="n">
-        <v>161398000</v>
+        <v>157376000</v>
       </c>
       <c r="F78" t="n">
-        <v>1460.98746879</v>
+        <v>1322.24037421</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45870.375</v>
+        <v>45872.375</v>
       </c>
       <c r="B79" t="n">
-        <v>161400000</v>
+        <v>157376000</v>
       </c>
       <c r="C79" t="n">
-        <v>161770000</v>
+        <v>160324000</v>
       </c>
       <c r="D79" t="n">
-        <v>158100000</v>
+        <v>156715000</v>
       </c>
       <c r="E79" t="n">
-        <v>158102000</v>
+        <v>160227000</v>
       </c>
       <c r="F79" t="n">
-        <v>2864.49971781</v>
+        <v>1104.10129659</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45871.375</v>
+        <v>45873.375</v>
       </c>
       <c r="B80" t="n">
-        <v>158101000</v>
+        <v>160208000</v>
       </c>
       <c r="C80" t="n">
-        <v>159362000</v>
+        <v>161400000</v>
       </c>
       <c r="D80" t="n">
-        <v>157115000</v>
+        <v>159500000</v>
       </c>
       <c r="E80" t="n">
-        <v>157376000</v>
+        <v>160332000</v>
       </c>
       <c r="F80" t="n">
-        <v>1322.24037421</v>
+        <v>1049.67722034</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45872.375</v>
+        <v>45874.375</v>
       </c>
       <c r="B81" t="n">
-        <v>157376000</v>
+        <v>160333000</v>
       </c>
       <c r="C81" t="n">
-        <v>160324000</v>
+        <v>160571000</v>
       </c>
       <c r="D81" t="n">
-        <v>156715000</v>
+        <v>158206000</v>
       </c>
       <c r="E81" t="n">
-        <v>160227000</v>
+        <v>159999000</v>
       </c>
       <c r="F81" t="n">
-        <v>1104.10129659</v>
+        <v>1164.16382517</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45873.375</v>
+        <v>45875.375</v>
       </c>
       <c r="B82" t="n">
-        <v>160208000</v>
+        <v>159999000</v>
       </c>
       <c r="C82" t="n">
-        <v>161400000</v>
+        <v>160955000</v>
       </c>
       <c r="D82" t="n">
-        <v>159500000</v>
+        <v>158605000</v>
       </c>
       <c r="E82" t="n">
-        <v>160332000</v>
+        <v>160000000</v>
       </c>
       <c r="F82" t="n">
-        <v>1049.67722034</v>
+        <v>888.9029126200001</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45874.375</v>
+        <v>45876.375</v>
       </c>
       <c r="B83" t="n">
-        <v>160333000</v>
+        <v>160000000</v>
       </c>
       <c r="C83" t="n">
-        <v>160571000</v>
+        <v>162000000</v>
       </c>
       <c r="D83" t="n">
-        <v>158206000</v>
+        <v>159524000</v>
       </c>
       <c r="E83" t="n">
-        <v>159999000</v>
+        <v>161853000</v>
       </c>
       <c r="F83" t="n">
-        <v>1164.16382517</v>
+        <v>1473.6112066</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45875.375</v>
+        <v>45877.375</v>
       </c>
       <c r="B84" t="n">
-        <v>159999000</v>
+        <v>161853000</v>
       </c>
       <c r="C84" t="n">
-        <v>160955000</v>
+        <v>161994000</v>
       </c>
       <c r="D84" t="n">
-        <v>158605000</v>
+        <v>160008000</v>
       </c>
       <c r="E84" t="n">
-        <v>160000000</v>
+        <v>160099000</v>
       </c>
       <c r="F84" t="n">
-        <v>888.9029126200001</v>
+        <v>1358.86703435</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45876.375</v>
+        <v>45878.375</v>
       </c>
       <c r="B85" t="n">
-        <v>160000000</v>
+        <v>160099000</v>
       </c>
       <c r="C85" t="n">
-        <v>162000000</v>
+        <v>161547000</v>
       </c>
       <c r="D85" t="n">
-        <v>159524000</v>
+        <v>160007000</v>
       </c>
       <c r="E85" t="n">
-        <v>161853000</v>
+        <v>160180000</v>
       </c>
       <c r="F85" t="n">
-        <v>1473.6112066</v>
+        <v>1399.2385616</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45877.375</v>
+        <v>45879.375</v>
       </c>
       <c r="B86" t="n">
-        <v>161853000</v>
+        <v>160180000</v>
       </c>
       <c r="C86" t="n">
-        <v>161994000</v>
+        <v>163877000</v>
       </c>
       <c r="D86" t="n">
-        <v>160008000</v>
+        <v>160132000</v>
       </c>
       <c r="E86" t="n">
-        <v>160099000</v>
+        <v>163859000</v>
       </c>
       <c r="F86" t="n">
-        <v>1358.86703435</v>
+        <v>2343.22751857</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45878.375</v>
+        <v>45880.375</v>
       </c>
       <c r="B87" t="n">
-        <v>160099000</v>
+        <v>163860000</v>
       </c>
       <c r="C87" t="n">
-        <v>161547000</v>
+        <v>167000000</v>
       </c>
       <c r="D87" t="n">
-        <v>160007000</v>
+        <v>163350000</v>
       </c>
       <c r="E87" t="n">
-        <v>160180000</v>
+        <v>164210000</v>
       </c>
       <c r="F87" t="n">
-        <v>1399.2385616</v>
+        <v>3218.61763068</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45879.375</v>
+        <v>45881.375</v>
       </c>
       <c r="B88" t="n">
-        <v>160180000</v>
+        <v>164210000</v>
       </c>
       <c r="C88" t="n">
-        <v>163877000</v>
+        <v>164990000</v>
       </c>
       <c r="D88" t="n">
-        <v>160132000</v>
+        <v>163000000</v>
       </c>
       <c r="E88" t="n">
-        <v>163859000</v>
+        <v>164298000</v>
       </c>
       <c r="F88" t="n">
-        <v>2343.22751857</v>
+        <v>2238.75147187</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45880.375</v>
+        <v>45882.375</v>
       </c>
       <c r="B89" t="n">
-        <v>163860000</v>
+        <v>164298000</v>
       </c>
       <c r="C89" t="n">
-        <v>167000000</v>
+        <v>168262000</v>
       </c>
       <c r="D89" t="n">
-        <v>163350000</v>
+        <v>163353000</v>
       </c>
       <c r="E89" t="n">
-        <v>164210000</v>
+        <v>168051000</v>
       </c>
       <c r="F89" t="n">
-        <v>3218.61763068</v>
+        <v>2570.30205767</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45881.375</v>
+        <v>45883.375</v>
       </c>
       <c r="B90" t="n">
-        <v>164210000</v>
+        <v>168051000</v>
       </c>
       <c r="C90" t="n">
-        <v>164990000</v>
+        <v>169900000</v>
       </c>
       <c r="D90" t="n">
-        <v>163000000</v>
+        <v>162550000</v>
       </c>
       <c r="E90" t="n">
-        <v>164298000</v>
+        <v>164723000</v>
       </c>
       <c r="F90" t="n">
-        <v>2238.75147187</v>
+        <v>4234.99357777</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45882.375</v>
+        <v>45884.375</v>
       </c>
       <c r="B91" t="n">
-        <v>164298000</v>
+        <v>164723000</v>
       </c>
       <c r="C91" t="n">
-        <v>168262000</v>
+        <v>165885000</v>
       </c>
       <c r="D91" t="n">
-        <v>163353000</v>
+        <v>163010000</v>
       </c>
       <c r="E91" t="n">
-        <v>168051000</v>
+        <v>164122000</v>
       </c>
       <c r="F91" t="n">
-        <v>2570.30205767</v>
+        <v>1381.99175784</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45883.375</v>
+        <v>45885.375</v>
       </c>
       <c r="B92" t="n">
-        <v>168051000</v>
+        <v>164122000</v>
       </c>
       <c r="C92" t="n">
-        <v>169900000</v>
+        <v>164374000</v>
       </c>
       <c r="D92" t="n">
-        <v>162550000</v>
+        <v>162685000</v>
       </c>
       <c r="E92" t="n">
-        <v>164723000</v>
+        <v>163058000</v>
       </c>
       <c r="F92" t="n">
-        <v>4234.99357777</v>
+        <v>813.45140276</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45884.375</v>
+        <v>45886.375</v>
       </c>
       <c r="B93" t="n">
-        <v>164723000</v>
+        <v>163058000</v>
       </c>
       <c r="C93" t="n">
-        <v>165885000</v>
+        <v>164194000</v>
       </c>
       <c r="D93" t="n">
-        <v>163010000</v>
+        <v>163035000</v>
       </c>
       <c r="E93" t="n">
-        <v>164122000</v>
+        <v>163111000</v>
       </c>
       <c r="F93" t="n">
-        <v>1381.99175784</v>
+        <v>721.88384529</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45885.375</v>
+        <v>45887.375</v>
       </c>
       <c r="B94" t="n">
-        <v>164122000</v>
+        <v>163110000</v>
       </c>
       <c r="C94" t="n">
-        <v>164374000</v>
+        <v>163456000</v>
       </c>
       <c r="D94" t="n">
-        <v>162685000</v>
+        <v>160000000</v>
       </c>
       <c r="E94" t="n">
-        <v>163058000</v>
+        <v>161513000</v>
       </c>
       <c r="F94" t="n">
-        <v>813.45140276</v>
+        <v>2026.55299081</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45886.375</v>
+        <v>45888.375</v>
       </c>
       <c r="B95" t="n">
-        <v>163058000</v>
+        <v>161513000</v>
       </c>
       <c r="C95" t="n">
-        <v>164194000</v>
+        <v>162388000</v>
       </c>
       <c r="D95" t="n">
-        <v>163035000</v>
+        <v>157044000</v>
       </c>
       <c r="E95" t="n">
-        <v>163111000</v>
+        <v>157172000</v>
       </c>
       <c r="F95" t="n">
-        <v>721.88384529</v>
+        <v>2183.55943311</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45887.375</v>
+        <v>45889.375</v>
       </c>
       <c r="B96" t="n">
-        <v>163110000</v>
+        <v>157180000</v>
       </c>
       <c r="C96" t="n">
-        <v>163456000</v>
+        <v>159565000</v>
       </c>
       <c r="D96" t="n">
-        <v>160000000</v>
+        <v>157100000</v>
       </c>
       <c r="E96" t="n">
-        <v>161513000</v>
+        <v>159149000</v>
       </c>
       <c r="F96" t="n">
-        <v>2026.55299081</v>
+        <v>1687.53584763</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45888.375</v>
+        <v>45890.375</v>
       </c>
       <c r="B97" t="n">
-        <v>161513000</v>
+        <v>159237000</v>
       </c>
       <c r="C97" t="n">
-        <v>162388000</v>
+        <v>159900000</v>
       </c>
       <c r="D97" t="n">
-        <v>157044000</v>
+        <v>157280000</v>
       </c>
       <c r="E97" t="n">
-        <v>157172000</v>
+        <v>157737000</v>
       </c>
       <c r="F97" t="n">
-        <v>2183.55943311</v>
+        <v>1101.96487624</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45889.375</v>
+        <v>45891.375</v>
       </c>
       <c r="B98" t="n">
-        <v>157180000</v>
+        <v>157737000</v>
       </c>
       <c r="C98" t="n">
-        <v>159565000</v>
+        <v>162688000</v>
       </c>
       <c r="D98" t="n">
-        <v>157100000</v>
+        <v>156647000</v>
       </c>
       <c r="E98" t="n">
-        <v>159149000</v>
+        <v>161176000</v>
       </c>
       <c r="F98" t="n">
-        <v>1687.53584763</v>
+        <v>3303.07060192</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45890.375</v>
+        <v>45892.375</v>
       </c>
       <c r="B99" t="n">
-        <v>159237000</v>
+        <v>161176000</v>
       </c>
       <c r="C99" t="n">
-        <v>159900000</v>
+        <v>161505000</v>
       </c>
       <c r="D99" t="n">
-        <v>157280000</v>
+        <v>159000000</v>
       </c>
       <c r="E99" t="n">
-        <v>157737000</v>
+        <v>159705000</v>
       </c>
       <c r="F99" t="n">
-        <v>1101.96487624</v>
+        <v>1231.27745096</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45891.375</v>
+        <v>45893.375</v>
       </c>
       <c r="B100" t="n">
-        <v>157737000</v>
+        <v>159705000</v>
       </c>
       <c r="C100" t="n">
-        <v>162688000</v>
+        <v>160272000</v>
       </c>
       <c r="D100" t="n">
-        <v>156647000</v>
+        <v>155870000</v>
       </c>
       <c r="E100" t="n">
-        <v>161176000</v>
+        <v>157603000</v>
       </c>
       <c r="F100" t="n">
-        <v>3303.07060192</v>
+        <v>2179.0180382</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45892.375</v>
+        <v>45894.375</v>
       </c>
       <c r="B101" t="n">
-        <v>161176000</v>
+        <v>157603000</v>
       </c>
       <c r="C101" t="n">
-        <v>161505000</v>
+        <v>158000000</v>
       </c>
       <c r="D101" t="n">
-        <v>159000000</v>
+        <v>155346000</v>
       </c>
       <c r="E101" t="n">
-        <v>159705000</v>
+        <v>155887000</v>
       </c>
       <c r="F101" t="n">
-        <v>1231.27745096</v>
+        <v>2588.2830815</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45893.375</v>
+        <v>45895.375</v>
       </c>
       <c r="B102" t="n">
-        <v>159705000</v>
+        <v>155887000</v>
       </c>
       <c r="C102" t="n">
-        <v>160272000</v>
+        <v>157367000</v>
       </c>
       <c r="D102" t="n">
-        <v>155870000</v>
+        <v>153952000</v>
       </c>
       <c r="E102" t="n">
-        <v>157603000</v>
+        <v>156661000</v>
       </c>
       <c r="F102" t="n">
-        <v>2179.0180382</v>
+        <v>2318.14300616</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45894.375</v>
+        <v>45896.375</v>
       </c>
       <c r="B103" t="n">
-        <v>157603000</v>
+        <v>156660000</v>
       </c>
       <c r="C103" t="n">
-        <v>158000000</v>
+        <v>157200000</v>
       </c>
       <c r="D103" t="n">
-        <v>155346000</v>
+        <v>154800000</v>
       </c>
       <c r="E103" t="n">
-        <v>155887000</v>
+        <v>155534000</v>
       </c>
       <c r="F103" t="n">
-        <v>2588.2830815</v>
+        <v>1378.40369363</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45895.375</v>
+        <v>45897.375</v>
       </c>
       <c r="B104" t="n">
-        <v>155887000</v>
+        <v>155532000</v>
       </c>
       <c r="C104" t="n">
-        <v>157367000</v>
+        <v>157787000</v>
       </c>
       <c r="D104" t="n">
-        <v>153952000</v>
+        <v>155211000</v>
       </c>
       <c r="E104" t="n">
-        <v>156661000</v>
+        <v>156737000</v>
       </c>
       <c r="F104" t="n">
-        <v>2318.14300616</v>
+        <v>1179.83398781</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45896.375</v>
+        <v>45898.375</v>
       </c>
       <c r="B105" t="n">
-        <v>156660000</v>
+        <v>156737000</v>
       </c>
       <c r="C105" t="n">
-        <v>157200000</v>
+        <v>157080000</v>
       </c>
       <c r="D105" t="n">
-        <v>154800000</v>
+        <v>151100000</v>
       </c>
       <c r="E105" t="n">
-        <v>155534000</v>
+        <v>152262000</v>
       </c>
       <c r="F105" t="n">
-        <v>1378.40369363</v>
+        <v>2916.36749565</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45897.375</v>
+        <v>45899.375</v>
       </c>
       <c r="B106" t="n">
-        <v>155532000</v>
+        <v>152262000</v>
       </c>
       <c r="C106" t="n">
-        <v>157787000</v>
+        <v>152267000</v>
       </c>
       <c r="D106" t="n">
-        <v>155211000</v>
+        <v>149704000</v>
       </c>
       <c r="E106" t="n">
-        <v>156737000</v>
+        <v>151734000</v>
       </c>
       <c r="F106" t="n">
-        <v>1179.83398781</v>
+        <v>1660.9190379</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45898.375</v>
+        <v>45900.375</v>
       </c>
       <c r="B107" t="n">
-        <v>156737000</v>
+        <v>151734000</v>
       </c>
       <c r="C107" t="n">
-        <v>157080000</v>
+        <v>152960000</v>
       </c>
       <c r="D107" t="n">
-        <v>151100000</v>
+        <v>150447000</v>
       </c>
       <c r="E107" t="n">
-        <v>152262000</v>
+        <v>150700000</v>
       </c>
       <c r="F107" t="n">
-        <v>2916.36749565</v>
+        <v>1168.42444947</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45899.375</v>
+        <v>45901.375</v>
       </c>
       <c r="B108" t="n">
-        <v>152262000</v>
+        <v>150700000</v>
       </c>
       <c r="C108" t="n">
-        <v>152267000</v>
+        <v>152789000</v>
       </c>
       <c r="D108" t="n">
-        <v>149704000</v>
+        <v>149000000</v>
       </c>
       <c r="E108" t="n">
-        <v>151734000</v>
+        <v>152419000</v>
       </c>
       <c r="F108" t="n">
-        <v>1660.9190379</v>
+        <v>2147.55268421</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45900.375</v>
+        <v>45902.375</v>
       </c>
       <c r="B109" t="n">
-        <v>151734000</v>
+        <v>152419000</v>
       </c>
       <c r="C109" t="n">
-        <v>152960000</v>
+        <v>155445000</v>
       </c>
       <c r="D109" t="n">
-        <v>150447000</v>
+        <v>150984000</v>
       </c>
       <c r="E109" t="n">
-        <v>150700000</v>
+        <v>154850000</v>
       </c>
       <c r="F109" t="n">
-        <v>1168.42444947</v>
+        <v>1920.61439848</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45901.375</v>
+        <v>45903.375</v>
       </c>
       <c r="B110" t="n">
-        <v>150700000</v>
+        <v>154850000</v>
       </c>
       <c r="C110" t="n">
-        <v>152789000</v>
+        <v>156000000</v>
       </c>
       <c r="D110" t="n">
-        <v>149000000</v>
+        <v>154032000</v>
       </c>
       <c r="E110" t="n">
-        <v>152419000</v>
+        <v>154890000</v>
       </c>
       <c r="F110" t="n">
-        <v>2147.55268421</v>
+        <v>1040.1957758</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45902.375</v>
+        <v>45904.375</v>
       </c>
       <c r="B111" t="n">
-        <v>152419000</v>
+        <v>154890000</v>
       </c>
       <c r="C111" t="n">
-        <v>155445000</v>
+        <v>156515000</v>
       </c>
       <c r="D111" t="n">
-        <v>150984000</v>
+        <v>153093000</v>
       </c>
       <c r="E111" t="n">
-        <v>154850000</v>
+        <v>155410000</v>
       </c>
       <c r="F111" t="n">
-        <v>1920.61439848</v>
+        <v>1070.14485107</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45903.375</v>
+        <v>45905.375</v>
       </c>
       <c r="B112" t="n">
-        <v>154850000</v>
+        <v>155337000</v>
       </c>
       <c r="C112" t="n">
-        <v>156000000</v>
+        <v>157853000</v>
       </c>
       <c r="D112" t="n">
-        <v>154032000</v>
+        <v>154502000</v>
       </c>
       <c r="E112" t="n">
-        <v>154890000</v>
+        <v>154930000</v>
       </c>
       <c r="F112" t="n">
-        <v>1040.1957758</v>
+        <v>1644.26975383</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45904.375</v>
+        <v>45906.375</v>
       </c>
       <c r="B113" t="n">
-        <v>154890000</v>
+        <v>154930000</v>
       </c>
       <c r="C113" t="n">
-        <v>156515000</v>
+        <v>155629000</v>
       </c>
       <c r="D113" t="n">
-        <v>153093000</v>
+        <v>154231000</v>
       </c>
       <c r="E113" t="n">
-        <v>155410000</v>
+        <v>154325000</v>
       </c>
       <c r="F113" t="n">
-        <v>1070.14485107</v>
+        <v>472.77600266</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45905.375</v>
+        <v>45907.375</v>
       </c>
       <c r="B114" t="n">
-        <v>155337000</v>
+        <v>154325000</v>
       </c>
       <c r="C114" t="n">
-        <v>157853000</v>
+        <v>155784000</v>
       </c>
       <c r="D114" t="n">
-        <v>154502000</v>
+        <v>154200000</v>
       </c>
       <c r="E114" t="n">
-        <v>154930000</v>
+        <v>155001000</v>
       </c>
       <c r="F114" t="n">
-        <v>1644.26975383</v>
+        <v>487.36392303</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45906.375</v>
+        <v>45908.375</v>
       </c>
       <c r="B115" t="n">
-        <v>154930000</v>
+        <v>155001000</v>
       </c>
       <c r="C115" t="n">
-        <v>155629000</v>
+        <v>156838000</v>
       </c>
       <c r="D115" t="n">
-        <v>154231000</v>
+        <v>154592000</v>
       </c>
       <c r="E115" t="n">
-        <v>154325000</v>
+        <v>156048000</v>
       </c>
       <c r="F115" t="n">
-        <v>472.77600266</v>
+        <v>850.1569061599999</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45907.375</v>
+        <v>45909.375</v>
       </c>
       <c r="B116" t="n">
-        <v>154325000</v>
+        <v>156048000</v>
       </c>
       <c r="C116" t="n">
-        <v>155784000</v>
+        <v>157200000</v>
       </c>
       <c r="D116" t="n">
-        <v>154200000</v>
+        <v>154697000</v>
       </c>
       <c r="E116" t="n">
-        <v>155001000</v>
+        <v>155450000</v>
       </c>
       <c r="F116" t="n">
-        <v>487.36392303</v>
+        <v>1398.29118063</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45908.375</v>
+        <v>45910.375</v>
       </c>
       <c r="B117" t="n">
-        <v>155001000</v>
+        <v>155451000</v>
       </c>
       <c r="C117" t="n">
-        <v>156838000</v>
+        <v>158800000</v>
       </c>
       <c r="D117" t="n">
-        <v>154592000</v>
+        <v>154950000</v>
       </c>
       <c r="E117" t="n">
-        <v>156048000</v>
+        <v>158561000</v>
       </c>
       <c r="F117" t="n">
-        <v>850.1569061599999</v>
+        <v>1438.34464883</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45909.375</v>
+        <v>45911.375</v>
       </c>
       <c r="B118" t="n">
-        <v>156048000</v>
+        <v>158562000</v>
       </c>
       <c r="C118" t="n">
-        <v>157200000</v>
+        <v>160400000</v>
       </c>
       <c r="D118" t="n">
-        <v>154697000</v>
+        <v>157777000</v>
       </c>
       <c r="E118" t="n">
-        <v>155450000</v>
+        <v>160375000</v>
       </c>
       <c r="F118" t="n">
-        <v>1398.29118063</v>
+        <v>1550.22561596</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45910.375</v>
+        <v>45912.375</v>
       </c>
       <c r="B119" t="n">
-        <v>155451000</v>
+        <v>160395000</v>
       </c>
       <c r="C119" t="n">
-        <v>158800000</v>
+        <v>161794000</v>
       </c>
       <c r="D119" t="n">
-        <v>154950000</v>
+        <v>160000000</v>
       </c>
       <c r="E119" t="n">
-        <v>158561000</v>
+        <v>161101000</v>
       </c>
       <c r="F119" t="n">
-        <v>1438.34464883</v>
+        <v>1460.8794118</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45911.375</v>
+        <v>45913.375</v>
       </c>
       <c r="B120" t="n">
-        <v>158562000</v>
+        <v>161110000</v>
       </c>
       <c r="C120" t="n">
-        <v>160400000</v>
+        <v>161369000</v>
       </c>
       <c r="D120" t="n">
-        <v>157777000</v>
+        <v>159461000</v>
       </c>
       <c r="E120" t="n">
-        <v>160375000</v>
+        <v>160536000</v>
       </c>
       <c r="F120" t="n">
-        <v>1550.22561596</v>
+        <v>1011.50487891</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45912.375</v>
+        <v>45914.375</v>
       </c>
       <c r="B121" t="n">
-        <v>160395000</v>
+        <v>160536000</v>
       </c>
       <c r="C121" t="n">
-        <v>161794000</v>
+        <v>161200000</v>
       </c>
       <c r="D121" t="n">
-        <v>160000000</v>
+        <v>159899000</v>
       </c>
       <c r="E121" t="n">
-        <v>161101000</v>
+        <v>160338000</v>
       </c>
       <c r="F121" t="n">
-        <v>1460.8794118</v>
+        <v>734.22633687</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45913.375</v>
+        <v>45915.375</v>
       </c>
       <c r="B122" t="n">
-        <v>161110000</v>
+        <v>160338000</v>
       </c>
       <c r="C122" t="n">
-        <v>161369000</v>
+        <v>161791000</v>
       </c>
       <c r="D122" t="n">
-        <v>159461000</v>
+        <v>159500000</v>
       </c>
       <c r="E122" t="n">
-        <v>160536000</v>
+        <v>160705000</v>
       </c>
       <c r="F122" t="n">
-        <v>1011.50487891</v>
+        <v>1328.26487987</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45914.375</v>
+        <v>45916.375</v>
       </c>
       <c r="B123" t="n">
-        <v>160536000</v>
+        <v>160705000</v>
       </c>
       <c r="C123" t="n">
-        <v>161200000</v>
+        <v>162334000</v>
       </c>
       <c r="D123" t="n">
-        <v>159899000</v>
+        <v>160125000</v>
       </c>
       <c r="E123" t="n">
-        <v>160338000</v>
+        <v>162167000</v>
       </c>
       <c r="F123" t="n">
-        <v>734.22633687</v>
+        <v>1013.13497679</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45915.375</v>
+        <v>45917.375</v>
       </c>
       <c r="B124" t="n">
-        <v>160338000</v>
+        <v>162200000</v>
       </c>
       <c r="C124" t="n">
-        <v>161791000</v>
+        <v>163000000</v>
       </c>
       <c r="D124" t="n">
-        <v>159500000</v>
+        <v>160210000</v>
       </c>
       <c r="E124" t="n">
-        <v>160705000</v>
+        <v>161468000</v>
       </c>
       <c r="F124" t="n">
-        <v>1328.26487987</v>
+        <v>1630.74076706</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45916.375</v>
+        <v>45918.375</v>
       </c>
       <c r="B125" t="n">
-        <v>160705000</v>
+        <v>161468000</v>
       </c>
       <c r="C125" t="n">
-        <v>162334000</v>
+        <v>163333000</v>
       </c>
       <c r="D125" t="n">
-        <v>160125000</v>
+        <v>161372000</v>
       </c>
       <c r="E125" t="n">
-        <v>162167000</v>
+        <v>162478000</v>
       </c>
       <c r="F125" t="n">
-        <v>1013.13497679</v>
+        <v>1738.78345738</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45917.375</v>
+        <v>45919.375</v>
       </c>
       <c r="B126" t="n">
-        <v>162200000</v>
+        <v>162478000</v>
       </c>
       <c r="C126" t="n">
-        <v>163000000</v>
+        <v>163080000</v>
       </c>
       <c r="D126" t="n">
-        <v>160210000</v>
+        <v>161500000</v>
       </c>
       <c r="E126" t="n">
-        <v>161468000</v>
+        <v>162138000</v>
       </c>
       <c r="F126" t="n">
-        <v>1630.74076706</v>
+        <v>1389.24628029</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45918.375</v>
+        <v>45920.375</v>
       </c>
       <c r="B127" t="n">
-        <v>161468000</v>
+        <v>162162000</v>
       </c>
       <c r="C127" t="n">
-        <v>163333000</v>
+        <v>162486000</v>
       </c>
       <c r="D127" t="n">
-        <v>161372000</v>
+        <v>162000000</v>
       </c>
       <c r="E127" t="n">
-        <v>162478000</v>
+        <v>162236000</v>
       </c>
       <c r="F127" t="n">
-        <v>1738.78345738</v>
+        <v>694.36542049</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45919.375</v>
+        <v>45921.375</v>
       </c>
       <c r="B128" t="n">
-        <v>162478000</v>
+        <v>162236000</v>
       </c>
       <c r="C128" t="n">
-        <v>163080000</v>
+        <v>162239000</v>
       </c>
       <c r="D128" t="n">
-        <v>161500000</v>
+        <v>161372000</v>
       </c>
       <c r="E128" t="n">
-        <v>162138000</v>
+        <v>161412000</v>
       </c>
       <c r="F128" t="n">
-        <v>1389.24628029</v>
+        <v>956.39786821</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45920.375</v>
+        <v>45922.375</v>
       </c>
       <c r="B129" t="n">
-        <v>162162000</v>
+        <v>161410000</v>
       </c>
       <c r="C129" t="n">
-        <v>162486000</v>
+        <v>161631000</v>
       </c>
       <c r="D129" t="n">
-        <v>162000000</v>
+        <v>159000000</v>
       </c>
       <c r="E129" t="n">
-        <v>162236000</v>
+        <v>160730000</v>
       </c>
       <c r="F129" t="n">
-        <v>694.36542049</v>
+        <v>3058.73284497</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45921.375</v>
+        <v>45923.375</v>
       </c>
       <c r="B130" t="n">
-        <v>162236000</v>
+        <v>160731000</v>
       </c>
       <c r="C130" t="n">
-        <v>162239000</v>
+        <v>161350000</v>
       </c>
       <c r="D130" t="n">
-        <v>161372000</v>
+        <v>158668000</v>
       </c>
       <c r="E130" t="n">
-        <v>161412000</v>
+        <v>159679000</v>
       </c>
       <c r="F130" t="n">
-        <v>956.39786821</v>
+        <v>1105.98353873</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45922.375</v>
+        <v>45924.375</v>
       </c>
       <c r="B131" t="n">
-        <v>161410000</v>
+        <v>159680000</v>
       </c>
       <c r="C131" t="n">
-        <v>161631000</v>
+        <v>161200000</v>
       </c>
       <c r="D131" t="n">
-        <v>159000000</v>
+        <v>159001000</v>
       </c>
       <c r="E131" t="n">
-        <v>160730000</v>
+        <v>160700000</v>
       </c>
       <c r="F131" t="n">
-        <v>3058.73284497</v>
+        <v>989.63619655</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45923.375</v>
+        <v>45925.375</v>
       </c>
       <c r="B132" t="n">
-        <v>160731000</v>
+        <v>160700000</v>
       </c>
       <c r="C132" t="n">
-        <v>161350000</v>
+        <v>161037000</v>
       </c>
       <c r="D132" t="n">
-        <v>158668000</v>
+        <v>158000000</v>
       </c>
       <c r="E132" t="n">
-        <v>159679000</v>
+        <v>158200000</v>
       </c>
       <c r="F132" t="n">
-        <v>1105.98353873</v>
+        <v>2072.65761536</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45924.375</v>
+        <v>45926.375</v>
       </c>
       <c r="B133" t="n">
-        <v>159680000</v>
+        <v>158219000</v>
       </c>
       <c r="C133" t="n">
-        <v>161200000</v>
+        <v>159307000</v>
       </c>
       <c r="D133" t="n">
-        <v>159001000</v>
+        <v>157100000</v>
       </c>
       <c r="E133" t="n">
-        <v>160700000</v>
+        <v>158128000</v>
       </c>
       <c r="F133" t="n">
-        <v>989.63619655</v>
+        <v>1636.24151791</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45925.375</v>
+        <v>45927.375</v>
       </c>
       <c r="B134" t="n">
-        <v>160700000</v>
+        <v>158129000</v>
       </c>
       <c r="C134" t="n">
-        <v>161037000</v>
+        <v>158250000</v>
       </c>
       <c r="D134" t="n">
-        <v>158000000</v>
+        <v>157126000</v>
       </c>
       <c r="E134" t="n">
-        <v>158200000</v>
+        <v>157895000</v>
       </c>
       <c r="F134" t="n">
-        <v>2072.65761536</v>
+        <v>599.24007712</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45926.375</v>
+        <v>45928.375</v>
       </c>
       <c r="B135" t="n">
-        <v>158219000</v>
+        <v>157892000</v>
       </c>
       <c r="C135" t="n">
-        <v>159307000</v>
+        <v>160800000</v>
       </c>
       <c r="D135" t="n">
-        <v>157100000</v>
+        <v>157559000</v>
       </c>
       <c r="E135" t="n">
-        <v>158128000</v>
+        <v>160579000</v>
       </c>
       <c r="F135" t="n">
-        <v>1636.24151791</v>
+        <v>1115.14654906</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45927.375</v>
+        <v>45929.375</v>
       </c>
       <c r="B136" t="n">
-        <v>158129000</v>
+        <v>160579000</v>
       </c>
       <c r="C136" t="n">
-        <v>158250000</v>
+        <v>163200000</v>
       </c>
       <c r="D136" t="n">
-        <v>157126000</v>
+        <v>159300000</v>
       </c>
       <c r="E136" t="n">
-        <v>157895000</v>
+        <v>162976000</v>
       </c>
       <c r="F136" t="n">
-        <v>599.24007712</v>
+        <v>1561.77655952</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45928.375</v>
+        <v>45930.375</v>
       </c>
       <c r="B137" t="n">
-        <v>157892000</v>
+        <v>162976000</v>
       </c>
       <c r="C137" t="n">
-        <v>160800000</v>
+        <v>163655000</v>
       </c>
       <c r="D137" t="n">
-        <v>157559000</v>
+        <v>161111000</v>
       </c>
       <c r="E137" t="n">
-        <v>160579000</v>
+        <v>162828000</v>
       </c>
       <c r="F137" t="n">
-        <v>1115.14654906</v>
+        <v>1347.68465165</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45929.375</v>
+        <v>45931.375</v>
       </c>
       <c r="B138" t="n">
-        <v>160579000</v>
+        <v>162828000</v>
       </c>
       <c r="C138" t="n">
-        <v>163200000</v>
+        <v>168429000</v>
       </c>
       <c r="D138" t="n">
-        <v>159300000</v>
+        <v>162789000</v>
       </c>
       <c r="E138" t="n">
-        <v>162976000</v>
+        <v>168424000</v>
       </c>
       <c r="F138" t="n">
-        <v>1561.77655952</v>
+        <v>2391.53349082</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45930.375</v>
+        <v>45932.375</v>
       </c>
       <c r="B139" t="n">
-        <v>162976000</v>
+        <v>168424000</v>
       </c>
       <c r="C139" t="n">
-        <v>163655000</v>
+        <v>170903000</v>
       </c>
       <c r="D139" t="n">
-        <v>161111000</v>
+        <v>167709000</v>
       </c>
       <c r="E139" t="n">
-        <v>162828000</v>
+        <v>170704000</v>
       </c>
       <c r="F139" t="n">
-        <v>1347.68465165</v>
+        <v>2634.57350068</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45931.375</v>
+        <v>45933.375</v>
       </c>
       <c r="B140" t="n">
-        <v>162828000</v>
+        <v>170749000</v>
       </c>
       <c r="C140" t="n">
-        <v>168429000</v>
+        <v>174995000</v>
       </c>
       <c r="D140" t="n">
-        <v>162789000</v>
+        <v>169100000</v>
       </c>
       <c r="E140" t="n">
-        <v>168424000</v>
+        <v>173460000</v>
       </c>
       <c r="F140" t="n">
-        <v>2391.53349082</v>
+        <v>2241.08106806</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45932.375</v>
+        <v>45934.375</v>
       </c>
       <c r="B141" t="n">
-        <v>168424000</v>
+        <v>173460000</v>
       </c>
       <c r="C141" t="n">
-        <v>170903000</v>
+        <v>174990000</v>
       </c>
       <c r="D141" t="n">
-        <v>167709000</v>
+        <v>172673000</v>
       </c>
       <c r="E141" t="n">
-        <v>170704000</v>
+        <v>174964000</v>
       </c>
       <c r="F141" t="n">
-        <v>2634.57350068</v>
+        <v>2463.17052828</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45933.375</v>
+        <v>45935.375</v>
       </c>
       <c r="B142" t="n">
-        <v>170749000</v>
+        <v>174986000</v>
       </c>
       <c r="C142" t="n">
-        <v>174995000</v>
+        <v>178651000</v>
       </c>
       <c r="D142" t="n">
-        <v>169100000</v>
+        <v>174270000</v>
       </c>
       <c r="E142" t="n">
-        <v>173460000</v>
+        <v>177024000</v>
       </c>
       <c r="F142" t="n">
-        <v>2241.08106806</v>
+        <v>3767.82109651</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45934.375</v>
+        <v>45936.375</v>
       </c>
       <c r="B143" t="n">
-        <v>173460000</v>
+        <v>177002000</v>
       </c>
       <c r="C143" t="n">
-        <v>174990000</v>
+        <v>178790000</v>
       </c>
       <c r="D143" t="n">
-        <v>172673000</v>
+        <v>176500000</v>
       </c>
       <c r="E143" t="n">
-        <v>174964000</v>
+        <v>177536000</v>
       </c>
       <c r="F143" t="n">
-        <v>2463.17052828</v>
+        <v>2611.57241052</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45935.375</v>
+        <v>45937.375</v>
       </c>
       <c r="B144" t="n">
-        <v>174986000</v>
+        <v>177562000</v>
       </c>
       <c r="C144" t="n">
-        <v>178651000</v>
+        <v>178400000</v>
       </c>
       <c r="D144" t="n">
-        <v>174270000</v>
+        <v>174385000</v>
       </c>
       <c r="E144" t="n">
-        <v>177024000</v>
+        <v>175460000</v>
       </c>
       <c r="F144" t="n">
-        <v>3767.82109651</v>
+        <v>3389.80439054</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45936.375</v>
+        <v>45938.375</v>
       </c>
       <c r="B145" t="n">
-        <v>177002000</v>
+        <v>175490000</v>
       </c>
       <c r="C145" t="n">
-        <v>178790000</v>
+        <v>178617000</v>
       </c>
       <c r="D145" t="n">
-        <v>176500000</v>
+        <v>175460000</v>
       </c>
       <c r="E145" t="n">
-        <v>177536000</v>
+        <v>178011000</v>
       </c>
       <c r="F145" t="n">
-        <v>2611.57241052</v>
+        <v>2463.9288202</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45937.375</v>
+        <v>45939.375</v>
       </c>
       <c r="B146" t="n">
-        <v>177562000</v>
+        <v>177853000</v>
       </c>
       <c r="C146" t="n">
-        <v>178400000</v>
+        <v>179869000</v>
       </c>
       <c r="D146" t="n">
-        <v>174385000</v>
+        <v>176496000</v>
       </c>
       <c r="E146" t="n">
-        <v>175460000</v>
+        <v>177616000</v>
       </c>
       <c r="F146" t="n">
-        <v>3389.80439054</v>
+        <v>2825.3725964</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45938.375</v>
+        <v>45940.375</v>
       </c>
       <c r="B147" t="n">
-        <v>175490000</v>
+        <v>177616000</v>
       </c>
       <c r="C147" t="n">
-        <v>178617000</v>
+        <v>178151000</v>
       </c>
       <c r="D147" t="n">
-        <v>175460000</v>
+        <v>165000000</v>
       </c>
       <c r="E147" t="n">
-        <v>178011000</v>
+        <v>172257000</v>
       </c>
       <c r="F147" t="n">
-        <v>2463.9288202</v>
+        <v>6799.93776544</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45939.375</v>
+        <v>45941.375</v>
       </c>
       <c r="B148" t="n">
-        <v>177853000</v>
+        <v>172180000</v>
       </c>
       <c r="C148" t="n">
-        <v>179869000</v>
+        <v>173937000</v>
       </c>
       <c r="D148" t="n">
-        <v>176496000</v>
+        <v>166500000</v>
       </c>
       <c r="E148" t="n">
-        <v>177616000</v>
+        <v>170390000</v>
       </c>
       <c r="F148" t="n">
-        <v>2825.3725964</v>
+        <v>4416.69331273</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45940.375</v>
+        <v>45942.375</v>
       </c>
       <c r="B149" t="n">
-        <v>177616000</v>
+        <v>170390000</v>
       </c>
       <c r="C149" t="n">
-        <v>178151000</v>
+        <v>174909000</v>
       </c>
       <c r="D149" t="n">
-        <v>165000000</v>
+        <v>168132000</v>
       </c>
       <c r="E149" t="n">
-        <v>172257000</v>
+        <v>173833000</v>
       </c>
       <c r="F149" t="n">
-        <v>6799.93776544</v>
+        <v>3435.1907301</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45941.375</v>
+        <v>45943.375</v>
       </c>
       <c r="B150" t="n">
-        <v>172180000</v>
+        <v>173833000</v>
       </c>
       <c r="C150" t="n">
-        <v>173937000</v>
+        <v>175337000</v>
       </c>
       <c r="D150" t="n">
-        <v>166500000</v>
+        <v>170778000</v>
       </c>
       <c r="E150" t="n">
-        <v>170390000</v>
+        <v>171680000</v>
       </c>
       <c r="F150" t="n">
-        <v>4416.69331273</v>
+        <v>2243.15905637</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45942.375</v>
+        <v>45944.375</v>
       </c>
       <c r="B151" t="n">
-        <v>170390000</v>
+        <v>171695000</v>
       </c>
       <c r="C151" t="n">
-        <v>174909000</v>
+        <v>172444000</v>
       </c>
       <c r="D151" t="n">
-        <v>168132000</v>
+        <v>168000000</v>
       </c>
       <c r="E151" t="n">
-        <v>173833000</v>
+        <v>170070000</v>
       </c>
       <c r="F151" t="n">
-        <v>3435.1907301</v>
+        <v>2556.34346069</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45943.375</v>
+        <v>45945.375</v>
       </c>
       <c r="B152" t="n">
-        <v>173833000</v>
+        <v>170109000</v>
       </c>
       <c r="C152" t="n">
-        <v>175337000</v>
+        <v>170740000</v>
       </c>
       <c r="D152" t="n">
-        <v>170778000</v>
+        <v>168001000</v>
       </c>
       <c r="E152" t="n">
-        <v>171680000</v>
+        <v>168539000</v>
       </c>
       <c r="F152" t="n">
-        <v>2243.15905637</v>
+        <v>1724.32577247</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45944.375</v>
+        <v>45946.375</v>
       </c>
       <c r="B153" t="n">
-        <v>171695000</v>
+        <v>168642000</v>
       </c>
       <c r="C153" t="n">
-        <v>172444000</v>
+        <v>170124000</v>
       </c>
       <c r="D153" t="n">
-        <v>168000000</v>
+        <v>164858000</v>
       </c>
       <c r="E153" t="n">
-        <v>170070000</v>
+        <v>165290000</v>
       </c>
       <c r="F153" t="n">
-        <v>2556.34346069</v>
+        <v>2618.72985457</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45945.375</v>
+        <v>45947.375</v>
       </c>
       <c r="B154" t="n">
-        <v>170109000</v>
+        <v>165291000</v>
       </c>
       <c r="C154" t="n">
-        <v>170740000</v>
+        <v>166565000</v>
       </c>
       <c r="D154" t="n">
-        <v>168001000</v>
+        <v>159671000</v>
       </c>
       <c r="E154" t="n">
-        <v>168539000</v>
+        <v>163639000</v>
       </c>
       <c r="F154" t="n">
-        <v>1724.32577247</v>
+        <v>4263.22344629</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45946.375</v>
+        <v>45948.375</v>
       </c>
       <c r="B155" t="n">
-        <v>168642000</v>
+        <v>163639000</v>
       </c>
       <c r="C155" t="n">
-        <v>170124000</v>
+        <v>164998000</v>
       </c>
       <c r="D155" t="n">
-        <v>164858000</v>
+        <v>162852000</v>
       </c>
       <c r="E155" t="n">
-        <v>165290000</v>
+        <v>163631000</v>
       </c>
       <c r="F155" t="n">
-        <v>2618.72985457</v>
+        <v>926.1340221299999</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45947.375</v>
+        <v>45949.375</v>
       </c>
       <c r="B156" t="n">
-        <v>165291000</v>
+        <v>163631000</v>
       </c>
       <c r="C156" t="n">
-        <v>166565000</v>
+        <v>165996000</v>
       </c>
       <c r="D156" t="n">
-        <v>159671000</v>
+        <v>161250000</v>
       </c>
       <c r="E156" t="n">
-        <v>163639000</v>
+        <v>164806000</v>
       </c>
       <c r="F156" t="n">
-        <v>4263.22344629</v>
+        <v>1399.97751435</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45948.375</v>
+        <v>45950.375</v>
       </c>
       <c r="B157" t="n">
-        <v>163639000</v>
+        <v>164806000</v>
       </c>
       <c r="C157" t="n">
-        <v>164998000</v>
+        <v>167468000</v>
       </c>
       <c r="D157" t="n">
-        <v>162852000</v>
+        <v>163398000</v>
       </c>
       <c r="E157" t="n">
-        <v>163631000</v>
+        <v>165911000</v>
       </c>
       <c r="F157" t="n">
-        <v>926.1340221299999</v>
+        <v>1448.62619236</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45949.375</v>
+        <v>45951.375</v>
       </c>
       <c r="B158" t="n">
-        <v>163631000</v>
+        <v>165911000</v>
       </c>
       <c r="C158" t="n">
-        <v>165996000</v>
+        <v>169336000</v>
       </c>
       <c r="D158" t="n">
-        <v>161250000</v>
+        <v>162011000</v>
       </c>
       <c r="E158" t="n">
-        <v>164806000</v>
+        <v>163400000</v>
       </c>
       <c r="F158" t="n">
-        <v>1399.97751435</v>
+        <v>2420.85720656</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45950.375</v>
+        <v>45952.375</v>
       </c>
       <c r="B159" t="n">
-        <v>164806000</v>
+        <v>163400000</v>
       </c>
       <c r="C159" t="n">
-        <v>167468000</v>
+        <v>164406000</v>
       </c>
       <c r="D159" t="n">
-        <v>163398000</v>
+        <v>162500000</v>
       </c>
       <c r="E159" t="n">
-        <v>165911000</v>
+        <v>163153000</v>
       </c>
       <c r="F159" t="n">
-        <v>1448.62619236</v>
+        <v>1291.51295714</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45951.375</v>
+        <v>45953.375</v>
       </c>
       <c r="B160" t="n">
-        <v>165911000</v>
+        <v>163153000</v>
       </c>
       <c r="C160" t="n">
-        <v>169336000</v>
+        <v>166400000</v>
       </c>
       <c r="D160" t="n">
-        <v>162011000</v>
+        <v>163035000</v>
       </c>
       <c r="E160" t="n">
-        <v>163400000</v>
+        <v>165546000</v>
       </c>
       <c r="F160" t="n">
-        <v>2420.85720656</v>
+        <v>1119.20412068</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45952.375</v>
+        <v>45954.375</v>
       </c>
       <c r="B161" t="n">
-        <v>163400000</v>
+        <v>165546000</v>
       </c>
       <c r="C161" t="n">
-        <v>164406000</v>
+        <v>167381000</v>
       </c>
       <c r="D161" t="n">
-        <v>162500000</v>
+        <v>164420000</v>
       </c>
       <c r="E161" t="n">
-        <v>163153000</v>
+        <v>165703000</v>
       </c>
       <c r="F161" t="n">
-        <v>1291.51295714</v>
+        <v>1440.09487313</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45953.375</v>
+        <v>45955.375</v>
       </c>
       <c r="B162" t="n">
-        <v>163153000</v>
+        <v>165703000</v>
       </c>
       <c r="C162" t="n">
-        <v>166400000</v>
+        <v>166849000</v>
       </c>
       <c r="D162" t="n">
-        <v>163035000</v>
+        <v>165331000</v>
       </c>
       <c r="E162" t="n">
-        <v>165546000</v>
+        <v>166310000</v>
       </c>
       <c r="F162" t="n">
-        <v>1119.20412068</v>
+        <v>515.28984273</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45954.375</v>
+        <v>45956.375</v>
       </c>
       <c r="B163" t="n">
-        <v>165546000</v>
+        <v>166330000</v>
       </c>
       <c r="C163" t="n">
-        <v>167381000</v>
+        <v>170000000</v>
       </c>
       <c r="D163" t="n">
-        <v>164420000</v>
+        <v>166104000</v>
       </c>
       <c r="E163" t="n">
-        <v>165703000</v>
+        <v>169514000</v>
       </c>
       <c r="F163" t="n">
-        <v>1440.09487313</v>
+        <v>1297.92398941</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45955.375</v>
+        <v>45957.375</v>
       </c>
       <c r="B164" t="n">
-        <v>165703000</v>
+        <v>169514000</v>
       </c>
       <c r="C164" t="n">
-        <v>166849000</v>
+        <v>171500000</v>
       </c>
       <c r="D164" t="n">
-        <v>165331000</v>
+        <v>168793000</v>
       </c>
       <c r="E164" t="n">
-        <v>166310000</v>
+        <v>168980000</v>
       </c>
       <c r="F164" t="n">
-        <v>515.28984273</v>
+        <v>1539.67425404</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45956.375</v>
+        <v>45958.375</v>
       </c>
       <c r="B165" t="n">
-        <v>166330000</v>
+        <v>168980000</v>
       </c>
       <c r="C165" t="n">
-        <v>170000000</v>
+        <v>170859000</v>
       </c>
       <c r="D165" t="n">
-        <v>166104000</v>
+        <v>167550000</v>
       </c>
       <c r="E165" t="n">
-        <v>169514000</v>
+        <v>168263000</v>
       </c>
       <c r="F165" t="n">
-        <v>1297.92398941</v>
+        <v>1268.51890121</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45957.375</v>
+        <v>45959.375</v>
       </c>
       <c r="B166" t="n">
-        <v>169514000</v>
+        <v>168263000</v>
       </c>
       <c r="C166" t="n">
-        <v>171500000</v>
+        <v>168401000</v>
       </c>
       <c r="D166" t="n">
-        <v>168793000</v>
+        <v>164000000</v>
       </c>
       <c r="E166" t="n">
-        <v>168980000</v>
+        <v>164617000</v>
       </c>
       <c r="F166" t="n">
-        <v>1539.67425404</v>
+        <v>1947.2314325</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45958.375</v>
+        <v>45960.375</v>
       </c>
       <c r="B167" t="n">
-        <v>168980000</v>
+        <v>164597000</v>
       </c>
       <c r="C167" t="n">
-        <v>170859000</v>
+        <v>166201000</v>
       </c>
       <c r="D167" t="n">
-        <v>167550000</v>
+        <v>162000000</v>
       </c>
       <c r="E167" t="n">
-        <v>168263000</v>
+        <v>164258000</v>
       </c>
       <c r="F167" t="n">
-        <v>1268.51890121</v>
+        <v>2160.38972862</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45959.375</v>
+        <v>45961.375</v>
       </c>
       <c r="B168" t="n">
-        <v>168263000</v>
+        <v>164259000</v>
       </c>
       <c r="C168" t="n">
-        <v>168401000</v>
+        <v>166000000</v>
       </c>
       <c r="D168" t="n">
-        <v>164000000</v>
+        <v>163255000</v>
       </c>
       <c r="E168" t="n">
-        <v>164617000</v>
+        <v>164275000</v>
       </c>
       <c r="F168" t="n">
-        <v>1947.2314325</v>
+        <v>1085.96360328</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45960.375</v>
+        <v>45962.375</v>
       </c>
       <c r="B169" t="n">
-        <v>164597000</v>
+        <v>164275000</v>
       </c>
       <c r="C169" t="n">
-        <v>166201000</v>
+        <v>164692000</v>
       </c>
       <c r="D169" t="n">
-        <v>162000000</v>
+        <v>163410000</v>
       </c>
       <c r="E169" t="n">
-        <v>164258000</v>
+        <v>164000000</v>
       </c>
       <c r="F169" t="n">
-        <v>2160.38972862</v>
+        <v>394.93497609</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45961.375</v>
+        <v>45963.375</v>
       </c>
       <c r="B170" t="n">
-        <v>164259000</v>
+        <v>164001000</v>
       </c>
       <c r="C170" t="n">
-        <v>166000000</v>
+        <v>165139000</v>
       </c>
       <c r="D170" t="n">
-        <v>163255000</v>
+        <v>163300000</v>
       </c>
       <c r="E170" t="n">
-        <v>164275000</v>
+        <v>164129000</v>
       </c>
       <c r="F170" t="n">
-        <v>1085.96360328</v>
+        <v>538.34171488</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45962.375</v>
+        <v>45964.375</v>
       </c>
       <c r="B171" t="n">
-        <v>164275000</v>
+        <v>164074000</v>
       </c>
       <c r="C171" t="n">
-        <v>164692000</v>
+        <v>164133000</v>
       </c>
       <c r="D171" t="n">
-        <v>163410000</v>
+        <v>158000000</v>
       </c>
       <c r="E171" t="n">
-        <v>164000000</v>
+        <v>158587000</v>
       </c>
       <c r="F171" t="n">
-        <v>394.93497609</v>
+        <v>3370.61616028</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45963.375</v>
+        <v>45965.375</v>
       </c>
       <c r="B172" t="n">
-        <v>164001000</v>
+        <v>158589000</v>
       </c>
       <c r="C172" t="n">
-        <v>165139000</v>
+        <v>161128000</v>
       </c>
       <c r="D172" t="n">
-        <v>163300000</v>
+        <v>147651000</v>
       </c>
       <c r="E172" t="n">
-        <v>164129000</v>
+        <v>152873000</v>
       </c>
       <c r="F172" t="n">
-        <v>538.34171488</v>
+        <v>6623.28166665</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45964.375</v>
+        <v>45966.375</v>
       </c>
       <c r="B173" t="n">
-        <v>164074000</v>
+        <v>152873000</v>
       </c>
       <c r="C173" t="n">
-        <v>164133000</v>
+        <v>156324000</v>
       </c>
       <c r="D173" t="n">
-        <v>158000000</v>
+        <v>146679000</v>
       </c>
       <c r="E173" t="n">
-        <v>158587000</v>
+        <v>156008000</v>
       </c>
       <c r="F173" t="n">
-        <v>3370.61616028</v>
+        <v>4638.82222413</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45965.375</v>
+        <v>45967.375</v>
       </c>
       <c r="B174" t="n">
-        <v>158589000</v>
+        <v>156008000</v>
       </c>
       <c r="C174" t="n">
-        <v>161128000</v>
+        <v>156126000</v>
       </c>
       <c r="D174" t="n">
-        <v>147651000</v>
+        <v>150500000</v>
       </c>
       <c r="E174" t="n">
-        <v>152873000</v>
+        <v>151401000</v>
       </c>
       <c r="F174" t="n">
-        <v>6623.28166665</v>
+        <v>1828.65611327</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45966.375</v>
+        <v>45968.375</v>
       </c>
       <c r="B175" t="n">
-        <v>152873000</v>
+        <v>151412000</v>
       </c>
       <c r="C175" t="n">
-        <v>156324000</v>
+        <v>154961000</v>
       </c>
       <c r="D175" t="n">
-        <v>146679000</v>
+        <v>148831000</v>
       </c>
       <c r="E175" t="n">
-        <v>156008000</v>
+        <v>153850000</v>
       </c>
       <c r="F175" t="n">
-        <v>4638.82222413</v>
+        <v>2342.63161192</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45967.375</v>
+        <v>45969.375</v>
       </c>
       <c r="B176" t="n">
-        <v>156008000</v>
+        <v>153850000</v>
       </c>
       <c r="C176" t="n">
-        <v>156126000</v>
+        <v>154400000</v>
       </c>
       <c r="D176" t="n">
-        <v>150500000</v>
+        <v>151353000</v>
       </c>
       <c r="E176" t="n">
-        <v>151401000</v>
+        <v>152541000</v>
       </c>
       <c r="F176" t="n">
-        <v>1828.65611327</v>
+        <v>879.04177043</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45968.375</v>
+        <v>45970.375</v>
       </c>
       <c r="B177" t="n">
-        <v>151412000</v>
+        <v>152542000</v>
       </c>
       <c r="C177" t="n">
-        <v>154961000</v>
+        <v>156300000</v>
       </c>
       <c r="D177" t="n">
-        <v>148831000</v>
+        <v>151279000</v>
       </c>
       <c r="E177" t="n">
-        <v>153850000</v>
+        <v>155490000</v>
       </c>
       <c r="F177" t="n">
-        <v>2342.63161192</v>
+        <v>1204.96625518</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45969.375</v>
+        <v>45971.375</v>
       </c>
       <c r="B178" t="n">
-        <v>153850000</v>
+        <v>155490000</v>
       </c>
       <c r="C178" t="n">
-        <v>154400000</v>
+        <v>158330000</v>
       </c>
       <c r="D178" t="n">
-        <v>151353000</v>
+        <v>154922000</v>
       </c>
       <c r="E178" t="n">
-        <v>152541000</v>
+        <v>156797000</v>
       </c>
       <c r="F178" t="n">
-        <v>879.04177043</v>
+        <v>1825.40211546</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45970.375</v>
+        <v>45972.375</v>
       </c>
       <c r="B179" t="n">
-        <v>152542000</v>
+        <v>156802000</v>
       </c>
       <c r="C179" t="n">
-        <v>156300000</v>
+        <v>159150000</v>
       </c>
       <c r="D179" t="n">
-        <v>151279000</v>
+        <v>153267000</v>
       </c>
       <c r="E179" t="n">
-        <v>155490000</v>
+        <v>154302000</v>
       </c>
       <c r="F179" t="n">
-        <v>1204.96625518</v>
+        <v>1489.05390557</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45971.375</v>
+        <v>45973.375</v>
       </c>
       <c r="B180" t="n">
-        <v>155490000</v>
+        <v>154302000</v>
       </c>
       <c r="C180" t="n">
-        <v>158330000</v>
+        <v>157200000</v>
       </c>
       <c r="D180" t="n">
-        <v>154922000</v>
+        <v>152000000</v>
       </c>
       <c r="E180" t="n">
-        <v>156797000</v>
+        <v>153300000</v>
       </c>
       <c r="F180" t="n">
-        <v>1825.40211546</v>
+        <v>1370.69258931</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45972.375</v>
+        <v>45974.375</v>
       </c>
       <c r="B181" t="n">
-        <v>156802000</v>
+        <v>153300000</v>
       </c>
       <c r="C181" t="n">
-        <v>159150000</v>
+        <v>155271000</v>
       </c>
       <c r="D181" t="n">
-        <v>153267000</v>
+        <v>149000000</v>
       </c>
       <c r="E181" t="n">
-        <v>154302000</v>
+        <v>151306000</v>
       </c>
       <c r="F181" t="n">
-        <v>1489.05390557</v>
+        <v>2615.18799842</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45973.375</v>
+        <v>45975.375</v>
       </c>
       <c r="B182" t="n">
-        <v>154302000</v>
+        <v>151314000</v>
       </c>
       <c r="C182" t="n">
-        <v>157200000</v>
+        <v>151619000</v>
       </c>
       <c r="D182" t="n">
-        <v>152000000</v>
+        <v>142950000</v>
       </c>
       <c r="E182" t="n">
-        <v>153300000</v>
+        <v>143623000</v>
       </c>
       <c r="F182" t="n">
-        <v>1370.69258931</v>
+        <v>6095.07370382</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45974.375</v>
+        <v>45976.375</v>
       </c>
       <c r="B183" t="n">
-        <v>153300000</v>
+        <v>143623000</v>
       </c>
       <c r="C183" t="n">
-        <v>155271000</v>
+        <v>146306000</v>
       </c>
       <c r="D183" t="n">
-        <v>149000000</v>
+        <v>143489000</v>
       </c>
       <c r="E183" t="n">
-        <v>151306000</v>
+        <v>144265000</v>
       </c>
       <c r="F183" t="n">
-        <v>2615.18799842</v>
+        <v>1515.28574425</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45975.375</v>
+        <v>45977.375</v>
       </c>
       <c r="B184" t="n">
-        <v>151314000</v>
+        <v>144265000</v>
       </c>
       <c r="C184" t="n">
-        <v>151619000</v>
+        <v>144888000</v>
       </c>
       <c r="D184" t="n">
-        <v>142950000</v>
+        <v>138663000</v>
       </c>
       <c r="E184" t="n">
-        <v>143623000</v>
+        <v>140320000</v>
       </c>
       <c r="F184" t="n">
-        <v>6095.07370382</v>
+        <v>3306.73095286</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45976.375</v>
+        <v>45978.375</v>
       </c>
       <c r="B185" t="n">
-        <v>143623000</v>
+        <v>140320000</v>
       </c>
       <c r="C185" t="n">
-        <v>146306000</v>
+        <v>142926000</v>
       </c>
       <c r="D185" t="n">
-        <v>143489000</v>
+        <v>137127000</v>
       </c>
       <c r="E185" t="n">
-        <v>144265000</v>
+        <v>137706000</v>
       </c>
       <c r="F185" t="n">
-        <v>1515.28574425</v>
+        <v>3402.72907309</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45977.375</v>
+        <v>45979.375</v>
       </c>
       <c r="B186" t="n">
-        <v>144265000</v>
+        <v>137706000</v>
       </c>
       <c r="C186" t="n">
-        <v>144888000</v>
+        <v>139184000</v>
       </c>
       <c r="D186" t="n">
-        <v>138663000</v>
+        <v>132200000</v>
       </c>
       <c r="E186" t="n">
-        <v>140320000</v>
+        <v>137750000</v>
       </c>
       <c r="F186" t="n">
-        <v>3306.73095286</v>
+        <v>6342.5202439</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45978.375</v>
+        <v>45980.375</v>
       </c>
       <c r="B187" t="n">
-        <v>140320000</v>
+        <v>137750000</v>
       </c>
       <c r="C187" t="n">
-        <v>142926000</v>
+        <v>137807000</v>
       </c>
       <c r="D187" t="n">
-        <v>137127000</v>
+        <v>132449000</v>
       </c>
       <c r="E187" t="n">
-        <v>137706000</v>
+        <v>136500000</v>
       </c>
       <c r="F187" t="n">
-        <v>3402.72907309</v>
+        <v>2862.63500623</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45979.375</v>
+        <v>45981.375</v>
       </c>
       <c r="B188" t="n">
-        <v>137706000</v>
+        <v>136500000</v>
       </c>
       <c r="C188" t="n">
-        <v>139184000</v>
+        <v>138621000</v>
       </c>
       <c r="D188" t="n">
-        <v>132200000</v>
+        <v>129800000</v>
       </c>
       <c r="E188" t="n">
-        <v>137750000</v>
+        <v>129896000</v>
       </c>
       <c r="F188" t="n">
-        <v>6342.5202439</v>
+        <v>4303.83230626</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45980.375</v>
+        <v>45982.375</v>
       </c>
       <c r="B189" t="n">
-        <v>137750000</v>
+        <v>129896000</v>
       </c>
       <c r="C189" t="n">
-        <v>137807000</v>
+        <v>131000000</v>
       </c>
       <c r="D189" t="n">
-        <v>132449000</v>
+        <v>121455000</v>
       </c>
       <c r="E189" t="n">
-        <v>136500000</v>
+        <v>128044000</v>
       </c>
       <c r="F189" t="n">
-        <v>2862.63500623</v>
+        <v>8849.112148259999</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45981.375</v>
+        <v>45983.375</v>
       </c>
       <c r="B190" t="n">
-        <v>136500000</v>
+        <v>128044000</v>
       </c>
       <c r="C190" t="n">
-        <v>138621000</v>
+        <v>129000000</v>
       </c>
       <c r="D190" t="n">
-        <v>129800000</v>
+        <v>125609000</v>
       </c>
       <c r="E190" t="n">
-        <v>129896000</v>
+        <v>127333000</v>
       </c>
       <c r="F190" t="n">
-        <v>4303.83230626</v>
+        <v>1739.59714235</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45982.375</v>
+        <v>45984.375</v>
       </c>
       <c r="B191" t="n">
-        <v>129896000</v>
+        <v>127373000</v>
       </c>
       <c r="C191" t="n">
-        <v>131000000</v>
+        <v>133852000</v>
       </c>
       <c r="D191" t="n">
-        <v>121455000</v>
+        <v>127327000</v>
       </c>
       <c r="E191" t="n">
-        <v>128044000</v>
+        <v>131960000</v>
       </c>
       <c r="F191" t="n">
-        <v>8849.112148259999</v>
+        <v>3695.67167349</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45983.375</v>
+        <v>45985.375</v>
       </c>
       <c r="B192" t="n">
-        <v>128044000</v>
+        <v>131998000</v>
       </c>
       <c r="C192" t="n">
-        <v>129000000</v>
+        <v>133761000</v>
       </c>
       <c r="D192" t="n">
-        <v>125609000</v>
+        <v>129050000</v>
       </c>
       <c r="E192" t="n">
-        <v>127333000</v>
+        <v>132574000</v>
       </c>
       <c r="F192" t="n">
-        <v>1739.59714235</v>
+        <v>3273.54848822</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45984.375</v>
+        <v>45986.375</v>
       </c>
       <c r="B193" t="n">
-        <v>127373000</v>
+        <v>132574000</v>
       </c>
       <c r="C193" t="n">
-        <v>133852000</v>
+        <v>132750000</v>
       </c>
       <c r="D193" t="n">
-        <v>127327000</v>
+        <v>129365000</v>
       </c>
       <c r="E193" t="n">
-        <v>131960000</v>
+        <v>130736000</v>
       </c>
       <c r="F193" t="n">
-        <v>3695.67167349</v>
+        <v>2126.40154021</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45985.375</v>
+        <v>45987.375</v>
       </c>
       <c r="B194" t="n">
-        <v>131998000</v>
+        <v>130779000</v>
       </c>
       <c r="C194" t="n">
-        <v>133761000</v>
+        <v>135485000</v>
       </c>
       <c r="D194" t="n">
-        <v>129050000</v>
+        <v>129600000</v>
       </c>
       <c r="E194" t="n">
-        <v>132574000</v>
+        <v>135366000</v>
       </c>
       <c r="F194" t="n">
-        <v>3273.54848822</v>
+        <v>2216.72386044</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45986.375</v>
+        <v>45988.375</v>
       </c>
       <c r="B195" t="n">
-        <v>132574000</v>
+        <v>135366000</v>
       </c>
       <c r="C195" t="n">
-        <v>132750000</v>
+        <v>138400000</v>
       </c>
       <c r="D195" t="n">
-        <v>129365000</v>
+        <v>134608000</v>
       </c>
       <c r="E195" t="n">
-        <v>130736000</v>
+        <v>136941000</v>
       </c>
       <c r="F195" t="n">
-        <v>2126.40154021</v>
+        <v>2460.70846276</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45987.375</v>
+        <v>45989.375</v>
       </c>
       <c r="B196" t="n">
-        <v>130779000</v>
+        <v>136989000</v>
       </c>
       <c r="C196" t="n">
-        <v>135485000</v>
+        <v>139868000</v>
       </c>
       <c r="D196" t="n">
-        <v>129600000</v>
+        <v>135691000</v>
       </c>
       <c r="E196" t="n">
-        <v>135366000</v>
+        <v>136334000</v>
       </c>
       <c r="F196" t="n">
-        <v>2216.72386044</v>
+        <v>1928.85863285</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45988.375</v>
+        <v>45990.375</v>
       </c>
       <c r="B197" t="n">
-        <v>135366000</v>
+        <v>136334000</v>
       </c>
       <c r="C197" t="n">
-        <v>138400000</v>
+        <v>136770000</v>
       </c>
       <c r="D197" t="n">
-        <v>134608000</v>
+        <v>135300000</v>
       </c>
       <c r="E197" t="n">
-        <v>136941000</v>
+        <v>136073000</v>
       </c>
       <c r="F197" t="n">
-        <v>2460.70846276</v>
+        <v>769.16757448</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45989.375</v>
+        <v>45991.375</v>
       </c>
       <c r="B198" t="n">
-        <v>136989000</v>
+        <v>136000000</v>
       </c>
       <c r="C198" t="n">
-        <v>139868000</v>
+        <v>137631000</v>
       </c>
       <c r="D198" t="n">
-        <v>135691000</v>
+        <v>135600000</v>
       </c>
       <c r="E198" t="n">
-        <v>136334000</v>
+        <v>135744000</v>
       </c>
       <c r="F198" t="n">
-        <v>1928.85863285</v>
+        <v>776.74497018</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45990.375</v>
+        <v>45992.375</v>
       </c>
       <c r="B199" t="n">
-        <v>136334000</v>
+        <v>135752000</v>
       </c>
       <c r="C199" t="n">
-        <v>136770000</v>
+        <v>135839000</v>
       </c>
       <c r="D199" t="n">
-        <v>135300000</v>
+        <v>125809000</v>
       </c>
       <c r="E199" t="n">
-        <v>136073000</v>
+        <v>129172000</v>
       </c>
       <c r="F199" t="n">
-        <v>769.16757448</v>
+        <v>5383.62240806</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45991.375</v>
+        <v>45993.375</v>
       </c>
       <c r="B200" t="n">
-        <v>136000000</v>
+        <v>129169000</v>
       </c>
       <c r="C200" t="n">
-        <v>137631000</v>
+        <v>137330000</v>
       </c>
       <c r="D200" t="n">
-        <v>135600000</v>
+        <v>128650000</v>
       </c>
       <c r="E200" t="n">
-        <v>135744000</v>
+        <v>135626000</v>
       </c>
       <c r="F200" t="n">
-        <v>776.74497018</v>
+        <v>2981.09361989</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45992.375</v>
+        <v>45994.375</v>
       </c>
       <c r="B201" t="n">
-        <v>135752000</v>
+        <v>135683000</v>
       </c>
       <c r="C201" t="n">
-        <v>135839000</v>
+        <v>138811000</v>
       </c>
       <c r="D201" t="n">
-        <v>128140000</v>
+        <v>135200000</v>
       </c>
       <c r="E201" t="n">
-        <v>129800000</v>
+        <v>138428000</v>
       </c>
       <c r="F201" t="n">
-        <v>3057.69808121</v>
+        <v>804.1685467900001</v>
       </c>
     </row>
   </sheetData>

--- a/data/btc_data.xlsx
+++ b/data/btc_data.xlsx
@@ -471,4002 +471,4002 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45795.375</v>
+        <v>45799.375</v>
       </c>
       <c r="B2" t="n">
-        <v>146580000</v>
+        <v>152356000</v>
       </c>
       <c r="C2" t="n">
-        <v>150600000</v>
+        <v>155323000</v>
       </c>
       <c r="D2" t="n">
-        <v>146555000</v>
+        <v>152070000</v>
       </c>
       <c r="E2" t="n">
-        <v>150458000</v>
+        <v>154861000</v>
       </c>
       <c r="F2" t="n">
-        <v>1866.44894706</v>
+        <v>2781.67594178</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45796.375</v>
+        <v>45800.375</v>
       </c>
       <c r="B3" t="n">
-        <v>150296000</v>
+        <v>154861000</v>
       </c>
       <c r="C3" t="n">
-        <v>151199000</v>
+        <v>155169000</v>
       </c>
       <c r="D3" t="n">
-        <v>145500000</v>
+        <v>149258000</v>
       </c>
       <c r="E3" t="n">
-        <v>148699000</v>
+        <v>149878000</v>
       </c>
       <c r="F3" t="n">
-        <v>2401.08645573</v>
+        <v>3245.40940679</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45797.375</v>
+        <v>45801.375</v>
       </c>
       <c r="B4" t="n">
-        <v>148700000</v>
+        <v>149962000</v>
       </c>
       <c r="C4" t="n">
-        <v>150990000</v>
+        <v>152700000</v>
       </c>
       <c r="D4" t="n">
-        <v>147743000</v>
+        <v>149422000</v>
       </c>
       <c r="E4" t="n">
-        <v>150424000</v>
+        <v>150660000</v>
       </c>
       <c r="F4" t="n">
-        <v>1919.88762969</v>
+        <v>1063.00688169</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45798.375</v>
+        <v>45802.375</v>
       </c>
       <c r="B5" t="n">
-        <v>150424000</v>
+        <v>150680000</v>
       </c>
       <c r="C5" t="n">
-        <v>153301000</v>
+        <v>152946000</v>
       </c>
       <c r="D5" t="n">
-        <v>148810000</v>
+        <v>149916000</v>
       </c>
       <c r="E5" t="n">
-        <v>152356000</v>
+        <v>152133000</v>
       </c>
       <c r="F5" t="n">
-        <v>3078.69314991</v>
+        <v>975.54766995</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45799.375</v>
+        <v>45803.375</v>
       </c>
       <c r="B6" t="n">
-        <v>152356000</v>
+        <v>152133000</v>
       </c>
       <c r="C6" t="n">
-        <v>155323000</v>
+        <v>153000000</v>
       </c>
       <c r="D6" t="n">
-        <v>152070000</v>
+        <v>151509000</v>
       </c>
       <c r="E6" t="n">
-        <v>154861000</v>
+        <v>152195000</v>
       </c>
       <c r="F6" t="n">
-        <v>2781.67594178</v>
+        <v>987.97582253</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45800.375</v>
+        <v>45804.375</v>
       </c>
       <c r="B7" t="n">
-        <v>154861000</v>
+        <v>152197000</v>
       </c>
       <c r="C7" t="n">
-        <v>155169000</v>
+        <v>153218000</v>
       </c>
       <c r="D7" t="n">
-        <v>149258000</v>
+        <v>150001000</v>
       </c>
       <c r="E7" t="n">
-        <v>149878000</v>
+        <v>151323000</v>
       </c>
       <c r="F7" t="n">
-        <v>3245.40940679</v>
+        <v>1629.83186829</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45801.375</v>
+        <v>45805.375</v>
       </c>
       <c r="B8" t="n">
-        <v>149962000</v>
+        <v>151323000</v>
       </c>
       <c r="C8" t="n">
-        <v>152700000</v>
+        <v>151608000</v>
       </c>
       <c r="D8" t="n">
-        <v>149422000</v>
+        <v>149520000</v>
       </c>
       <c r="E8" t="n">
-        <v>150660000</v>
+        <v>150280000</v>
       </c>
       <c r="F8" t="n">
-        <v>1063.00688169</v>
+        <v>1140.46411905</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45802.375</v>
+        <v>45806.375</v>
       </c>
       <c r="B9" t="n">
-        <v>150680000</v>
+        <v>150280000</v>
       </c>
       <c r="C9" t="n">
-        <v>152946000</v>
+        <v>151291000</v>
       </c>
       <c r="D9" t="n">
-        <v>149916000</v>
+        <v>147160000</v>
       </c>
       <c r="E9" t="n">
-        <v>152133000</v>
+        <v>147370000</v>
       </c>
       <c r="F9" t="n">
-        <v>975.54766995</v>
+        <v>1717.72520344</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45803.375</v>
+        <v>45807.375</v>
       </c>
       <c r="B10" t="n">
-        <v>152133000</v>
+        <v>147370000</v>
       </c>
       <c r="C10" t="n">
-        <v>153000000</v>
+        <v>149000000</v>
       </c>
       <c r="D10" t="n">
-        <v>151509000</v>
+        <v>146300000</v>
       </c>
       <c r="E10" t="n">
-        <v>152195000</v>
+        <v>147044000</v>
       </c>
       <c r="F10" t="n">
-        <v>987.97582253</v>
+        <v>2171.38535825</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45804.375</v>
+        <v>45808.375</v>
       </c>
       <c r="B11" t="n">
-        <v>152197000</v>
+        <v>147044000</v>
       </c>
       <c r="C11" t="n">
-        <v>153218000</v>
+        <v>148700000</v>
       </c>
       <c r="D11" t="n">
-        <v>150001000</v>
+        <v>146042000</v>
       </c>
       <c r="E11" t="n">
-        <v>151323000</v>
+        <v>147932000</v>
       </c>
       <c r="F11" t="n">
-        <v>1629.83186829</v>
+        <v>1097.54923406</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45805.375</v>
+        <v>45809.375</v>
       </c>
       <c r="B12" t="n">
-        <v>151323000</v>
+        <v>147932000</v>
       </c>
       <c r="C12" t="n">
-        <v>151608000</v>
+        <v>149502000</v>
       </c>
       <c r="D12" t="n">
-        <v>149520000</v>
+        <v>147000000</v>
       </c>
       <c r="E12" t="n">
-        <v>150280000</v>
+        <v>149100000</v>
       </c>
       <c r="F12" t="n">
-        <v>1140.46411905</v>
+        <v>759.69668968</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45806.375</v>
+        <v>45810.375</v>
       </c>
       <c r="B13" t="n">
-        <v>150280000</v>
+        <v>149102000</v>
       </c>
       <c r="C13" t="n">
-        <v>151291000</v>
+        <v>149166000</v>
       </c>
       <c r="D13" t="n">
-        <v>147160000</v>
+        <v>146209000</v>
       </c>
       <c r="E13" t="n">
-        <v>147370000</v>
+        <v>148074000</v>
       </c>
       <c r="F13" t="n">
-        <v>1717.72520344</v>
+        <v>1198.05720248</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45807.375</v>
+        <v>45811.375</v>
       </c>
       <c r="B14" t="n">
-        <v>147370000</v>
+        <v>148070000</v>
       </c>
       <c r="C14" t="n">
-        <v>149000000</v>
+        <v>148900000</v>
       </c>
       <c r="D14" t="n">
-        <v>146300000</v>
+        <v>147022000</v>
       </c>
       <c r="E14" t="n">
-        <v>147044000</v>
+        <v>147322000</v>
       </c>
       <c r="F14" t="n">
-        <v>2171.38535825</v>
+        <v>979.14377348</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45808.375</v>
+        <v>45812.375</v>
       </c>
       <c r="B15" t="n">
-        <v>147044000</v>
+        <v>147378000</v>
       </c>
       <c r="C15" t="n">
-        <v>148700000</v>
+        <v>147601000</v>
       </c>
       <c r="D15" t="n">
-        <v>146042000</v>
+        <v>145200000</v>
       </c>
       <c r="E15" t="n">
-        <v>147932000</v>
+        <v>145210000</v>
       </c>
       <c r="F15" t="n">
-        <v>1097.54923406</v>
+        <v>1104.00724819</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45809.375</v>
+        <v>45813.375</v>
       </c>
       <c r="B16" t="n">
-        <v>147932000</v>
+        <v>145218000</v>
       </c>
       <c r="C16" t="n">
-        <v>149502000</v>
+        <v>146487000</v>
       </c>
       <c r="D16" t="n">
-        <v>147000000</v>
+        <v>140399000</v>
       </c>
       <c r="E16" t="n">
-        <v>149100000</v>
+        <v>141588000</v>
       </c>
       <c r="F16" t="n">
-        <v>759.69668968</v>
+        <v>2536.94255293</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45810.375</v>
+        <v>45814.375</v>
       </c>
       <c r="B17" t="n">
-        <v>149102000</v>
+        <v>141588000</v>
       </c>
       <c r="C17" t="n">
-        <v>149166000</v>
+        <v>146120000</v>
       </c>
       <c r="D17" t="n">
-        <v>146209000</v>
+        <v>140862000</v>
       </c>
       <c r="E17" t="n">
-        <v>148074000</v>
+        <v>145196000</v>
       </c>
       <c r="F17" t="n">
-        <v>1198.05720248</v>
+        <v>1279.12726613</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45811.375</v>
+        <v>45815.375</v>
       </c>
       <c r="B18" t="n">
-        <v>148070000</v>
+        <v>145196000</v>
       </c>
       <c r="C18" t="n">
-        <v>148900000</v>
+        <v>146895000</v>
       </c>
       <c r="D18" t="n">
-        <v>147022000</v>
+        <v>144601000</v>
       </c>
       <c r="E18" t="n">
-        <v>147322000</v>
+        <v>146514000</v>
       </c>
       <c r="F18" t="n">
-        <v>979.14377348</v>
+        <v>603.1996993</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45812.375</v>
+        <v>45816.375</v>
       </c>
       <c r="B19" t="n">
-        <v>147378000</v>
+        <v>146540000</v>
       </c>
       <c r="C19" t="n">
-        <v>147601000</v>
+        <v>146796000</v>
       </c>
       <c r="D19" t="n">
-        <v>145200000</v>
+        <v>145196000</v>
       </c>
       <c r="E19" t="n">
-        <v>145210000</v>
+        <v>145799000</v>
       </c>
       <c r="F19" t="n">
-        <v>1104.00724819</v>
+        <v>553.07283989</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45813.375</v>
+        <v>45817.375</v>
       </c>
       <c r="B20" t="n">
-        <v>145218000</v>
+        <v>145801000</v>
       </c>
       <c r="C20" t="n">
-        <v>146487000</v>
+        <v>150600000</v>
       </c>
       <c r="D20" t="n">
-        <v>140399000</v>
+        <v>144900000</v>
       </c>
       <c r="E20" t="n">
-        <v>141588000</v>
+        <v>150330000</v>
       </c>
       <c r="F20" t="n">
-        <v>2536.94255293</v>
+        <v>1605.82129866</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45814.375</v>
+        <v>45818.375</v>
       </c>
       <c r="B21" t="n">
-        <v>141588000</v>
+        <v>150330000</v>
       </c>
       <c r="C21" t="n">
-        <v>146120000</v>
+        <v>150992000</v>
       </c>
       <c r="D21" t="n">
-        <v>140862000</v>
+        <v>149060000</v>
       </c>
       <c r="E21" t="n">
-        <v>145196000</v>
+        <v>150604000</v>
       </c>
       <c r="F21" t="n">
-        <v>1279.12726613</v>
+        <v>1359.55145588</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45815.375</v>
+        <v>45819.375</v>
       </c>
       <c r="B22" t="n">
-        <v>145196000</v>
+        <v>150628000</v>
       </c>
       <c r="C22" t="n">
-        <v>146895000</v>
+        <v>151400000</v>
       </c>
       <c r="D22" t="n">
-        <v>144601000</v>
+        <v>148999000</v>
       </c>
       <c r="E22" t="n">
-        <v>146514000</v>
+        <v>149702000</v>
       </c>
       <c r="F22" t="n">
-        <v>603.1996993</v>
+        <v>1080.08422097</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45816.375</v>
+        <v>45820.375</v>
       </c>
       <c r="B23" t="n">
-        <v>146540000</v>
+        <v>149710000</v>
       </c>
       <c r="C23" t="n">
-        <v>146796000</v>
+        <v>149840000</v>
       </c>
       <c r="D23" t="n">
-        <v>145196000</v>
+        <v>145801000</v>
       </c>
       <c r="E23" t="n">
-        <v>145799000</v>
+        <v>145801000</v>
       </c>
       <c r="F23" t="n">
-        <v>553.07283989</v>
+        <v>1570.65133602</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45817.375</v>
+        <v>45821.375</v>
       </c>
       <c r="B24" t="n">
-        <v>145801000</v>
+        <v>145811000</v>
       </c>
       <c r="C24" t="n">
-        <v>150600000</v>
+        <v>147340000</v>
       </c>
       <c r="D24" t="n">
-        <v>144900000</v>
+        <v>143000000</v>
       </c>
       <c r="E24" t="n">
-        <v>150330000</v>
+        <v>147266000</v>
       </c>
       <c r="F24" t="n">
-        <v>1605.82129866</v>
+        <v>2195.12537289</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45818.375</v>
+        <v>45822.375</v>
       </c>
       <c r="B25" t="n">
-        <v>150330000</v>
+        <v>147265000</v>
       </c>
       <c r="C25" t="n">
-        <v>150992000</v>
+        <v>147526000</v>
       </c>
       <c r="D25" t="n">
-        <v>149060000</v>
+        <v>145082000</v>
       </c>
       <c r="E25" t="n">
-        <v>150604000</v>
+        <v>146401000</v>
       </c>
       <c r="F25" t="n">
-        <v>1359.55145588</v>
+        <v>584.4001293699999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45819.375</v>
+        <v>45823.375</v>
       </c>
       <c r="B26" t="n">
-        <v>150628000</v>
+        <v>146401000</v>
       </c>
       <c r="C26" t="n">
-        <v>151400000</v>
+        <v>147100000</v>
       </c>
       <c r="D26" t="n">
-        <v>148999000</v>
+        <v>145220000</v>
       </c>
       <c r="E26" t="n">
-        <v>149702000</v>
+        <v>145997000</v>
       </c>
       <c r="F26" t="n">
-        <v>1080.08422097</v>
+        <v>576.27420172</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45820.375</v>
+        <v>45824.375</v>
       </c>
       <c r="B27" t="n">
-        <v>149710000</v>
+        <v>145998000</v>
       </c>
       <c r="C27" t="n">
-        <v>149840000</v>
+        <v>149303000</v>
       </c>
       <c r="D27" t="n">
-        <v>145801000</v>
+        <v>145250000</v>
       </c>
       <c r="E27" t="n">
-        <v>145801000</v>
+        <v>146673000</v>
       </c>
       <c r="F27" t="n">
-        <v>1570.65133602</v>
+        <v>1408.77470368</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45821.375</v>
+        <v>45825.375</v>
       </c>
       <c r="B28" t="n">
-        <v>145811000</v>
+        <v>146661000</v>
       </c>
       <c r="C28" t="n">
-        <v>147340000</v>
+        <v>147957000</v>
       </c>
       <c r="D28" t="n">
-        <v>143000000</v>
+        <v>143900000</v>
       </c>
       <c r="E28" t="n">
-        <v>147266000</v>
+        <v>145456000</v>
       </c>
       <c r="F28" t="n">
-        <v>2195.12537289</v>
+        <v>1403.18502313</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45822.375</v>
+        <v>45826.375</v>
       </c>
       <c r="B29" t="n">
-        <v>147265000</v>
+        <v>145456000</v>
       </c>
       <c r="C29" t="n">
-        <v>147526000</v>
+        <v>146128000</v>
       </c>
       <c r="D29" t="n">
-        <v>145082000</v>
+        <v>144150000</v>
       </c>
       <c r="E29" t="n">
-        <v>146401000</v>
+        <v>145380000</v>
       </c>
       <c r="F29" t="n">
-        <v>584.4001293699999</v>
+        <v>870.61801942</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45823.375</v>
+        <v>45827.375</v>
       </c>
       <c r="B30" t="n">
-        <v>146401000</v>
+        <v>145381000</v>
       </c>
       <c r="C30" t="n">
-        <v>147100000</v>
+        <v>146000000</v>
       </c>
       <c r="D30" t="n">
-        <v>145220000</v>
+        <v>144500000</v>
       </c>
       <c r="E30" t="n">
-        <v>145997000</v>
+        <v>144978000</v>
       </c>
       <c r="F30" t="n">
-        <v>576.27420172</v>
+        <v>700.77154255</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45824.375</v>
+        <v>45828.375</v>
       </c>
       <c r="B31" t="n">
-        <v>145998000</v>
+        <v>144979000</v>
       </c>
       <c r="C31" t="n">
-        <v>149303000</v>
+        <v>146930000</v>
       </c>
       <c r="D31" t="n">
-        <v>145250000</v>
+        <v>143107000</v>
       </c>
       <c r="E31" t="n">
-        <v>146673000</v>
+        <v>143956000</v>
       </c>
       <c r="F31" t="n">
-        <v>1408.77470368</v>
+        <v>1315.62127829</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45825.375</v>
+        <v>45829.375</v>
       </c>
       <c r="B32" t="n">
-        <v>146661000</v>
+        <v>143956000</v>
       </c>
       <c r="C32" t="n">
-        <v>147957000</v>
+        <v>144427000</v>
       </c>
       <c r="D32" t="n">
-        <v>143900000</v>
+        <v>141151000</v>
       </c>
       <c r="E32" t="n">
-        <v>145456000</v>
+        <v>142782000</v>
       </c>
       <c r="F32" t="n">
-        <v>1403.18502313</v>
+        <v>1092.57854726</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45826.375</v>
+        <v>45830.375</v>
       </c>
       <c r="B33" t="n">
-        <v>145456000</v>
+        <v>142811000</v>
       </c>
       <c r="C33" t="n">
-        <v>146128000</v>
+        <v>144900000</v>
       </c>
       <c r="D33" t="n">
-        <v>144150000</v>
+        <v>137127000</v>
       </c>
       <c r="E33" t="n">
-        <v>145380000</v>
+        <v>140908000</v>
       </c>
       <c r="F33" t="n">
-        <v>870.61801942</v>
+        <v>3335.88004835</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45827.375</v>
+        <v>45831.375</v>
       </c>
       <c r="B34" t="n">
-        <v>145381000</v>
+        <v>140908000</v>
       </c>
       <c r="C34" t="n">
-        <v>146000000</v>
+        <v>147101000</v>
       </c>
       <c r="D34" t="n">
-        <v>144500000</v>
+        <v>139698000</v>
       </c>
       <c r="E34" t="n">
-        <v>144978000</v>
+        <v>146182000</v>
       </c>
       <c r="F34" t="n">
-        <v>700.77154255</v>
+        <v>2422.95238077</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45828.375</v>
+        <v>45832.375</v>
       </c>
       <c r="B35" t="n">
-        <v>144979000</v>
+        <v>146180000</v>
       </c>
       <c r="C35" t="n">
-        <v>146930000</v>
+        <v>146387000</v>
       </c>
       <c r="D35" t="n">
-        <v>143107000</v>
+        <v>144222000</v>
       </c>
       <c r="E35" t="n">
-        <v>143956000</v>
+        <v>145625000</v>
       </c>
       <c r="F35" t="n">
-        <v>1315.62127829</v>
+        <v>1272.92112127</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45829.375</v>
+        <v>45833.375</v>
       </c>
       <c r="B36" t="n">
-        <v>143956000</v>
+        <v>145626000</v>
       </c>
       <c r="C36" t="n">
-        <v>144427000</v>
+        <v>148620000</v>
       </c>
       <c r="D36" t="n">
-        <v>141151000</v>
+        <v>145360000</v>
       </c>
       <c r="E36" t="n">
-        <v>142782000</v>
+        <v>147365000</v>
       </c>
       <c r="F36" t="n">
-        <v>1092.57854726</v>
+        <v>1318.58944681</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45830.375</v>
+        <v>45834.375</v>
       </c>
       <c r="B37" t="n">
-        <v>142811000</v>
+        <v>147365000</v>
       </c>
       <c r="C37" t="n">
-        <v>144900000</v>
+        <v>148205000</v>
       </c>
       <c r="D37" t="n">
-        <v>137127000</v>
+        <v>146500000</v>
       </c>
       <c r="E37" t="n">
-        <v>140908000</v>
+        <v>146852000</v>
       </c>
       <c r="F37" t="n">
-        <v>3335.88004835</v>
+        <v>950.33860524</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45831.375</v>
+        <v>45835.375</v>
       </c>
       <c r="B38" t="n">
-        <v>140908000</v>
+        <v>146868000</v>
       </c>
       <c r="C38" t="n">
-        <v>147101000</v>
+        <v>147628000</v>
       </c>
       <c r="D38" t="n">
-        <v>139698000</v>
+        <v>146000000</v>
       </c>
       <c r="E38" t="n">
-        <v>146182000</v>
+        <v>147058000</v>
       </c>
       <c r="F38" t="n">
-        <v>2422.95238077</v>
+        <v>758.4102258200001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45832.375</v>
+        <v>45836.375</v>
       </c>
       <c r="B39" t="n">
-        <v>146180000</v>
+        <v>147001000</v>
       </c>
       <c r="C39" t="n">
-        <v>146387000</v>
+        <v>147479000</v>
       </c>
       <c r="D39" t="n">
-        <v>144222000</v>
+        <v>146799000</v>
       </c>
       <c r="E39" t="n">
-        <v>145625000</v>
+        <v>147174000</v>
       </c>
       <c r="F39" t="n">
-        <v>1272.92112127</v>
+        <v>291.28203061</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45833.375</v>
+        <v>45837.375</v>
       </c>
       <c r="B40" t="n">
-        <v>145626000</v>
+        <v>147174000</v>
       </c>
       <c r="C40" t="n">
-        <v>148620000</v>
+        <v>148502000</v>
       </c>
       <c r="D40" t="n">
-        <v>145360000</v>
+        <v>147091000</v>
       </c>
       <c r="E40" t="n">
-        <v>147365000</v>
+        <v>147996000</v>
       </c>
       <c r="F40" t="n">
-        <v>1318.58944681</v>
+        <v>650.95569906</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45834.375</v>
+        <v>45838.375</v>
       </c>
       <c r="B41" t="n">
-        <v>147365000</v>
+        <v>147996000</v>
       </c>
       <c r="C41" t="n">
-        <v>148205000</v>
+        <v>148480000</v>
       </c>
       <c r="D41" t="n">
-        <v>146500000</v>
+        <v>145740000</v>
       </c>
       <c r="E41" t="n">
-        <v>146852000</v>
+        <v>145759000</v>
       </c>
       <c r="F41" t="n">
-        <v>950.33860524</v>
+        <v>944.35761221</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45835.375</v>
+        <v>45839.375</v>
       </c>
       <c r="B42" t="n">
-        <v>146868000</v>
+        <v>145759000</v>
       </c>
       <c r="C42" t="n">
-        <v>147628000</v>
+        <v>146678000</v>
       </c>
       <c r="D42" t="n">
-        <v>146000000</v>
+        <v>144710000</v>
       </c>
       <c r="E42" t="n">
-        <v>147058000</v>
+        <v>145019000</v>
       </c>
       <c r="F42" t="n">
-        <v>758.4102258200001</v>
+        <v>915.58085007</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45836.375</v>
+        <v>45840.375</v>
       </c>
       <c r="B43" t="n">
-        <v>147001000</v>
+        <v>145019000</v>
       </c>
       <c r="C43" t="n">
-        <v>147479000</v>
+        <v>148930000</v>
       </c>
       <c r="D43" t="n">
-        <v>146799000</v>
+        <v>144265000</v>
       </c>
       <c r="E43" t="n">
-        <v>147174000</v>
+        <v>147372000</v>
       </c>
       <c r="F43" t="n">
-        <v>291.28203061</v>
+        <v>1356.69500727</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45837.375</v>
+        <v>45841.375</v>
       </c>
       <c r="B44" t="n">
-        <v>147174000</v>
+        <v>147372000</v>
       </c>
       <c r="C44" t="n">
-        <v>148502000</v>
+        <v>149755000</v>
       </c>
       <c r="D44" t="n">
-        <v>147091000</v>
+        <v>147364000</v>
       </c>
       <c r="E44" t="n">
-        <v>147996000</v>
+        <v>148737000</v>
       </c>
       <c r="F44" t="n">
-        <v>650.95569906</v>
+        <v>1182.41237517</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45838.375</v>
+        <v>45842.375</v>
       </c>
       <c r="B45" t="n">
-        <v>147996000</v>
+        <v>148737000</v>
       </c>
       <c r="C45" t="n">
-        <v>148480000</v>
+        <v>149360000</v>
       </c>
       <c r="D45" t="n">
-        <v>145740000</v>
+        <v>146929000</v>
       </c>
       <c r="E45" t="n">
-        <v>145759000</v>
+        <v>147797000</v>
       </c>
       <c r="F45" t="n">
-        <v>944.35761221</v>
+        <v>819.64407007</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45839.375</v>
+        <v>45843.375</v>
       </c>
       <c r="B46" t="n">
-        <v>145759000</v>
+        <v>147798000</v>
       </c>
       <c r="C46" t="n">
-        <v>146678000</v>
+        <v>148400000</v>
       </c>
       <c r="D46" t="n">
-        <v>144710000</v>
+        <v>147655000</v>
       </c>
       <c r="E46" t="n">
-        <v>145019000</v>
+        <v>148197000</v>
       </c>
       <c r="F46" t="n">
-        <v>915.58085007</v>
+        <v>289.92019607</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45840.375</v>
+        <v>45844.375</v>
       </c>
       <c r="B47" t="n">
-        <v>145019000</v>
+        <v>148197000</v>
       </c>
       <c r="C47" t="n">
-        <v>148930000</v>
+        <v>149100000</v>
       </c>
       <c r="D47" t="n">
-        <v>144265000</v>
+        <v>147411000</v>
       </c>
       <c r="E47" t="n">
-        <v>147372000</v>
+        <v>148500000</v>
       </c>
       <c r="F47" t="n">
-        <v>1356.69500727</v>
+        <v>574.6773279499999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45841.375</v>
+        <v>45845.375</v>
       </c>
       <c r="B48" t="n">
-        <v>147372000</v>
+        <v>148500000</v>
       </c>
       <c r="C48" t="n">
-        <v>149755000</v>
+        <v>149100000</v>
       </c>
       <c r="D48" t="n">
-        <v>147364000</v>
+        <v>147196000</v>
       </c>
       <c r="E48" t="n">
-        <v>148737000</v>
+        <v>148100000</v>
       </c>
       <c r="F48" t="n">
-        <v>1182.41237517</v>
+        <v>832.2946169099999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45842.375</v>
+        <v>45846.375</v>
       </c>
       <c r="B49" t="n">
-        <v>148737000</v>
+        <v>148100000</v>
       </c>
       <c r="C49" t="n">
-        <v>149360000</v>
+        <v>148890000</v>
       </c>
       <c r="D49" t="n">
-        <v>146929000</v>
+        <v>147100000</v>
       </c>
       <c r="E49" t="n">
-        <v>147797000</v>
+        <v>148302000</v>
       </c>
       <c r="F49" t="n">
-        <v>819.64407007</v>
+        <v>670.29249832</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45843.375</v>
+        <v>45847.375</v>
       </c>
       <c r="B50" t="n">
-        <v>147798000</v>
+        <v>148302000</v>
       </c>
       <c r="C50" t="n">
-        <v>148400000</v>
+        <v>151479000</v>
       </c>
       <c r="D50" t="n">
-        <v>147655000</v>
+        <v>148000000</v>
       </c>
       <c r="E50" t="n">
-        <v>148197000</v>
+        <v>150701000</v>
       </c>
       <c r="F50" t="n">
-        <v>289.92019607</v>
+        <v>1496.46774735</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45844.375</v>
+        <v>45848.375</v>
       </c>
       <c r="B51" t="n">
-        <v>148197000</v>
+        <v>150750000</v>
       </c>
       <c r="C51" t="n">
-        <v>149100000</v>
+        <v>156960000</v>
       </c>
       <c r="D51" t="n">
-        <v>147411000</v>
+        <v>150200000</v>
       </c>
       <c r="E51" t="n">
-        <v>148500000</v>
+        <v>156519000</v>
       </c>
       <c r="F51" t="n">
-        <v>574.6773279499999</v>
+        <v>2648.04060121</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45845.375</v>
+        <v>45849.375</v>
       </c>
       <c r="B52" t="n">
-        <v>148500000</v>
+        <v>156517000</v>
       </c>
       <c r="C52" t="n">
-        <v>149100000</v>
+        <v>160744000</v>
       </c>
       <c r="D52" t="n">
-        <v>147196000</v>
+        <v>155000000</v>
       </c>
       <c r="E52" t="n">
-        <v>148100000</v>
+        <v>158187000</v>
       </c>
       <c r="F52" t="n">
-        <v>832.2946169099999</v>
+        <v>3339.42695041</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45846.375</v>
+        <v>45850.375</v>
       </c>
       <c r="B53" t="n">
-        <v>148100000</v>
+        <v>158187000</v>
       </c>
       <c r="C53" t="n">
-        <v>148890000</v>
+        <v>159952000</v>
       </c>
       <c r="D53" t="n">
-        <v>147100000</v>
+        <v>157200000</v>
       </c>
       <c r="E53" t="n">
-        <v>148302000</v>
+        <v>159681000</v>
       </c>
       <c r="F53" t="n">
-        <v>670.29249832</v>
+        <v>1039.66662029</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45847.375</v>
+        <v>45851.375</v>
       </c>
       <c r="B54" t="n">
-        <v>148302000</v>
+        <v>159683000</v>
       </c>
       <c r="C54" t="n">
-        <v>151479000</v>
+        <v>161754000</v>
       </c>
       <c r="D54" t="n">
-        <v>148000000</v>
+        <v>159450000</v>
       </c>
       <c r="E54" t="n">
-        <v>150701000</v>
+        <v>161740000</v>
       </c>
       <c r="F54" t="n">
-        <v>1496.46774735</v>
+        <v>1227.16949574</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45848.375</v>
+        <v>45852.375</v>
       </c>
       <c r="B55" t="n">
-        <v>150750000</v>
+        <v>161740000</v>
       </c>
       <c r="C55" t="n">
-        <v>156960000</v>
+        <v>166800000</v>
       </c>
       <c r="D55" t="n">
-        <v>150200000</v>
+        <v>161357000</v>
       </c>
       <c r="E55" t="n">
-        <v>156519000</v>
+        <v>163923000</v>
       </c>
       <c r="F55" t="n">
-        <v>2648.04060121</v>
+        <v>3490.7303061</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45849.375</v>
+        <v>45853.375</v>
       </c>
       <c r="B56" t="n">
-        <v>156517000</v>
+        <v>163923000</v>
       </c>
       <c r="C56" t="n">
-        <v>160744000</v>
+        <v>164010000</v>
       </c>
       <c r="D56" t="n">
-        <v>155000000</v>
+        <v>158658000</v>
       </c>
       <c r="E56" t="n">
-        <v>158187000</v>
+        <v>160811000</v>
       </c>
       <c r="F56" t="n">
-        <v>3339.42695041</v>
+        <v>3179.44960753</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45850.375</v>
+        <v>45854.375</v>
       </c>
       <c r="B57" t="n">
-        <v>158187000</v>
+        <v>160811000</v>
       </c>
       <c r="C57" t="n">
-        <v>159952000</v>
+        <v>163210000</v>
       </c>
       <c r="D57" t="n">
-        <v>157200000</v>
+        <v>160175000</v>
       </c>
       <c r="E57" t="n">
-        <v>159681000</v>
+        <v>161250000</v>
       </c>
       <c r="F57" t="n">
-        <v>1039.66662029</v>
+        <v>1841.21876947</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45851.375</v>
+        <v>45855.375</v>
       </c>
       <c r="B58" t="n">
-        <v>159683000</v>
+        <v>161246000</v>
       </c>
       <c r="C58" t="n">
-        <v>161754000</v>
+        <v>163955000</v>
       </c>
       <c r="D58" t="n">
-        <v>159450000</v>
+        <v>160002000</v>
       </c>
       <c r="E58" t="n">
-        <v>161740000</v>
+        <v>162232000</v>
       </c>
       <c r="F58" t="n">
-        <v>1227.16949574</v>
+        <v>2240.66691129</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45852.375</v>
+        <v>45856.375</v>
       </c>
       <c r="B59" t="n">
-        <v>161740000</v>
+        <v>162232000</v>
       </c>
       <c r="C59" t="n">
-        <v>166800000</v>
+        <v>164446000</v>
       </c>
       <c r="D59" t="n">
-        <v>161357000</v>
+        <v>159301000</v>
       </c>
       <c r="E59" t="n">
-        <v>163923000</v>
+        <v>161100000</v>
       </c>
       <c r="F59" t="n">
-        <v>3490.7303061</v>
+        <v>2771.33021866</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45853.375</v>
+        <v>45857.375</v>
       </c>
       <c r="B60" t="n">
-        <v>163923000</v>
+        <v>161098000</v>
       </c>
       <c r="C60" t="n">
-        <v>164010000</v>
+        <v>162470000</v>
       </c>
       <c r="D60" t="n">
-        <v>158658000</v>
+        <v>160788000</v>
       </c>
       <c r="E60" t="n">
-        <v>160811000</v>
+        <v>161428000</v>
       </c>
       <c r="F60" t="n">
-        <v>3179.44960753</v>
+        <v>842.3510109</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45854.375</v>
+        <v>45858.375</v>
       </c>
       <c r="B61" t="n">
-        <v>160811000</v>
+        <v>161428000</v>
       </c>
       <c r="C61" t="n">
-        <v>163210000</v>
+        <v>162000000</v>
       </c>
       <c r="D61" t="n">
-        <v>160175000</v>
+        <v>159726000</v>
       </c>
       <c r="E61" t="n">
-        <v>161250000</v>
+        <v>160072000</v>
       </c>
       <c r="F61" t="n">
-        <v>1841.21876947</v>
+        <v>1429.7828596</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45855.375</v>
+        <v>45859.375</v>
       </c>
       <c r="B62" t="n">
-        <v>161246000</v>
+        <v>160072000</v>
       </c>
       <c r="C62" t="n">
-        <v>163955000</v>
+        <v>162300000</v>
       </c>
       <c r="D62" t="n">
-        <v>160002000</v>
+        <v>159350000</v>
       </c>
       <c r="E62" t="n">
-        <v>162232000</v>
+        <v>160096000</v>
       </c>
       <c r="F62" t="n">
-        <v>2240.66691129</v>
+        <v>1982.32577051</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45856.375</v>
+        <v>45860.375</v>
       </c>
       <c r="B63" t="n">
-        <v>162232000</v>
+        <v>160094000</v>
       </c>
       <c r="C63" t="n">
-        <v>164446000</v>
+        <v>162990000</v>
       </c>
       <c r="D63" t="n">
-        <v>159301000</v>
+        <v>158750000</v>
       </c>
       <c r="E63" t="n">
-        <v>161100000</v>
+        <v>162321000</v>
       </c>
       <c r="F63" t="n">
-        <v>2771.33021866</v>
+        <v>2730.46451082</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45857.375</v>
+        <v>45861.375</v>
       </c>
       <c r="B64" t="n">
-        <v>161098000</v>
+        <v>162321000</v>
       </c>
       <c r="C64" t="n">
-        <v>162470000</v>
+        <v>162848000</v>
       </c>
       <c r="D64" t="n">
-        <v>160788000</v>
+        <v>159192000</v>
       </c>
       <c r="E64" t="n">
-        <v>161428000</v>
+        <v>161990000</v>
       </c>
       <c r="F64" t="n">
-        <v>842.3510109</v>
+        <v>2098.23989394</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45858.375</v>
+        <v>45862.375</v>
       </c>
       <c r="B65" t="n">
-        <v>161428000</v>
+        <v>162000000</v>
       </c>
       <c r="C65" t="n">
-        <v>162000000</v>
+        <v>162888000</v>
       </c>
       <c r="D65" t="n">
-        <v>159726000</v>
+        <v>159000000</v>
       </c>
       <c r="E65" t="n">
-        <v>160072000</v>
+        <v>160928000</v>
       </c>
       <c r="F65" t="n">
-        <v>1429.7828596</v>
+        <v>2151.53591644</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45859.375</v>
+        <v>45863.375</v>
       </c>
       <c r="B66" t="n">
-        <v>160072000</v>
+        <v>160938000</v>
       </c>
       <c r="C66" t="n">
-        <v>162300000</v>
+        <v>161239000</v>
       </c>
       <c r="D66" t="n">
-        <v>159350000</v>
+        <v>157746000</v>
       </c>
       <c r="E66" t="n">
-        <v>160096000</v>
+        <v>160217000</v>
       </c>
       <c r="F66" t="n">
-        <v>1982.32577051</v>
+        <v>2661.28602167</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45860.375</v>
+        <v>45864.375</v>
       </c>
       <c r="B67" t="n">
-        <v>160094000</v>
+        <v>160225000</v>
       </c>
       <c r="C67" t="n">
-        <v>162990000</v>
+        <v>161220000</v>
       </c>
       <c r="D67" t="n">
-        <v>158750000</v>
+        <v>159600000</v>
       </c>
       <c r="E67" t="n">
-        <v>162321000</v>
+        <v>160900000</v>
       </c>
       <c r="F67" t="n">
-        <v>2730.46451082</v>
+        <v>789.27787874</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45861.375</v>
+        <v>45865.375</v>
       </c>
       <c r="B68" t="n">
-        <v>162321000</v>
+        <v>160900000</v>
       </c>
       <c r="C68" t="n">
-        <v>162848000</v>
+        <v>162800000</v>
       </c>
       <c r="D68" t="n">
-        <v>159192000</v>
+        <v>160858000</v>
       </c>
       <c r="E68" t="n">
-        <v>161990000</v>
+        <v>162717000</v>
       </c>
       <c r="F68" t="n">
-        <v>2098.23989394</v>
+        <v>1057.82545276</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45862.375</v>
+        <v>45866.375</v>
       </c>
       <c r="B69" t="n">
-        <v>162000000</v>
+        <v>162548000</v>
       </c>
       <c r="C69" t="n">
-        <v>162888000</v>
+        <v>162985000</v>
       </c>
       <c r="D69" t="n">
-        <v>159000000</v>
+        <v>161391000</v>
       </c>
       <c r="E69" t="n">
-        <v>160928000</v>
+        <v>162483000</v>
       </c>
       <c r="F69" t="n">
-        <v>2151.53591644</v>
+        <v>1461.59937798</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45863.375</v>
+        <v>45867.375</v>
       </c>
       <c r="B70" t="n">
-        <v>160938000</v>
+        <v>162483000</v>
       </c>
       <c r="C70" t="n">
-        <v>161239000</v>
+        <v>163800000</v>
       </c>
       <c r="D70" t="n">
-        <v>157746000</v>
+        <v>162034000</v>
       </c>
       <c r="E70" t="n">
-        <v>160217000</v>
+        <v>163158000</v>
       </c>
       <c r="F70" t="n">
-        <v>2661.28602167</v>
+        <v>1487.53432374</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45864.375</v>
+        <v>45868.375</v>
       </c>
       <c r="B71" t="n">
-        <v>160225000</v>
+        <v>163248000</v>
       </c>
       <c r="C71" t="n">
-        <v>161220000</v>
+        <v>163708000</v>
       </c>
       <c r="D71" t="n">
-        <v>159600000</v>
+        <v>161800000</v>
       </c>
       <c r="E71" t="n">
-        <v>160900000</v>
+        <v>163118000</v>
       </c>
       <c r="F71" t="n">
-        <v>789.27787874</v>
+        <v>1209.08673259</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45865.375</v>
+        <v>45869.375</v>
       </c>
       <c r="B72" t="n">
-        <v>160900000</v>
+        <v>163118000</v>
       </c>
       <c r="C72" t="n">
-        <v>162800000</v>
+        <v>164300000</v>
       </c>
       <c r="D72" t="n">
-        <v>160858000</v>
+        <v>161138000</v>
       </c>
       <c r="E72" t="n">
-        <v>162717000</v>
+        <v>161398000</v>
       </c>
       <c r="F72" t="n">
-        <v>1057.82545276</v>
+        <v>1460.98746879</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45866.375</v>
+        <v>45870.375</v>
       </c>
       <c r="B73" t="n">
-        <v>162548000</v>
+        <v>161400000</v>
       </c>
       <c r="C73" t="n">
-        <v>162985000</v>
+        <v>161770000</v>
       </c>
       <c r="D73" t="n">
-        <v>161391000</v>
+        <v>158100000</v>
       </c>
       <c r="E73" t="n">
-        <v>162483000</v>
+        <v>158102000</v>
       </c>
       <c r="F73" t="n">
-        <v>1461.59937798</v>
+        <v>2864.49971781</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45867.375</v>
+        <v>45871.375</v>
       </c>
       <c r="B74" t="n">
-        <v>162483000</v>
+        <v>158101000</v>
       </c>
       <c r="C74" t="n">
-        <v>163800000</v>
+        <v>159362000</v>
       </c>
       <c r="D74" t="n">
-        <v>162034000</v>
+        <v>157115000</v>
       </c>
       <c r="E74" t="n">
-        <v>163158000</v>
+        <v>157376000</v>
       </c>
       <c r="F74" t="n">
-        <v>1487.53432374</v>
+        <v>1322.24037421</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45868.375</v>
+        <v>45872.375</v>
       </c>
       <c r="B75" t="n">
-        <v>163248000</v>
+        <v>157376000</v>
       </c>
       <c r="C75" t="n">
-        <v>163708000</v>
+        <v>160324000</v>
       </c>
       <c r="D75" t="n">
-        <v>161800000</v>
+        <v>156715000</v>
       </c>
       <c r="E75" t="n">
-        <v>163118000</v>
+        <v>160227000</v>
       </c>
       <c r="F75" t="n">
-        <v>1209.08673259</v>
+        <v>1104.10129659</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45869.375</v>
+        <v>45873.375</v>
       </c>
       <c r="B76" t="n">
-        <v>163118000</v>
+        <v>160208000</v>
       </c>
       <c r="C76" t="n">
-        <v>164300000</v>
+        <v>161400000</v>
       </c>
       <c r="D76" t="n">
-        <v>161138000</v>
+        <v>159500000</v>
       </c>
       <c r="E76" t="n">
-        <v>161398000</v>
+        <v>160332000</v>
       </c>
       <c r="F76" t="n">
-        <v>1460.98746879</v>
+        <v>1049.67722034</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45870.375</v>
+        <v>45874.375</v>
       </c>
       <c r="B77" t="n">
-        <v>161400000</v>
+        <v>160333000</v>
       </c>
       <c r="C77" t="n">
-        <v>161770000</v>
+        <v>160571000</v>
       </c>
       <c r="D77" t="n">
-        <v>158100000</v>
+        <v>158206000</v>
       </c>
       <c r="E77" t="n">
-        <v>158102000</v>
+        <v>159999000</v>
       </c>
       <c r="F77" t="n">
-        <v>2864.49971781</v>
+        <v>1164.16382517</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45871.375</v>
+        <v>45875.375</v>
       </c>
       <c r="B78" t="n">
-        <v>158101000</v>
+        <v>159999000</v>
       </c>
       <c r="C78" t="n">
-        <v>159362000</v>
+        <v>160955000</v>
       </c>
       <c r="D78" t="n">
-        <v>157115000</v>
+        <v>158605000</v>
       </c>
       <c r="E78" t="n">
-        <v>157376000</v>
+        <v>160000000</v>
       </c>
       <c r="F78" t="n">
-        <v>1322.24037421</v>
+        <v>888.9029126200001</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45872.375</v>
+        <v>45876.375</v>
       </c>
       <c r="B79" t="n">
-        <v>157376000</v>
+        <v>160000000</v>
       </c>
       <c r="C79" t="n">
-        <v>160324000</v>
+        <v>162000000</v>
       </c>
       <c r="D79" t="n">
-        <v>156715000</v>
+        <v>159524000</v>
       </c>
       <c r="E79" t="n">
-        <v>160227000</v>
+        <v>161853000</v>
       </c>
       <c r="F79" t="n">
-        <v>1104.10129659</v>
+        <v>1473.6112066</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45873.375</v>
+        <v>45877.375</v>
       </c>
       <c r="B80" t="n">
-        <v>160208000</v>
+        <v>161853000</v>
       </c>
       <c r="C80" t="n">
-        <v>161400000</v>
+        <v>161994000</v>
       </c>
       <c r="D80" t="n">
-        <v>159500000</v>
+        <v>160008000</v>
       </c>
       <c r="E80" t="n">
-        <v>160332000</v>
+        <v>160099000</v>
       </c>
       <c r="F80" t="n">
-        <v>1049.67722034</v>
+        <v>1358.86703435</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45874.375</v>
+        <v>45878.375</v>
       </c>
       <c r="B81" t="n">
-        <v>160333000</v>
+        <v>160099000</v>
       </c>
       <c r="C81" t="n">
-        <v>160571000</v>
+        <v>161547000</v>
       </c>
       <c r="D81" t="n">
-        <v>158206000</v>
+        <v>160007000</v>
       </c>
       <c r="E81" t="n">
-        <v>159999000</v>
+        <v>160180000</v>
       </c>
       <c r="F81" t="n">
-        <v>1164.16382517</v>
+        <v>1399.2385616</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45875.375</v>
+        <v>45879.375</v>
       </c>
       <c r="B82" t="n">
-        <v>159999000</v>
+        <v>160180000</v>
       </c>
       <c r="C82" t="n">
-        <v>160955000</v>
+        <v>163877000</v>
       </c>
       <c r="D82" t="n">
-        <v>158605000</v>
+        <v>160132000</v>
       </c>
       <c r="E82" t="n">
-        <v>160000000</v>
+        <v>163859000</v>
       </c>
       <c r="F82" t="n">
-        <v>888.9029126200001</v>
+        <v>2343.22751857</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45876.375</v>
+        <v>45880.375</v>
       </c>
       <c r="B83" t="n">
-        <v>160000000</v>
+        <v>163860000</v>
       </c>
       <c r="C83" t="n">
-        <v>162000000</v>
+        <v>167000000</v>
       </c>
       <c r="D83" t="n">
-        <v>159524000</v>
+        <v>163350000</v>
       </c>
       <c r="E83" t="n">
-        <v>161853000</v>
+        <v>164210000</v>
       </c>
       <c r="F83" t="n">
-        <v>1473.6112066</v>
+        <v>3218.61763068</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45877.375</v>
+        <v>45881.375</v>
       </c>
       <c r="B84" t="n">
-        <v>161853000</v>
+        <v>164210000</v>
       </c>
       <c r="C84" t="n">
-        <v>161994000</v>
+        <v>164990000</v>
       </c>
       <c r="D84" t="n">
-        <v>160008000</v>
+        <v>163000000</v>
       </c>
       <c r="E84" t="n">
-        <v>160099000</v>
+        <v>164298000</v>
       </c>
       <c r="F84" t="n">
-        <v>1358.86703435</v>
+        <v>2238.75147187</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45878.375</v>
+        <v>45882.375</v>
       </c>
       <c r="B85" t="n">
-        <v>160099000</v>
+        <v>164298000</v>
       </c>
       <c r="C85" t="n">
-        <v>161547000</v>
+        <v>168262000</v>
       </c>
       <c r="D85" t="n">
-        <v>160007000</v>
+        <v>163353000</v>
       </c>
       <c r="E85" t="n">
-        <v>160180000</v>
+        <v>168051000</v>
       </c>
       <c r="F85" t="n">
-        <v>1399.2385616</v>
+        <v>2570.30205767</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45879.375</v>
+        <v>45883.375</v>
       </c>
       <c r="B86" t="n">
-        <v>160180000</v>
+        <v>168051000</v>
       </c>
       <c r="C86" t="n">
-        <v>163877000</v>
+        <v>169900000</v>
       </c>
       <c r="D86" t="n">
-        <v>160132000</v>
+        <v>162550000</v>
       </c>
       <c r="E86" t="n">
-        <v>163859000</v>
+        <v>164723000</v>
       </c>
       <c r="F86" t="n">
-        <v>2343.22751857</v>
+        <v>4234.99357777</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45880.375</v>
+        <v>45884.375</v>
       </c>
       <c r="B87" t="n">
-        <v>163860000</v>
+        <v>164723000</v>
       </c>
       <c r="C87" t="n">
-        <v>167000000</v>
+        <v>165885000</v>
       </c>
       <c r="D87" t="n">
-        <v>163350000</v>
+        <v>163010000</v>
       </c>
       <c r="E87" t="n">
-        <v>164210000</v>
+        <v>164122000</v>
       </c>
       <c r="F87" t="n">
-        <v>3218.61763068</v>
+        <v>1381.99175784</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45881.375</v>
+        <v>45885.375</v>
       </c>
       <c r="B88" t="n">
-        <v>164210000</v>
+        <v>164122000</v>
       </c>
       <c r="C88" t="n">
-        <v>164990000</v>
+        <v>164374000</v>
       </c>
       <c r="D88" t="n">
-        <v>163000000</v>
+        <v>162685000</v>
       </c>
       <c r="E88" t="n">
-        <v>164298000</v>
+        <v>163058000</v>
       </c>
       <c r="F88" t="n">
-        <v>2238.75147187</v>
+        <v>813.45140276</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45882.375</v>
+        <v>45886.375</v>
       </c>
       <c r="B89" t="n">
-        <v>164298000</v>
+        <v>163058000</v>
       </c>
       <c r="C89" t="n">
-        <v>168262000</v>
+        <v>164194000</v>
       </c>
       <c r="D89" t="n">
-        <v>163353000</v>
+        <v>163035000</v>
       </c>
       <c r="E89" t="n">
-        <v>168051000</v>
+        <v>163111000</v>
       </c>
       <c r="F89" t="n">
-        <v>2570.30205767</v>
+        <v>721.88384529</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45883.375</v>
+        <v>45887.375</v>
       </c>
       <c r="B90" t="n">
-        <v>168051000</v>
+        <v>163110000</v>
       </c>
       <c r="C90" t="n">
-        <v>169900000</v>
+        <v>163456000</v>
       </c>
       <c r="D90" t="n">
-        <v>162550000</v>
+        <v>160000000</v>
       </c>
       <c r="E90" t="n">
-        <v>164723000</v>
+        <v>161513000</v>
       </c>
       <c r="F90" t="n">
-        <v>4234.99357777</v>
+        <v>2026.55299081</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45884.375</v>
+        <v>45888.375</v>
       </c>
       <c r="B91" t="n">
-        <v>164723000</v>
+        <v>161513000</v>
       </c>
       <c r="C91" t="n">
-        <v>165885000</v>
+        <v>162388000</v>
       </c>
       <c r="D91" t="n">
-        <v>163010000</v>
+        <v>157044000</v>
       </c>
       <c r="E91" t="n">
-        <v>164122000</v>
+        <v>157172000</v>
       </c>
       <c r="F91" t="n">
-        <v>1381.99175784</v>
+        <v>2183.55943311</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45885.375</v>
+        <v>45889.375</v>
       </c>
       <c r="B92" t="n">
-        <v>164122000</v>
+        <v>157180000</v>
       </c>
       <c r="C92" t="n">
-        <v>164374000</v>
+        <v>159565000</v>
       </c>
       <c r="D92" t="n">
-        <v>162685000</v>
+        <v>157100000</v>
       </c>
       <c r="E92" t="n">
-        <v>163058000</v>
+        <v>159149000</v>
       </c>
       <c r="F92" t="n">
-        <v>813.45140276</v>
+        <v>1687.53584763</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45886.375</v>
+        <v>45890.375</v>
       </c>
       <c r="B93" t="n">
-        <v>163058000</v>
+        <v>159237000</v>
       </c>
       <c r="C93" t="n">
-        <v>164194000</v>
+        <v>159900000</v>
       </c>
       <c r="D93" t="n">
-        <v>163035000</v>
+        <v>157280000</v>
       </c>
       <c r="E93" t="n">
-        <v>163111000</v>
+        <v>157737000</v>
       </c>
       <c r="F93" t="n">
-        <v>721.88384529</v>
+        <v>1101.96487624</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45887.375</v>
+        <v>45891.375</v>
       </c>
       <c r="B94" t="n">
-        <v>163110000</v>
+        <v>157737000</v>
       </c>
       <c r="C94" t="n">
-        <v>163456000</v>
+        <v>162688000</v>
       </c>
       <c r="D94" t="n">
-        <v>160000000</v>
+        <v>156647000</v>
       </c>
       <c r="E94" t="n">
-        <v>161513000</v>
+        <v>161176000</v>
       </c>
       <c r="F94" t="n">
-        <v>2026.55299081</v>
+        <v>3303.07060192</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45888.375</v>
+        <v>45892.375</v>
       </c>
       <c r="B95" t="n">
-        <v>161513000</v>
+        <v>161176000</v>
       </c>
       <c r="C95" t="n">
-        <v>162388000</v>
+        <v>161505000</v>
       </c>
       <c r="D95" t="n">
-        <v>157044000</v>
+        <v>159000000</v>
       </c>
       <c r="E95" t="n">
-        <v>157172000</v>
+        <v>159705000</v>
       </c>
       <c r="F95" t="n">
-        <v>2183.55943311</v>
+        <v>1231.27745096</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45889.375</v>
+        <v>45893.375</v>
       </c>
       <c r="B96" t="n">
-        <v>157180000</v>
+        <v>159705000</v>
       </c>
       <c r="C96" t="n">
-        <v>159565000</v>
+        <v>160272000</v>
       </c>
       <c r="D96" t="n">
-        <v>157100000</v>
+        <v>155870000</v>
       </c>
       <c r="E96" t="n">
-        <v>159149000</v>
+        <v>157603000</v>
       </c>
       <c r="F96" t="n">
-        <v>1687.53584763</v>
+        <v>2179.0180382</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45890.375</v>
+        <v>45894.375</v>
       </c>
       <c r="B97" t="n">
-        <v>159237000</v>
+        <v>157603000</v>
       </c>
       <c r="C97" t="n">
-        <v>159900000</v>
+        <v>158000000</v>
       </c>
       <c r="D97" t="n">
-        <v>157280000</v>
+        <v>155346000</v>
       </c>
       <c r="E97" t="n">
-        <v>157737000</v>
+        <v>155887000</v>
       </c>
       <c r="F97" t="n">
-        <v>1101.96487624</v>
+        <v>2588.2830815</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45891.375</v>
+        <v>45895.375</v>
       </c>
       <c r="B98" t="n">
-        <v>157737000</v>
+        <v>155887000</v>
       </c>
       <c r="C98" t="n">
-        <v>162688000</v>
+        <v>157367000</v>
       </c>
       <c r="D98" t="n">
-        <v>156647000</v>
+        <v>153952000</v>
       </c>
       <c r="E98" t="n">
-        <v>161176000</v>
+        <v>156661000</v>
       </c>
       <c r="F98" t="n">
-        <v>3303.07060192</v>
+        <v>2318.14300616</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45892.375</v>
+        <v>45896.375</v>
       </c>
       <c r="B99" t="n">
-        <v>161176000</v>
+        <v>156660000</v>
       </c>
       <c r="C99" t="n">
-        <v>161505000</v>
+        <v>157200000</v>
       </c>
       <c r="D99" t="n">
-        <v>159000000</v>
+        <v>154800000</v>
       </c>
       <c r="E99" t="n">
-        <v>159705000</v>
+        <v>155534000</v>
       </c>
       <c r="F99" t="n">
-        <v>1231.27745096</v>
+        <v>1378.40369363</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45893.375</v>
+        <v>45897.375</v>
       </c>
       <c r="B100" t="n">
-        <v>159705000</v>
+        <v>155532000</v>
       </c>
       <c r="C100" t="n">
-        <v>160272000</v>
+        <v>157787000</v>
       </c>
       <c r="D100" t="n">
-        <v>155870000</v>
+        <v>155211000</v>
       </c>
       <c r="E100" t="n">
-        <v>157603000</v>
+        <v>156737000</v>
       </c>
       <c r="F100" t="n">
-        <v>2179.0180382</v>
+        <v>1179.83398781</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45894.375</v>
+        <v>45898.375</v>
       </c>
       <c r="B101" t="n">
-        <v>157603000</v>
+        <v>156737000</v>
       </c>
       <c r="C101" t="n">
-        <v>158000000</v>
+        <v>157080000</v>
       </c>
       <c r="D101" t="n">
-        <v>155346000</v>
+        <v>151100000</v>
       </c>
       <c r="E101" t="n">
-        <v>155887000</v>
+        <v>152262000</v>
       </c>
       <c r="F101" t="n">
-        <v>2588.2830815</v>
+        <v>2916.36749565</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45895.375</v>
+        <v>45899.375</v>
       </c>
       <c r="B102" t="n">
-        <v>155887000</v>
+        <v>152262000</v>
       </c>
       <c r="C102" t="n">
-        <v>157367000</v>
+        <v>152267000</v>
       </c>
       <c r="D102" t="n">
-        <v>153952000</v>
+        <v>149704000</v>
       </c>
       <c r="E102" t="n">
-        <v>156661000</v>
+        <v>151734000</v>
       </c>
       <c r="F102" t="n">
-        <v>2318.14300616</v>
+        <v>1660.9190379</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45896.375</v>
+        <v>45900.375</v>
       </c>
       <c r="B103" t="n">
-        <v>156660000</v>
+        <v>151734000</v>
       </c>
       <c r="C103" t="n">
-        <v>157200000</v>
+        <v>152960000</v>
       </c>
       <c r="D103" t="n">
-        <v>154800000</v>
+        <v>150447000</v>
       </c>
       <c r="E103" t="n">
-        <v>155534000</v>
+        <v>150700000</v>
       </c>
       <c r="F103" t="n">
-        <v>1378.40369363</v>
+        <v>1168.42444947</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45897.375</v>
+        <v>45901.375</v>
       </c>
       <c r="B104" t="n">
-        <v>155532000</v>
+        <v>150700000</v>
       </c>
       <c r="C104" t="n">
-        <v>157787000</v>
+        <v>152789000</v>
       </c>
       <c r="D104" t="n">
-        <v>155211000</v>
+        <v>149000000</v>
       </c>
       <c r="E104" t="n">
-        <v>156737000</v>
+        <v>152419000</v>
       </c>
       <c r="F104" t="n">
-        <v>1179.83398781</v>
+        <v>2147.55268421</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45898.375</v>
+        <v>45902.375</v>
       </c>
       <c r="B105" t="n">
-        <v>156737000</v>
+        <v>152419000</v>
       </c>
       <c r="C105" t="n">
-        <v>157080000</v>
+        <v>155445000</v>
       </c>
       <c r="D105" t="n">
-        <v>151100000</v>
+        <v>150984000</v>
       </c>
       <c r="E105" t="n">
-        <v>152262000</v>
+        <v>154850000</v>
       </c>
       <c r="F105" t="n">
-        <v>2916.36749565</v>
+        <v>1920.61439848</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45899.375</v>
+        <v>45903.375</v>
       </c>
       <c r="B106" t="n">
-        <v>152262000</v>
+        <v>154850000</v>
       </c>
       <c r="C106" t="n">
-        <v>152267000</v>
+        <v>156000000</v>
       </c>
       <c r="D106" t="n">
-        <v>149704000</v>
+        <v>154032000</v>
       </c>
       <c r="E106" t="n">
-        <v>151734000</v>
+        <v>154890000</v>
       </c>
       <c r="F106" t="n">
-        <v>1660.9190379</v>
+        <v>1040.1957758</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45900.375</v>
+        <v>45904.375</v>
       </c>
       <c r="B107" t="n">
-        <v>151734000</v>
+        <v>154890000</v>
       </c>
       <c r="C107" t="n">
-        <v>152960000</v>
+        <v>156515000</v>
       </c>
       <c r="D107" t="n">
-        <v>150447000</v>
+        <v>153093000</v>
       </c>
       <c r="E107" t="n">
-        <v>150700000</v>
+        <v>155410000</v>
       </c>
       <c r="F107" t="n">
-        <v>1168.42444947</v>
+        <v>1070.14485107</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45901.375</v>
+        <v>45905.375</v>
       </c>
       <c r="B108" t="n">
-        <v>150700000</v>
+        <v>155337000</v>
       </c>
       <c r="C108" t="n">
-        <v>152789000</v>
+        <v>157853000</v>
       </c>
       <c r="D108" t="n">
-        <v>149000000</v>
+        <v>154502000</v>
       </c>
       <c r="E108" t="n">
-        <v>152419000</v>
+        <v>154930000</v>
       </c>
       <c r="F108" t="n">
-        <v>2147.55268421</v>
+        <v>1644.26975383</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45902.375</v>
+        <v>45906.375</v>
       </c>
       <c r="B109" t="n">
-        <v>152419000</v>
+        <v>154930000</v>
       </c>
       <c r="C109" t="n">
-        <v>155445000</v>
+        <v>155629000</v>
       </c>
       <c r="D109" t="n">
-        <v>150984000</v>
+        <v>154231000</v>
       </c>
       <c r="E109" t="n">
-        <v>154850000</v>
+        <v>154325000</v>
       </c>
       <c r="F109" t="n">
-        <v>1920.61439848</v>
+        <v>472.77600266</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45903.375</v>
+        <v>45907.375</v>
       </c>
       <c r="B110" t="n">
-        <v>154850000</v>
+        <v>154325000</v>
       </c>
       <c r="C110" t="n">
-        <v>156000000</v>
+        <v>155784000</v>
       </c>
       <c r="D110" t="n">
-        <v>154032000</v>
+        <v>154200000</v>
       </c>
       <c r="E110" t="n">
-        <v>154890000</v>
+        <v>155001000</v>
       </c>
       <c r="F110" t="n">
-        <v>1040.1957758</v>
+        <v>487.36392303</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45904.375</v>
+        <v>45908.375</v>
       </c>
       <c r="B111" t="n">
-        <v>154890000</v>
+        <v>155001000</v>
       </c>
       <c r="C111" t="n">
-        <v>156515000</v>
+        <v>156838000</v>
       </c>
       <c r="D111" t="n">
-        <v>153093000</v>
+        <v>154592000</v>
       </c>
       <c r="E111" t="n">
-        <v>155410000</v>
+        <v>156048000</v>
       </c>
       <c r="F111" t="n">
-        <v>1070.14485107</v>
+        <v>850.1569061599999</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45905.375</v>
+        <v>45909.375</v>
       </c>
       <c r="B112" t="n">
-        <v>155337000</v>
+        <v>156048000</v>
       </c>
       <c r="C112" t="n">
-        <v>157853000</v>
+        <v>157200000</v>
       </c>
       <c r="D112" t="n">
-        <v>154502000</v>
+        <v>154697000</v>
       </c>
       <c r="E112" t="n">
-        <v>154930000</v>
+        <v>155450000</v>
       </c>
       <c r="F112" t="n">
-        <v>1644.26975383</v>
+        <v>1398.29118063</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45906.375</v>
+        <v>45910.375</v>
       </c>
       <c r="B113" t="n">
-        <v>154930000</v>
+        <v>155451000</v>
       </c>
       <c r="C113" t="n">
-        <v>155629000</v>
+        <v>158800000</v>
       </c>
       <c r="D113" t="n">
-        <v>154231000</v>
+        <v>154950000</v>
       </c>
       <c r="E113" t="n">
-        <v>154325000</v>
+        <v>158561000</v>
       </c>
       <c r="F113" t="n">
-        <v>472.77600266</v>
+        <v>1438.34464883</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45907.375</v>
+        <v>45911.375</v>
       </c>
       <c r="B114" t="n">
-        <v>154325000</v>
+        <v>158562000</v>
       </c>
       <c r="C114" t="n">
-        <v>155784000</v>
+        <v>160400000</v>
       </c>
       <c r="D114" t="n">
-        <v>154200000</v>
+        <v>157777000</v>
       </c>
       <c r="E114" t="n">
-        <v>155001000</v>
+        <v>160375000</v>
       </c>
       <c r="F114" t="n">
-        <v>487.36392303</v>
+        <v>1550.22561596</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45908.375</v>
+        <v>45912.375</v>
       </c>
       <c r="B115" t="n">
-        <v>155001000</v>
+        <v>160395000</v>
       </c>
       <c r="C115" t="n">
-        <v>156838000</v>
+        <v>161794000</v>
       </c>
       <c r="D115" t="n">
-        <v>154592000</v>
+        <v>160000000</v>
       </c>
       <c r="E115" t="n">
-        <v>156048000</v>
+        <v>161101000</v>
       </c>
       <c r="F115" t="n">
-        <v>850.1569061599999</v>
+        <v>1460.8794118</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45909.375</v>
+        <v>45913.375</v>
       </c>
       <c r="B116" t="n">
-        <v>156048000</v>
+        <v>161110000</v>
       </c>
       <c r="C116" t="n">
-        <v>157200000</v>
+        <v>161369000</v>
       </c>
       <c r="D116" t="n">
-        <v>154697000</v>
+        <v>159461000</v>
       </c>
       <c r="E116" t="n">
-        <v>155450000</v>
+        <v>160536000</v>
       </c>
       <c r="F116" t="n">
-        <v>1398.29118063</v>
+        <v>1011.50487891</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45910.375</v>
+        <v>45914.375</v>
       </c>
       <c r="B117" t="n">
-        <v>155451000</v>
+        <v>160536000</v>
       </c>
       <c r="C117" t="n">
-        <v>158800000</v>
+        <v>161200000</v>
       </c>
       <c r="D117" t="n">
-        <v>154950000</v>
+        <v>159899000</v>
       </c>
       <c r="E117" t="n">
-        <v>158561000</v>
+        <v>160338000</v>
       </c>
       <c r="F117" t="n">
-        <v>1438.34464883</v>
+        <v>734.22633687</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45911.375</v>
+        <v>45915.375</v>
       </c>
       <c r="B118" t="n">
-        <v>158562000</v>
+        <v>160338000</v>
       </c>
       <c r="C118" t="n">
-        <v>160400000</v>
+        <v>161791000</v>
       </c>
       <c r="D118" t="n">
-        <v>157777000</v>
+        <v>159500000</v>
       </c>
       <c r="E118" t="n">
-        <v>160375000</v>
+        <v>160705000</v>
       </c>
       <c r="F118" t="n">
-        <v>1550.22561596</v>
+        <v>1328.26487987</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45912.375</v>
+        <v>45916.375</v>
       </c>
       <c r="B119" t="n">
-        <v>160395000</v>
+        <v>160705000</v>
       </c>
       <c r="C119" t="n">
-        <v>161794000</v>
+        <v>162334000</v>
       </c>
       <c r="D119" t="n">
-        <v>160000000</v>
+        <v>160125000</v>
       </c>
       <c r="E119" t="n">
-        <v>161101000</v>
+        <v>162167000</v>
       </c>
       <c r="F119" t="n">
-        <v>1460.8794118</v>
+        <v>1013.13497679</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45913.375</v>
+        <v>45917.375</v>
       </c>
       <c r="B120" t="n">
-        <v>161110000</v>
+        <v>162200000</v>
       </c>
       <c r="C120" t="n">
-        <v>161369000</v>
+        <v>163000000</v>
       </c>
       <c r="D120" t="n">
-        <v>159461000</v>
+        <v>160210000</v>
       </c>
       <c r="E120" t="n">
-        <v>160536000</v>
+        <v>161468000</v>
       </c>
       <c r="F120" t="n">
-        <v>1011.50487891</v>
+        <v>1630.74076706</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45914.375</v>
+        <v>45918.375</v>
       </c>
       <c r="B121" t="n">
-        <v>160536000</v>
+        <v>161468000</v>
       </c>
       <c r="C121" t="n">
-        <v>161200000</v>
+        <v>163333000</v>
       </c>
       <c r="D121" t="n">
-        <v>159899000</v>
+        <v>161372000</v>
       </c>
       <c r="E121" t="n">
-        <v>160338000</v>
+        <v>162478000</v>
       </c>
       <c r="F121" t="n">
-        <v>734.22633687</v>
+        <v>1738.78345738</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45915.375</v>
+        <v>45919.375</v>
       </c>
       <c r="B122" t="n">
-        <v>160338000</v>
+        <v>162478000</v>
       </c>
       <c r="C122" t="n">
-        <v>161791000</v>
+        <v>163080000</v>
       </c>
       <c r="D122" t="n">
-        <v>159500000</v>
+        <v>161500000</v>
       </c>
       <c r="E122" t="n">
-        <v>160705000</v>
+        <v>162138000</v>
       </c>
       <c r="F122" t="n">
-        <v>1328.26487987</v>
+        <v>1389.24628029</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45916.375</v>
+        <v>45920.375</v>
       </c>
       <c r="B123" t="n">
-        <v>160705000</v>
+        <v>162162000</v>
       </c>
       <c r="C123" t="n">
-        <v>162334000</v>
+        <v>162486000</v>
       </c>
       <c r="D123" t="n">
-        <v>160125000</v>
+        <v>162000000</v>
       </c>
       <c r="E123" t="n">
-        <v>162167000</v>
+        <v>162236000</v>
       </c>
       <c r="F123" t="n">
-        <v>1013.13497679</v>
+        <v>694.36542049</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45917.375</v>
+        <v>45921.375</v>
       </c>
       <c r="B124" t="n">
-        <v>162200000</v>
+        <v>162236000</v>
       </c>
       <c r="C124" t="n">
-        <v>163000000</v>
+        <v>162239000</v>
       </c>
       <c r="D124" t="n">
-        <v>160210000</v>
+        <v>161372000</v>
       </c>
       <c r="E124" t="n">
-        <v>161468000</v>
+        <v>161412000</v>
       </c>
       <c r="F124" t="n">
-        <v>1630.74076706</v>
+        <v>956.39786821</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45918.375</v>
+        <v>45922.375</v>
       </c>
       <c r="B125" t="n">
-        <v>161468000</v>
+        <v>161410000</v>
       </c>
       <c r="C125" t="n">
-        <v>163333000</v>
+        <v>161631000</v>
       </c>
       <c r="D125" t="n">
-        <v>161372000</v>
+        <v>159000000</v>
       </c>
       <c r="E125" t="n">
-        <v>162478000</v>
+        <v>160730000</v>
       </c>
       <c r="F125" t="n">
-        <v>1738.78345738</v>
+        <v>3058.73284497</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45919.375</v>
+        <v>45923.375</v>
       </c>
       <c r="B126" t="n">
-        <v>162478000</v>
+        <v>160731000</v>
       </c>
       <c r="C126" t="n">
-        <v>163080000</v>
+        <v>161350000</v>
       </c>
       <c r="D126" t="n">
-        <v>161500000</v>
+        <v>158668000</v>
       </c>
       <c r="E126" t="n">
-        <v>162138000</v>
+        <v>159679000</v>
       </c>
       <c r="F126" t="n">
-        <v>1389.24628029</v>
+        <v>1105.98353873</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45920.375</v>
+        <v>45924.375</v>
       </c>
       <c r="B127" t="n">
-        <v>162162000</v>
+        <v>159680000</v>
       </c>
       <c r="C127" t="n">
-        <v>162486000</v>
+        <v>161200000</v>
       </c>
       <c r="D127" t="n">
-        <v>162000000</v>
+        <v>159001000</v>
       </c>
       <c r="E127" t="n">
-        <v>162236000</v>
+        <v>160700000</v>
       </c>
       <c r="F127" t="n">
-        <v>694.36542049</v>
+        <v>989.63619655</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45921.375</v>
+        <v>45925.375</v>
       </c>
       <c r="B128" t="n">
-        <v>162236000</v>
+        <v>160700000</v>
       </c>
       <c r="C128" t="n">
-        <v>162239000</v>
+        <v>161037000</v>
       </c>
       <c r="D128" t="n">
-        <v>161372000</v>
+        <v>158000000</v>
       </c>
       <c r="E128" t="n">
-        <v>161412000</v>
+        <v>158200000</v>
       </c>
       <c r="F128" t="n">
-        <v>956.39786821</v>
+        <v>2072.65761536</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45922.375</v>
+        <v>45926.375</v>
       </c>
       <c r="B129" t="n">
-        <v>161410000</v>
+        <v>158219000</v>
       </c>
       <c r="C129" t="n">
-        <v>161631000</v>
+        <v>159307000</v>
       </c>
       <c r="D129" t="n">
-        <v>159000000</v>
+        <v>157100000</v>
       </c>
       <c r="E129" t="n">
-        <v>160730000</v>
+        <v>158128000</v>
       </c>
       <c r="F129" t="n">
-        <v>3058.73284497</v>
+        <v>1636.24151791</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45923.375</v>
+        <v>45927.375</v>
       </c>
       <c r="B130" t="n">
-        <v>160731000</v>
+        <v>158129000</v>
       </c>
       <c r="C130" t="n">
-        <v>161350000</v>
+        <v>158250000</v>
       </c>
       <c r="D130" t="n">
-        <v>158668000</v>
+        <v>157126000</v>
       </c>
       <c r="E130" t="n">
-        <v>159679000</v>
+        <v>157895000</v>
       </c>
       <c r="F130" t="n">
-        <v>1105.98353873</v>
+        <v>599.24007712</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45924.375</v>
+        <v>45928.375</v>
       </c>
       <c r="B131" t="n">
-        <v>159680000</v>
+        <v>157892000</v>
       </c>
       <c r="C131" t="n">
-        <v>161200000</v>
+        <v>160800000</v>
       </c>
       <c r="D131" t="n">
-        <v>159001000</v>
+        <v>157559000</v>
       </c>
       <c r="E131" t="n">
-        <v>160700000</v>
+        <v>160579000</v>
       </c>
       <c r="F131" t="n">
-        <v>989.63619655</v>
+        <v>1115.14654906</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45925.375</v>
+        <v>45929.375</v>
       </c>
       <c r="B132" t="n">
-        <v>160700000</v>
+        <v>160579000</v>
       </c>
       <c r="C132" t="n">
-        <v>161037000</v>
+        <v>163200000</v>
       </c>
       <c r="D132" t="n">
-        <v>158000000</v>
+        <v>159300000</v>
       </c>
       <c r="E132" t="n">
-        <v>158200000</v>
+        <v>162976000</v>
       </c>
       <c r="F132" t="n">
-        <v>2072.65761536</v>
+        <v>1561.77655952</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45926.375</v>
+        <v>45930.375</v>
       </c>
       <c r="B133" t="n">
-        <v>158219000</v>
+        <v>162976000</v>
       </c>
       <c r="C133" t="n">
-        <v>159307000</v>
+        <v>163655000</v>
       </c>
       <c r="D133" t="n">
-        <v>157100000</v>
+        <v>161111000</v>
       </c>
       <c r="E133" t="n">
-        <v>158128000</v>
+        <v>162828000</v>
       </c>
       <c r="F133" t="n">
-        <v>1636.24151791</v>
+        <v>1347.68465165</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45927.375</v>
+        <v>45931.375</v>
       </c>
       <c r="B134" t="n">
-        <v>158129000</v>
+        <v>162828000</v>
       </c>
       <c r="C134" t="n">
-        <v>158250000</v>
+        <v>168429000</v>
       </c>
       <c r="D134" t="n">
-        <v>157126000</v>
+        <v>162789000</v>
       </c>
       <c r="E134" t="n">
-        <v>157895000</v>
+        <v>168424000</v>
       </c>
       <c r="F134" t="n">
-        <v>599.24007712</v>
+        <v>2391.53349082</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45928.375</v>
+        <v>45932.375</v>
       </c>
       <c r="B135" t="n">
-        <v>157892000</v>
+        <v>168424000</v>
       </c>
       <c r="C135" t="n">
-        <v>160800000</v>
+        <v>170903000</v>
       </c>
       <c r="D135" t="n">
-        <v>157559000</v>
+        <v>167709000</v>
       </c>
       <c r="E135" t="n">
-        <v>160579000</v>
+        <v>170704000</v>
       </c>
       <c r="F135" t="n">
-        <v>1115.14654906</v>
+        <v>2634.57350068</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45929.375</v>
+        <v>45933.375</v>
       </c>
       <c r="B136" t="n">
-        <v>160579000</v>
+        <v>170749000</v>
       </c>
       <c r="C136" t="n">
-        <v>163200000</v>
+        <v>174995000</v>
       </c>
       <c r="D136" t="n">
-        <v>159300000</v>
+        <v>169100000</v>
       </c>
       <c r="E136" t="n">
-        <v>162976000</v>
+        <v>173460000</v>
       </c>
       <c r="F136" t="n">
-        <v>1561.77655952</v>
+        <v>2241.08106806</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45930.375</v>
+        <v>45934.375</v>
       </c>
       <c r="B137" t="n">
-        <v>162976000</v>
+        <v>173460000</v>
       </c>
       <c r="C137" t="n">
-        <v>163655000</v>
+        <v>174990000</v>
       </c>
       <c r="D137" t="n">
-        <v>161111000</v>
+        <v>172673000</v>
       </c>
       <c r="E137" t="n">
-        <v>162828000</v>
+        <v>174964000</v>
       </c>
       <c r="F137" t="n">
-        <v>1347.68465165</v>
+        <v>2463.17052828</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45931.375</v>
+        <v>45935.375</v>
       </c>
       <c r="B138" t="n">
-        <v>162828000</v>
+        <v>174986000</v>
       </c>
       <c r="C138" t="n">
-        <v>168429000</v>
+        <v>178651000</v>
       </c>
       <c r="D138" t="n">
-        <v>162789000</v>
+        <v>174270000</v>
       </c>
       <c r="E138" t="n">
-        <v>168424000</v>
+        <v>177024000</v>
       </c>
       <c r="F138" t="n">
-        <v>2391.53349082</v>
+        <v>3767.82109651</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45932.375</v>
+        <v>45936.375</v>
       </c>
       <c r="B139" t="n">
-        <v>168424000</v>
+        <v>177002000</v>
       </c>
       <c r="C139" t="n">
-        <v>170903000</v>
+        <v>178790000</v>
       </c>
       <c r="D139" t="n">
-        <v>167709000</v>
+        <v>176500000</v>
       </c>
       <c r="E139" t="n">
-        <v>170704000</v>
+        <v>177536000</v>
       </c>
       <c r="F139" t="n">
-        <v>2634.57350068</v>
+        <v>2611.57241052</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45933.375</v>
+        <v>45937.375</v>
       </c>
       <c r="B140" t="n">
-        <v>170749000</v>
+        <v>177562000</v>
       </c>
       <c r="C140" t="n">
-        <v>174995000</v>
+        <v>178400000</v>
       </c>
       <c r="D140" t="n">
-        <v>169100000</v>
+        <v>174385000</v>
       </c>
       <c r="E140" t="n">
-        <v>173460000</v>
+        <v>175460000</v>
       </c>
       <c r="F140" t="n">
-        <v>2241.08106806</v>
+        <v>3389.80439054</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45934.375</v>
+        <v>45938.375</v>
       </c>
       <c r="B141" t="n">
-        <v>173460000</v>
+        <v>175490000</v>
       </c>
       <c r="C141" t="n">
-        <v>174990000</v>
+        <v>178617000</v>
       </c>
       <c r="D141" t="n">
-        <v>172673000</v>
+        <v>175460000</v>
       </c>
       <c r="E141" t="n">
-        <v>174964000</v>
+        <v>178011000</v>
       </c>
       <c r="F141" t="n">
-        <v>2463.17052828</v>
+        <v>2463.9288202</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45935.375</v>
+        <v>45939.375</v>
       </c>
       <c r="B142" t="n">
-        <v>174986000</v>
+        <v>177853000</v>
       </c>
       <c r="C142" t="n">
-        <v>178651000</v>
+        <v>179869000</v>
       </c>
       <c r="D142" t="n">
-        <v>174270000</v>
+        <v>176496000</v>
       </c>
       <c r="E142" t="n">
-        <v>177024000</v>
+        <v>177616000</v>
       </c>
       <c r="F142" t="n">
-        <v>3767.82109651</v>
+        <v>2825.3725964</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45936.375</v>
+        <v>45940.375</v>
       </c>
       <c r="B143" t="n">
-        <v>177002000</v>
+        <v>177616000</v>
       </c>
       <c r="C143" t="n">
-        <v>178790000</v>
+        <v>178151000</v>
       </c>
       <c r="D143" t="n">
-        <v>176500000</v>
+        <v>165000000</v>
       </c>
       <c r="E143" t="n">
-        <v>177536000</v>
+        <v>172257000</v>
       </c>
       <c r="F143" t="n">
-        <v>2611.57241052</v>
+        <v>6799.93776544</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45937.375</v>
+        <v>45941.375</v>
       </c>
       <c r="B144" t="n">
-        <v>177562000</v>
+        <v>172180000</v>
       </c>
       <c r="C144" t="n">
-        <v>178400000</v>
+        <v>173937000</v>
       </c>
       <c r="D144" t="n">
-        <v>174385000</v>
+        <v>166500000</v>
       </c>
       <c r="E144" t="n">
-        <v>175460000</v>
+        <v>170390000</v>
       </c>
       <c r="F144" t="n">
-        <v>3389.80439054</v>
+        <v>4416.69331273</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45938.375</v>
+        <v>45942.375</v>
       </c>
       <c r="B145" t="n">
-        <v>175490000</v>
+        <v>170390000</v>
       </c>
       <c r="C145" t="n">
-        <v>178617000</v>
+        <v>174909000</v>
       </c>
       <c r="D145" t="n">
-        <v>175460000</v>
+        <v>168132000</v>
       </c>
       <c r="E145" t="n">
-        <v>178011000</v>
+        <v>173833000</v>
       </c>
       <c r="F145" t="n">
-        <v>2463.9288202</v>
+        <v>3435.1907301</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45939.375</v>
+        <v>45943.375</v>
       </c>
       <c r="B146" t="n">
-        <v>177853000</v>
+        <v>173833000</v>
       </c>
       <c r="C146" t="n">
-        <v>179869000</v>
+        <v>175337000</v>
       </c>
       <c r="D146" t="n">
-        <v>176496000</v>
+        <v>170778000</v>
       </c>
       <c r="E146" t="n">
-        <v>177616000</v>
+        <v>171680000</v>
       </c>
       <c r="F146" t="n">
-        <v>2825.3725964</v>
+        <v>2243.15905637</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45940.375</v>
+        <v>45944.375</v>
       </c>
       <c r="B147" t="n">
-        <v>177616000</v>
+        <v>171695000</v>
       </c>
       <c r="C147" t="n">
-        <v>178151000</v>
+        <v>172444000</v>
       </c>
       <c r="D147" t="n">
-        <v>165000000</v>
+        <v>168000000</v>
       </c>
       <c r="E147" t="n">
-        <v>172257000</v>
+        <v>170070000</v>
       </c>
       <c r="F147" t="n">
-        <v>6799.93776544</v>
+        <v>2556.34346069</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45941.375</v>
+        <v>45945.375</v>
       </c>
       <c r="B148" t="n">
-        <v>172180000</v>
+        <v>170109000</v>
       </c>
       <c r="C148" t="n">
-        <v>173937000</v>
+        <v>170740000</v>
       </c>
       <c r="D148" t="n">
-        <v>166500000</v>
+        <v>168001000</v>
       </c>
       <c r="E148" t="n">
-        <v>170390000</v>
+        <v>168539000</v>
       </c>
       <c r="F148" t="n">
-        <v>4416.69331273</v>
+        <v>1724.32577247</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45942.375</v>
+        <v>45946.375</v>
       </c>
       <c r="B149" t="n">
-        <v>170390000</v>
+        <v>168642000</v>
       </c>
       <c r="C149" t="n">
-        <v>174909000</v>
+        <v>170124000</v>
       </c>
       <c r="D149" t="n">
-        <v>168132000</v>
+        <v>164858000</v>
       </c>
       <c r="E149" t="n">
-        <v>173833000</v>
+        <v>165290000</v>
       </c>
       <c r="F149" t="n">
-        <v>3435.1907301</v>
+        <v>2618.72985457</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45943.375</v>
+        <v>45947.375</v>
       </c>
       <c r="B150" t="n">
-        <v>173833000</v>
+        <v>165291000</v>
       </c>
       <c r="C150" t="n">
-        <v>175337000</v>
+        <v>166565000</v>
       </c>
       <c r="D150" t="n">
-        <v>170778000</v>
+        <v>159671000</v>
       </c>
       <c r="E150" t="n">
-        <v>171680000</v>
+        <v>163639000</v>
       </c>
       <c r="F150" t="n">
-        <v>2243.15905637</v>
+        <v>4263.22344629</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45944.375</v>
+        <v>45948.375</v>
       </c>
       <c r="B151" t="n">
-        <v>171695000</v>
+        <v>163639000</v>
       </c>
       <c r="C151" t="n">
-        <v>172444000</v>
+        <v>164998000</v>
       </c>
       <c r="D151" t="n">
-        <v>168000000</v>
+        <v>162852000</v>
       </c>
       <c r="E151" t="n">
-        <v>170070000</v>
+        <v>163631000</v>
       </c>
       <c r="F151" t="n">
-        <v>2556.34346069</v>
+        <v>926.1340221299999</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45945.375</v>
+        <v>45949.375</v>
       </c>
       <c r="B152" t="n">
-        <v>170109000</v>
+        <v>163631000</v>
       </c>
       <c r="C152" t="n">
-        <v>170740000</v>
+        <v>165996000</v>
       </c>
       <c r="D152" t="n">
-        <v>168001000</v>
+        <v>161250000</v>
       </c>
       <c r="E152" t="n">
-        <v>168539000</v>
+        <v>164806000</v>
       </c>
       <c r="F152" t="n">
-        <v>1724.32577247</v>
+        <v>1399.97751435</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45946.375</v>
+        <v>45950.375</v>
       </c>
       <c r="B153" t="n">
-        <v>168642000</v>
+        <v>164806000</v>
       </c>
       <c r="C153" t="n">
-        <v>170124000</v>
+        <v>167468000</v>
       </c>
       <c r="D153" t="n">
-        <v>164858000</v>
+        <v>163398000</v>
       </c>
       <c r="E153" t="n">
-        <v>165290000</v>
+        <v>165911000</v>
       </c>
       <c r="F153" t="n">
-        <v>2618.72985457</v>
+        <v>1448.62619236</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45947.375</v>
+        <v>45951.375</v>
       </c>
       <c r="B154" t="n">
-        <v>165291000</v>
+        <v>165911000</v>
       </c>
       <c r="C154" t="n">
-        <v>166565000</v>
+        <v>169336000</v>
       </c>
       <c r="D154" t="n">
-        <v>159671000</v>
+        <v>162011000</v>
       </c>
       <c r="E154" t="n">
-        <v>163639000</v>
+        <v>163400000</v>
       </c>
       <c r="F154" t="n">
-        <v>4263.22344629</v>
+        <v>2420.85720656</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45948.375</v>
+        <v>45952.375</v>
       </c>
       <c r="B155" t="n">
-        <v>163639000</v>
+        <v>163400000</v>
       </c>
       <c r="C155" t="n">
-        <v>164998000</v>
+        <v>164406000</v>
       </c>
       <c r="D155" t="n">
-        <v>162852000</v>
+        <v>162500000</v>
       </c>
       <c r="E155" t="n">
-        <v>163631000</v>
+        <v>163153000</v>
       </c>
       <c r="F155" t="n">
-        <v>926.1340221299999</v>
+        <v>1291.51295714</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45949.375</v>
+        <v>45953.375</v>
       </c>
       <c r="B156" t="n">
-        <v>163631000</v>
+        <v>163153000</v>
       </c>
       <c r="C156" t="n">
-        <v>165996000</v>
+        <v>166400000</v>
       </c>
       <c r="D156" t="n">
-        <v>161250000</v>
+        <v>163035000</v>
       </c>
       <c r="E156" t="n">
-        <v>164806000</v>
+        <v>165546000</v>
       </c>
       <c r="F156" t="n">
-        <v>1399.97751435</v>
+        <v>1119.20412068</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45950.375</v>
+        <v>45954.375</v>
       </c>
       <c r="B157" t="n">
-        <v>164806000</v>
+        <v>165546000</v>
       </c>
       <c r="C157" t="n">
-        <v>167468000</v>
+        <v>167381000</v>
       </c>
       <c r="D157" t="n">
-        <v>163398000</v>
+        <v>164420000</v>
       </c>
       <c r="E157" t="n">
-        <v>165911000</v>
+        <v>165703000</v>
       </c>
       <c r="F157" t="n">
-        <v>1448.62619236</v>
+        <v>1440.09487313</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45951.375</v>
+        <v>45955.375</v>
       </c>
       <c r="B158" t="n">
-        <v>165911000</v>
+        <v>165703000</v>
       </c>
       <c r="C158" t="n">
-        <v>169336000</v>
+        <v>166849000</v>
       </c>
       <c r="D158" t="n">
-        <v>162011000</v>
+        <v>165331000</v>
       </c>
       <c r="E158" t="n">
-        <v>163400000</v>
+        <v>166310000</v>
       </c>
       <c r="F158" t="n">
-        <v>2420.85720656</v>
+        <v>515.28984273</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45952.375</v>
+        <v>45956.375</v>
       </c>
       <c r="B159" t="n">
-        <v>163400000</v>
+        <v>166330000</v>
       </c>
       <c r="C159" t="n">
-        <v>164406000</v>
+        <v>170000000</v>
       </c>
       <c r="D159" t="n">
-        <v>162500000</v>
+        <v>166104000</v>
       </c>
       <c r="E159" t="n">
-        <v>163153000</v>
+        <v>169514000</v>
       </c>
       <c r="F159" t="n">
-        <v>1291.51295714</v>
+        <v>1297.92398941</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45953.375</v>
+        <v>45957.375</v>
       </c>
       <c r="B160" t="n">
-        <v>163153000</v>
+        <v>169514000</v>
       </c>
       <c r="C160" t="n">
-        <v>166400000</v>
+        <v>171500000</v>
       </c>
       <c r="D160" t="n">
-        <v>163035000</v>
+        <v>168793000</v>
       </c>
       <c r="E160" t="n">
-        <v>165546000</v>
+        <v>168980000</v>
       </c>
       <c r="F160" t="n">
-        <v>1119.20412068</v>
+        <v>1539.67425404</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45954.375</v>
+        <v>45958.375</v>
       </c>
       <c r="B161" t="n">
-        <v>165546000</v>
+        <v>168980000</v>
       </c>
       <c r="C161" t="n">
-        <v>167381000</v>
+        <v>170859000</v>
       </c>
       <c r="D161" t="n">
-        <v>164420000</v>
+        <v>167550000</v>
       </c>
       <c r="E161" t="n">
-        <v>165703000</v>
+        <v>168263000</v>
       </c>
       <c r="F161" t="n">
-        <v>1440.09487313</v>
+        <v>1268.51890121</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45955.375</v>
+        <v>45959.375</v>
       </c>
       <c r="B162" t="n">
-        <v>165703000</v>
+        <v>168263000</v>
       </c>
       <c r="C162" t="n">
-        <v>166849000</v>
+        <v>168401000</v>
       </c>
       <c r="D162" t="n">
-        <v>165331000</v>
+        <v>164000000</v>
       </c>
       <c r="E162" t="n">
-        <v>166310000</v>
+        <v>164617000</v>
       </c>
       <c r="F162" t="n">
-        <v>515.28984273</v>
+        <v>1947.2314325</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45956.375</v>
+        <v>45960.375</v>
       </c>
       <c r="B163" t="n">
-        <v>166330000</v>
+        <v>164597000</v>
       </c>
       <c r="C163" t="n">
-        <v>170000000</v>
+        <v>166201000</v>
       </c>
       <c r="D163" t="n">
-        <v>166104000</v>
+        <v>162000000</v>
       </c>
       <c r="E163" t="n">
-        <v>169514000</v>
+        <v>164258000</v>
       </c>
       <c r="F163" t="n">
-        <v>1297.92398941</v>
+        <v>2160.38972862</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45957.375</v>
+        <v>45961.375</v>
       </c>
       <c r="B164" t="n">
-        <v>169514000</v>
+        <v>164259000</v>
       </c>
       <c r="C164" t="n">
-        <v>171500000</v>
+        <v>166000000</v>
       </c>
       <c r="D164" t="n">
-        <v>168793000</v>
+        <v>163255000</v>
       </c>
       <c r="E164" t="n">
-        <v>168980000</v>
+        <v>164275000</v>
       </c>
       <c r="F164" t="n">
-        <v>1539.67425404</v>
+        <v>1085.96360328</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45958.375</v>
+        <v>45962.375</v>
       </c>
       <c r="B165" t="n">
-        <v>168980000</v>
+        <v>164275000</v>
       </c>
       <c r="C165" t="n">
-        <v>170859000</v>
+        <v>164692000</v>
       </c>
       <c r="D165" t="n">
-        <v>167550000</v>
+        <v>163410000</v>
       </c>
       <c r="E165" t="n">
-        <v>168263000</v>
+        <v>164000000</v>
       </c>
       <c r="F165" t="n">
-        <v>1268.51890121</v>
+        <v>394.93497609</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45959.375</v>
+        <v>45963.375</v>
       </c>
       <c r="B166" t="n">
-        <v>168263000</v>
+        <v>164001000</v>
       </c>
       <c r="C166" t="n">
-        <v>168401000</v>
+        <v>165139000</v>
       </c>
       <c r="D166" t="n">
-        <v>164000000</v>
+        <v>163300000</v>
       </c>
       <c r="E166" t="n">
-        <v>164617000</v>
+        <v>164129000</v>
       </c>
       <c r="F166" t="n">
-        <v>1947.2314325</v>
+        <v>538.34171488</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45960.375</v>
+        <v>45964.375</v>
       </c>
       <c r="B167" t="n">
-        <v>164597000</v>
+        <v>164074000</v>
       </c>
       <c r="C167" t="n">
-        <v>166201000</v>
+        <v>164133000</v>
       </c>
       <c r="D167" t="n">
-        <v>162000000</v>
+        <v>158000000</v>
       </c>
       <c r="E167" t="n">
-        <v>164258000</v>
+        <v>158587000</v>
       </c>
       <c r="F167" t="n">
-        <v>2160.38972862</v>
+        <v>3370.61616028</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45961.375</v>
+        <v>45965.375</v>
       </c>
       <c r="B168" t="n">
-        <v>164259000</v>
+        <v>158589000</v>
       </c>
       <c r="C168" t="n">
-        <v>166000000</v>
+        <v>161128000</v>
       </c>
       <c r="D168" t="n">
-        <v>163255000</v>
+        <v>147651000</v>
       </c>
       <c r="E168" t="n">
-        <v>164275000</v>
+        <v>152873000</v>
       </c>
       <c r="F168" t="n">
-        <v>1085.96360328</v>
+        <v>6623.28166665</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45962.375</v>
+        <v>45966.375</v>
       </c>
       <c r="B169" t="n">
-        <v>164275000</v>
+        <v>152873000</v>
       </c>
       <c r="C169" t="n">
-        <v>164692000</v>
+        <v>156324000</v>
       </c>
       <c r="D169" t="n">
-        <v>163410000</v>
+        <v>146679000</v>
       </c>
       <c r="E169" t="n">
-        <v>164000000</v>
+        <v>156008000</v>
       </c>
       <c r="F169" t="n">
-        <v>394.93497609</v>
+        <v>4638.82222413</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45963.375</v>
+        <v>45967.375</v>
       </c>
       <c r="B170" t="n">
-        <v>164001000</v>
+        <v>156008000</v>
       </c>
       <c r="C170" t="n">
-        <v>165139000</v>
+        <v>156126000</v>
       </c>
       <c r="D170" t="n">
-        <v>163300000</v>
+        <v>150500000</v>
       </c>
       <c r="E170" t="n">
-        <v>164129000</v>
+        <v>151401000</v>
       </c>
       <c r="F170" t="n">
-        <v>538.34171488</v>
+        <v>1828.65611327</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45964.375</v>
+        <v>45968.375</v>
       </c>
       <c r="B171" t="n">
-        <v>164074000</v>
+        <v>151412000</v>
       </c>
       <c r="C171" t="n">
-        <v>164133000</v>
+        <v>154961000</v>
       </c>
       <c r="D171" t="n">
-        <v>158000000</v>
+        <v>148831000</v>
       </c>
       <c r="E171" t="n">
-        <v>158587000</v>
+        <v>153850000</v>
       </c>
       <c r="F171" t="n">
-        <v>3370.61616028</v>
+        <v>2342.63161192</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45965.375</v>
+        <v>45969.375</v>
       </c>
       <c r="B172" t="n">
-        <v>158589000</v>
+        <v>153850000</v>
       </c>
       <c r="C172" t="n">
-        <v>161128000</v>
+        <v>154400000</v>
       </c>
       <c r="D172" t="n">
-        <v>147651000</v>
+        <v>151353000</v>
       </c>
       <c r="E172" t="n">
-        <v>152873000</v>
+        <v>152541000</v>
       </c>
       <c r="F172" t="n">
-        <v>6623.28166665</v>
+        <v>879.04177043</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45966.375</v>
+        <v>45970.375</v>
       </c>
       <c r="B173" t="n">
-        <v>152873000</v>
+        <v>152542000</v>
       </c>
       <c r="C173" t="n">
-        <v>156324000</v>
+        <v>156300000</v>
       </c>
       <c r="D173" t="n">
-        <v>146679000</v>
+        <v>151279000</v>
       </c>
       <c r="E173" t="n">
-        <v>156008000</v>
+        <v>155490000</v>
       </c>
       <c r="F173" t="n">
-        <v>4638.82222413</v>
+        <v>1204.96625518</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45967.375</v>
+        <v>45971.375</v>
       </c>
       <c r="B174" t="n">
-        <v>156008000</v>
+        <v>155490000</v>
       </c>
       <c r="C174" t="n">
-        <v>156126000</v>
+        <v>158330000</v>
       </c>
       <c r="D174" t="n">
-        <v>150500000</v>
+        <v>154922000</v>
       </c>
       <c r="E174" t="n">
-        <v>151401000</v>
+        <v>156797000</v>
       </c>
       <c r="F174" t="n">
-        <v>1828.65611327</v>
+        <v>1825.40211546</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45968.375</v>
+        <v>45972.375</v>
       </c>
       <c r="B175" t="n">
-        <v>151412000</v>
+        <v>156802000</v>
       </c>
       <c r="C175" t="n">
-        <v>154961000</v>
+        <v>159150000</v>
       </c>
       <c r="D175" t="n">
-        <v>148831000</v>
+        <v>153267000</v>
       </c>
       <c r="E175" t="n">
-        <v>153850000</v>
+        <v>154302000</v>
       </c>
       <c r="F175" t="n">
-        <v>2342.63161192</v>
+        <v>1489.05390557</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45969.375</v>
+        <v>45973.375</v>
       </c>
       <c r="B176" t="n">
-        <v>153850000</v>
+        <v>154302000</v>
       </c>
       <c r="C176" t="n">
-        <v>154400000</v>
+        <v>157200000</v>
       </c>
       <c r="D176" t="n">
-        <v>151353000</v>
+        <v>152000000</v>
       </c>
       <c r="E176" t="n">
-        <v>152541000</v>
+        <v>153300000</v>
       </c>
       <c r="F176" t="n">
-        <v>879.04177043</v>
+        <v>1370.69258931</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45970.375</v>
+        <v>45974.375</v>
       </c>
       <c r="B177" t="n">
-        <v>152542000</v>
+        <v>153300000</v>
       </c>
       <c r="C177" t="n">
-        <v>156300000</v>
+        <v>155271000</v>
       </c>
       <c r="D177" t="n">
-        <v>151279000</v>
+        <v>149000000</v>
       </c>
       <c r="E177" t="n">
-        <v>155490000</v>
+        <v>151306000</v>
       </c>
       <c r="F177" t="n">
-        <v>1204.96625518</v>
+        <v>2615.18799842</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45971.375</v>
+        <v>45975.375</v>
       </c>
       <c r="B178" t="n">
-        <v>155490000</v>
+        <v>151314000</v>
       </c>
       <c r="C178" t="n">
-        <v>158330000</v>
+        <v>151619000</v>
       </c>
       <c r="D178" t="n">
-        <v>154922000</v>
+        <v>142950000</v>
       </c>
       <c r="E178" t="n">
-        <v>156797000</v>
+        <v>143623000</v>
       </c>
       <c r="F178" t="n">
-        <v>1825.40211546</v>
+        <v>6095.07370382</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45972.375</v>
+        <v>45976.375</v>
       </c>
       <c r="B179" t="n">
-        <v>156802000</v>
+        <v>143623000</v>
       </c>
       <c r="C179" t="n">
-        <v>159150000</v>
+        <v>146306000</v>
       </c>
       <c r="D179" t="n">
-        <v>153267000</v>
+        <v>143489000</v>
       </c>
       <c r="E179" t="n">
-        <v>154302000</v>
+        <v>144265000</v>
       </c>
       <c r="F179" t="n">
-        <v>1489.05390557</v>
+        <v>1515.28574425</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45973.375</v>
+        <v>45977.375</v>
       </c>
       <c r="B180" t="n">
-        <v>154302000</v>
+        <v>144265000</v>
       </c>
       <c r="C180" t="n">
-        <v>157200000</v>
+        <v>144888000</v>
       </c>
       <c r="D180" t="n">
-        <v>152000000</v>
+        <v>138663000</v>
       </c>
       <c r="E180" t="n">
-        <v>153300000</v>
+        <v>140320000</v>
       </c>
       <c r="F180" t="n">
-        <v>1370.69258931</v>
+        <v>3306.73095286</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45974.375</v>
+        <v>45978.375</v>
       </c>
       <c r="B181" t="n">
-        <v>153300000</v>
+        <v>140320000</v>
       </c>
       <c r="C181" t="n">
-        <v>155271000</v>
+        <v>142926000</v>
       </c>
       <c r="D181" t="n">
-        <v>149000000</v>
+        <v>137127000</v>
       </c>
       <c r="E181" t="n">
-        <v>151306000</v>
+        <v>137706000</v>
       </c>
       <c r="F181" t="n">
-        <v>2615.18799842</v>
+        <v>3402.72907309</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45975.375</v>
+        <v>45979.375</v>
       </c>
       <c r="B182" t="n">
-        <v>151314000</v>
+        <v>137706000</v>
       </c>
       <c r="C182" t="n">
-        <v>151619000</v>
+        <v>139184000</v>
       </c>
       <c r="D182" t="n">
-        <v>142950000</v>
+        <v>132200000</v>
       </c>
       <c r="E182" t="n">
-        <v>143623000</v>
+        <v>137750000</v>
       </c>
       <c r="F182" t="n">
-        <v>6095.07370382</v>
+        <v>6342.5202439</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45976.375</v>
+        <v>45980.375</v>
       </c>
       <c r="B183" t="n">
-        <v>143623000</v>
+        <v>137750000</v>
       </c>
       <c r="C183" t="n">
-        <v>146306000</v>
+        <v>137807000</v>
       </c>
       <c r="D183" t="n">
-        <v>143489000</v>
+        <v>132449000</v>
       </c>
       <c r="E183" t="n">
-        <v>144265000</v>
+        <v>136500000</v>
       </c>
       <c r="F183" t="n">
-        <v>1515.28574425</v>
+        <v>2862.63500623</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45977.375</v>
+        <v>45981.375</v>
       </c>
       <c r="B184" t="n">
-        <v>144265000</v>
+        <v>136500000</v>
       </c>
       <c r="C184" t="n">
-        <v>144888000</v>
+        <v>138621000</v>
       </c>
       <c r="D184" t="n">
-        <v>138663000</v>
+        <v>129800000</v>
       </c>
       <c r="E184" t="n">
-        <v>140320000</v>
+        <v>129896000</v>
       </c>
       <c r="F184" t="n">
-        <v>3306.73095286</v>
+        <v>4303.83230626</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45978.375</v>
+        <v>45982.375</v>
       </c>
       <c r="B185" t="n">
-        <v>140320000</v>
+        <v>129896000</v>
       </c>
       <c r="C185" t="n">
-        <v>142926000</v>
+        <v>131000000</v>
       </c>
       <c r="D185" t="n">
-        <v>137127000</v>
+        <v>121455000</v>
       </c>
       <c r="E185" t="n">
-        <v>137706000</v>
+        <v>128044000</v>
       </c>
       <c r="F185" t="n">
-        <v>3402.72907309</v>
+        <v>8849.112148259999</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45979.375</v>
+        <v>45983.375</v>
       </c>
       <c r="B186" t="n">
-        <v>137706000</v>
+        <v>128044000</v>
       </c>
       <c r="C186" t="n">
-        <v>139184000</v>
+        <v>129000000</v>
       </c>
       <c r="D186" t="n">
-        <v>132200000</v>
+        <v>125609000</v>
       </c>
       <c r="E186" t="n">
-        <v>137750000</v>
+        <v>127333000</v>
       </c>
       <c r="F186" t="n">
-        <v>6342.5202439</v>
+        <v>1739.59714235</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45980.375</v>
+        <v>45984.375</v>
       </c>
       <c r="B187" t="n">
-        <v>137750000</v>
+        <v>127373000</v>
       </c>
       <c r="C187" t="n">
-        <v>137807000</v>
+        <v>133852000</v>
       </c>
       <c r="D187" t="n">
-        <v>132449000</v>
+        <v>127327000</v>
       </c>
       <c r="E187" t="n">
-        <v>136500000</v>
+        <v>131960000</v>
       </c>
       <c r="F187" t="n">
-        <v>2862.63500623</v>
+        <v>3695.67167349</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45981.375</v>
+        <v>45985.375</v>
       </c>
       <c r="B188" t="n">
-        <v>136500000</v>
+        <v>131998000</v>
       </c>
       <c r="C188" t="n">
-        <v>138621000</v>
+        <v>133761000</v>
       </c>
       <c r="D188" t="n">
-        <v>129800000</v>
+        <v>129050000</v>
       </c>
       <c r="E188" t="n">
-        <v>129896000</v>
+        <v>132574000</v>
       </c>
       <c r="F188" t="n">
-        <v>4303.83230626</v>
+        <v>3273.54848822</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45982.375</v>
+        <v>45986.375</v>
       </c>
       <c r="B189" t="n">
-        <v>129896000</v>
+        <v>132574000</v>
       </c>
       <c r="C189" t="n">
-        <v>131000000</v>
+        <v>132750000</v>
       </c>
       <c r="D189" t="n">
-        <v>121455000</v>
+        <v>129365000</v>
       </c>
       <c r="E189" t="n">
-        <v>128044000</v>
+        <v>130736000</v>
       </c>
       <c r="F189" t="n">
-        <v>8849.112148259999</v>
+        <v>2126.40154021</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45983.375</v>
+        <v>45987.375</v>
       </c>
       <c r="B190" t="n">
-        <v>128044000</v>
+        <v>130779000</v>
       </c>
       <c r="C190" t="n">
-        <v>129000000</v>
+        <v>135485000</v>
       </c>
       <c r="D190" t="n">
-        <v>125609000</v>
+        <v>129600000</v>
       </c>
       <c r="E190" t="n">
-        <v>127333000</v>
+        <v>135366000</v>
       </c>
       <c r="F190" t="n">
-        <v>1739.59714235</v>
+        <v>2216.72386044</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45984.375</v>
+        <v>45988.375</v>
       </c>
       <c r="B191" t="n">
-        <v>127373000</v>
+        <v>135366000</v>
       </c>
       <c r="C191" t="n">
-        <v>133852000</v>
+        <v>138400000</v>
       </c>
       <c r="D191" t="n">
-        <v>127327000</v>
+        <v>134608000</v>
       </c>
       <c r="E191" t="n">
-        <v>131960000</v>
+        <v>136941000</v>
       </c>
       <c r="F191" t="n">
-        <v>3695.67167349</v>
+        <v>2460.70846276</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45985.375</v>
+        <v>45989.375</v>
       </c>
       <c r="B192" t="n">
-        <v>131998000</v>
+        <v>136989000</v>
       </c>
       <c r="C192" t="n">
-        <v>133761000</v>
+        <v>139868000</v>
       </c>
       <c r="D192" t="n">
-        <v>129050000</v>
+        <v>135691000</v>
       </c>
       <c r="E192" t="n">
-        <v>132574000</v>
+        <v>136334000</v>
       </c>
       <c r="F192" t="n">
-        <v>3273.54848822</v>
+        <v>1928.85863285</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45986.375</v>
+        <v>45990.375</v>
       </c>
       <c r="B193" t="n">
-        <v>132574000</v>
+        <v>136334000</v>
       </c>
       <c r="C193" t="n">
-        <v>132750000</v>
+        <v>136770000</v>
       </c>
       <c r="D193" t="n">
-        <v>129365000</v>
+        <v>135300000</v>
       </c>
       <c r="E193" t="n">
-        <v>130736000</v>
+        <v>136073000</v>
       </c>
       <c r="F193" t="n">
-        <v>2126.40154021</v>
+        <v>769.16757448</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45987.375</v>
+        <v>45991.375</v>
       </c>
       <c r="B194" t="n">
-        <v>130779000</v>
+        <v>136000000</v>
       </c>
       <c r="C194" t="n">
-        <v>135485000</v>
+        <v>137631000</v>
       </c>
       <c r="D194" t="n">
-        <v>129600000</v>
+        <v>135600000</v>
       </c>
       <c r="E194" t="n">
-        <v>135366000</v>
+        <v>135744000</v>
       </c>
       <c r="F194" t="n">
-        <v>2216.72386044</v>
+        <v>776.74497018</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45988.375</v>
+        <v>45992.375</v>
       </c>
       <c r="B195" t="n">
-        <v>135366000</v>
+        <v>135752000</v>
       </c>
       <c r="C195" t="n">
-        <v>138400000</v>
+        <v>135839000</v>
       </c>
       <c r="D195" t="n">
-        <v>134608000</v>
+        <v>125809000</v>
       </c>
       <c r="E195" t="n">
-        <v>136941000</v>
+        <v>129172000</v>
       </c>
       <c r="F195" t="n">
-        <v>2460.70846276</v>
+        <v>5383.62240806</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45989.375</v>
+        <v>45993.375</v>
       </c>
       <c r="B196" t="n">
-        <v>136989000</v>
+        <v>129169000</v>
       </c>
       <c r="C196" t="n">
-        <v>139868000</v>
+        <v>137330000</v>
       </c>
       <c r="D196" t="n">
-        <v>135691000</v>
+        <v>128650000</v>
       </c>
       <c r="E196" t="n">
-        <v>136334000</v>
+        <v>135626000</v>
       </c>
       <c r="F196" t="n">
-        <v>1928.85863285</v>
+        <v>2981.09361989</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45990.375</v>
+        <v>45994.375</v>
       </c>
       <c r="B197" t="n">
-        <v>136334000</v>
+        <v>135683000</v>
       </c>
       <c r="C197" t="n">
-        <v>136770000</v>
+        <v>140212000</v>
       </c>
       <c r="D197" t="n">
-        <v>135300000</v>
+        <v>135200000</v>
       </c>
       <c r="E197" t="n">
-        <v>136073000</v>
+        <v>138881000</v>
       </c>
       <c r="F197" t="n">
-        <v>769.16757448</v>
+        <v>2892.41653651</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45991.375</v>
+        <v>45995.375</v>
       </c>
       <c r="B198" t="n">
-        <v>136000000</v>
+        <v>138998000</v>
       </c>
       <c r="C198" t="n">
-        <v>137631000</v>
+        <v>139769000</v>
       </c>
       <c r="D198" t="n">
-        <v>135600000</v>
+        <v>135909000</v>
       </c>
       <c r="E198" t="n">
-        <v>135744000</v>
+        <v>137390000</v>
       </c>
       <c r="F198" t="n">
-        <v>776.74497018</v>
+        <v>1624.69297075</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45992.375</v>
+        <v>45996.375</v>
       </c>
       <c r="B199" t="n">
-        <v>135752000</v>
+        <v>137447000</v>
       </c>
       <c r="C199" t="n">
-        <v>135839000</v>
+        <v>138298000</v>
       </c>
       <c r="D199" t="n">
-        <v>125809000</v>
+        <v>132000000</v>
       </c>
       <c r="E199" t="n">
-        <v>129172000</v>
+        <v>133828000</v>
       </c>
       <c r="F199" t="n">
-        <v>5383.62240806</v>
+        <v>1944.65242825</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45993.375</v>
+        <v>45997.375</v>
       </c>
       <c r="B200" t="n">
-        <v>129169000</v>
+        <v>133870000</v>
       </c>
       <c r="C200" t="n">
-        <v>137330000</v>
+        <v>134940000</v>
       </c>
       <c r="D200" t="n">
-        <v>128650000</v>
+        <v>133200000</v>
       </c>
       <c r="E200" t="n">
-        <v>135626000</v>
+        <v>133598000</v>
       </c>
       <c r="F200" t="n">
-        <v>2981.09361989</v>
+        <v>675.40470233</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45994.375</v>
+        <v>45998.375</v>
       </c>
       <c r="B201" t="n">
-        <v>135683000</v>
+        <v>133601000</v>
       </c>
       <c r="C201" t="n">
-        <v>138811000</v>
+        <v>134459000</v>
       </c>
       <c r="D201" t="n">
-        <v>135200000</v>
+        <v>133497000</v>
       </c>
       <c r="E201" t="n">
-        <v>138428000</v>
+        <v>134108000</v>
       </c>
       <c r="F201" t="n">
-        <v>804.1685467900001</v>
+        <v>141.3297694</v>
       </c>
     </row>
   </sheetData>
